--- a/Base/Teams/Raiders/Team Data.xlsx
+++ b/Base/Teams/Raiders/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>5 1 7 1 5 1 4 4 7 14 5 -1 7 12 15 2 -4 7 2 7 9 4 -2 0 2 3 6 1 2 5 1 6 8 4 0 3 -2 1 7 -2 -4 3 5 3 6 0 0 6 6 -5 14 0 0 3 1 13 0 20 12 2 3 -3 0 3 12 6 7 6 6 5 -1 2 23 13 3 1 2 4 4 3 2 -1 9 3 14 3 2 8 6 -3 -1 10 7 1 -2 1 -2 11 16 10 3 2 5 1 1 3 6 7 3 6 1 2 7 2 2 43 1 3 4 4 2 0 4 2 2 0 7 7 2 4 7 2 5 3 0 5 4 -1 2 1 10 0 4 1 2 2 9 10 2 4 0 9 2 1 6 6 5 0 4 9 11 -2 7 8 2 7 1 4 7 4 6 5 1 8 3 1 11 3 5 2 1 3 14 6 7 1 5 4 18 1 0 0 2 16 5 2 3 3 10 4 23 15 2 0 10 7 4 5 14 10 0 6 0 12 2 7 6 9 6 2 3 0 0 3 2 3 9 11 4 3 1 1 9 3 5 0 24 2 3 13 6 3 -5 11 2 1 9 9 2 5 1 1 4 5 7 3 1 8 2 9 2 23 1 4 13 2 2 2 5 6 5 3 0 2 5 2 2 11 1 0 4 2 5 12 4 0 -3 0 5 0 1 1 4 -2 16 0 0 4 2 9 2 4 1 1 5 3 1 -3 14 3 3 6 3 4 1 3 2 2 3 2 3 0 2 4 3 2 7 12 6 3 -3 3 -3 0 2 1 6 5 2 3 2 0 18 6 4 -2 5 1 20 3 3 0 2 3 11 0 -5 6 26 6 3 -1 4 1 8 0 4 7 -3 7 2 0 1 2 0 2 7 13 2 17 3 2 12 1 -2 3 13 2 1 7 0 15 10 18 3 1 9 0 1 3 3 2 7 2 2 5 1 3 0 2 1 5 6 2 2 18 2 3 16 2 4 3 28 5 3 1 31 -1 2 8 0 13 0 0 0 2 2 2 4 1 15 3 -2 6 0 1 2 4 1 0 4 5 -2 2 1 -2 4 -2 1 1 -4 11 5 2 -4 3 13 1 3 1 3 2 3 5 3 0 4 2 6 4 2 5 2 14 7 4 1 19 3 2 0 1 4 -2 1 6 0 1 27 8 1 4 2 1 5 3 -1 5 4 0 2 2 10 1 2 0 6 2 1 3 0 3 11 3 8 6 5 0 5 -1 5 5 4 2 7 1 1 0 1 1 8 1 4 6 2 6 4 3 9 3 6 18 6 2 0 1 3 1 5 3 1 3 0 1 5 1 2 3 12 9 4 3 9 4 8 -3 6 11 11 4 1 5 1 2 7 7 5 1 3 1 1 11 6 13 3 0 13 3 7 2 1 14 4 1 0 3 4 21 2 3 3 5 3 3 1 -1 12 2 -1 9 2 1 3 8 3 6 4 5 1 7 4 1 4 3 2 4 5 0 18 -4 7 2 3 2 2 4 1 3 0 9 4 1 2 3 0 10 5 5 4 -4 6 6 3 22 2 4 4 4 2 4 5 21 -1 0 4 4</t>
-  </si>
-  <si>
-    <t>7 8 45 8 6 10 11 3 2 4 6 8 23 9 -1 15 29 0 18 6 14 8 9 22 9 3 6 9 13 13 3 19 15 20 15 5 4 2 12 4 10 31 6 6 6 8 18 2 17 18 22 14 6 14 6 6 1 4 34 0 3 24 11 13 5 2 7 10 8 12 1 7 13 9 -1 16 12 9 8 14 12 22 0 11 7 15 5 11 3 10 17 6 7 14 12 9 4 4 5 9 37 15 6 8 4 9 46 12 5 59 23 5 72 3 8 10 1 4 2 4 23 7 2 28 14 20 5 7 29 9 6 11 21 6 9 15 6 11 2 44 1 11 3 10 6 3 7 2 7 13 4 17 8 4 12 1 9 6 11 6 4 7 6 0 19 8 4 7 45 53 2 3 10 3 5 25 9 2 3 8 8 1 16 8 24 0 5 21 13 5 6 26 29 16 7 11 17 18 14 11 11 4 1 18 16 7 9 3 21 3 20 5 7 1 2 2 9 7 -1 16 7 11 2 3 1 13 11 15 19 11 12 11 15 -1 19 4 9 12 2 18 12 9 3 28 28 9 6 4 17 13 14 4 38 18 8 19 9 3 1 12 6 7 29 5 15 46 6 4 47 7 36 8 21 3 7 6 29 10 15 29 6 14 5 8 9 0 5 0 11 9 3 8 13 4 7 3 4 8 6 17 30 22 13 35 6 4 25 10 7 15 14 15 25 9 9 6 -1 16 11 4 29 2 19 12 19 9 9 13 22 11 33 10 3 22 4 85 4 9 57 5 9 8 28 18 12 5 15 15 26 5 14 7 25 6 15 2 14 37 10 21 8 9 13 6 5 6 12 9 24 8 15 13 7 4 12 16 2 3 4 21 4 5 16 9 7 9 37 10 10 20 18 11 27 32 31 9 3 11 10 17 13 10 25 6 4 3 8 9 14 18 9 23 30 9 13 2 13 16 7 4 10 61 25 24 7 23 6 10 25 8 18 8 5 23 12 21 1 4 15 10 12 23 7 23 16 3 16 32 34 4 3 12 5 21 7 0 15 8 8 5 10 9 18 3 51 5 5 4 3 12 8 29 9 29 4 4 9 6 17 5 6 18 3 2 4 6 3 12 7 10 9 48 2 3 25 11 16 6 8 8 10 33 31 29 3 40 8 51 12 4 43 -1 16 2 8 13 0 6 18 18 8 10 10 6 20 7 6 5 4 21 7 9 10 24 5 -1 29 3 6 6 20 6 2 8 3 7 8 10 20 7 2 15 9 5 9 20 24 22 11 2 3 12 3 19 9 17 8 3 6 5 1 4 3 27 3 6 7 5 22 37 24 40 11 5 5 7 9 6 12 3 15 -2 -2 25 6 8 6 21 4 1 9 2 25 31 19 7 8 20 9 8 8 12 56 5 12 12 21 17 13 31 3 11 -1 4 35 10 -5 16 54 9 9 4 30 7 8</t>
-  </si>
-  <si>
-    <t>1 0 5 5 9 4 5 4 6 3 13 6 2 7 13 3 -1 2 9 0 1 3 2 15 3 3 3 11 8 8 10 0 4 13 21 2 3 0 1 5 2 5 5 3 8 3 4 0 2 3 -1 2 9 3 5 13 6 5 4 17 5 8 13 3 -1 1 7 38 6 4 5 48 -1 0 2 2 21 3 14 2 -3 3 10 -3 11 3 6 4 4 4 4 0 3 -3 1 2 2 -5 3 2 -2 11 8 5 6 6 3 3 5 10 8 5 1 4 6 2 -1 2 3 0 1 5 3 -1 0 -1 13 8 9 -1 1 3 1 24 3 -1 6 6 -3 -3 2 3 1 2 1 -1 7 10 11 0 4 3 6 2 18 -2 0 3 6 2 6 4 13 2 1 8 11 2 8 4 5 4 -1 3 2 4 14 6 3 3 1 3 1 4 4 2 1 1 5 0 9 6 0 9 5 4 2 0 3 8 1 6 -4 3 6 7 2 0 -3 4 11 9 2 4 5 3 8 6 10 4 3 5 11 3 2 9 2 3 0 -2 14 -4 -5 7 2 3 6 5 3 1 0 5 3 4 -1 3 7 2 3 -4 4 7 0 1 11 2 5 24 3 8 3 4 22 -2 4 2 2 9 1 9 0 0 0 2 25 7 1 6 14 5 7 12 0 5 12 18 6 17 16 5 7 4 4 5 2 2 1 1 3 1 1 3 13 13 -2 18 -3 -1 13 2 1 1 -2 4 2 15 11 3 1 62 0 1 3 31 3 5 3 1 1 12 3 0 -1 4 -4 1 3 9 2 5 4 1 2 3 0 -4 5 5 1 1 27 12 6 2 3 5 0 0 1 -4 5 0 14 8 3 -1 8 8 9 -1 -1 24 1 2 1 7 8 2 4 5 0 7 5 3 5 5 0 20 1 -1 6 2 1 -2 5 0 4 0 3 0 1 4 5 2 1 -1 2 10 2 0 7 15 3 7 3 18 2 2 3 -3 0 4 1 16 3 2 4 11 6 -1 15 11 4 2 2 5 5 8 1 0 28 2 4 2 3 2 -1 14 -2 1 1 14 -3 2 3 1 4 0 3 6 5 2 2 3 24 4 1 6 0 1 14 10 1 3 5 3 19 4 4 0 -1 0 1 15 7 -1 18 -1 0 3 5 21 5 3 -3 8 2 11 6 4 8 0 2 2 4 1 7 6 9 1 6 11 20 4 3 -2 6 1 1 3 0 5 11 14 0 0 6 8 9 3 3 9 7 0 4 8 8 1 0 0 6 2 0 7 1 6 6 5 0 1 0 1 1 10 1 9 3 11 3 4 0 3 0 5 8 4 0 30 4 2 4 4 1 1 0 6 3 5 9 7 1 5 7 5 2 7 1 4 3 4 22 5 8 5 0 6 0 0 6 4 1 16 4 2 1 5 6 4 16 5 5 6 2 -2 2 6 1 6 20 5 2 3 5 2 0 5 7 5 2 3 8 -3 4 11 12 2 5 0 5 1 3 21 1 3 2 0 6 -1 5 3 2 6 -1 4 4 4 3 2 6 4 14 4 5 1 3 -2 -3 1 -2 10 -1 11 2 5 4 8 -2 18 5 2 6 4 -5 2 1 19 4 0 1 3 7 20 1 0 1 4 2 5 8 1 3 5 2 1 4 3 2 3 8 3 1 12 -5 1 1</t>
-  </si>
-  <si>
-    <t>10 2 16 5 9 16 4 11 7 5 11 11 11 0 5 18 6 1 11 16 75 19 18 7 29 16 10 25 17 6 8 20 16 4 15 9 8 5 9 3 6 9 17 12 18 8 7 15 3 3 14 15 0 9 23 5 7 11 6 15 6 8 -1 27 11 2 21 15 6 26 7 10 18 6 11 7 9 1 5 8 12 5 7 12 14 14 49 9 14 9 12 26 32 4 13 5 16 37 8 4 23 15 23 6 16 2 42 4 3 -1 15 7 3 6 22 12 8 8 6 11 16 26 5 5 2 16 11 7 33 6 35 3 8 10 2 4 13 15 6 12 4 23 22 1 6 5 19 5 3 6 9 19 1 14 10 25 16 3 11 17 13 4 9 10 21 16 27 5 5 50 10 7 23 12 4 5 4 8 5 11 5 5 4 16 1 9 14 17 0 11 26 27 1 9 27 14 6 6 7 11 13 8 4 9 14 16 8 10 14 6 8 4 3 17 21 11 8 3 19 11 6 3 9 8 11 12 13 3 5 15 6 19 9 10 9 16 15 3 22 11 16 0 11 12 6 17 12 14 2 8 8 10 14 6 12 11 3 7 4 -3 22 11 17 3 16 13 6 23 25 8 3 10 11 18 20 3 4 4 19 17 7 28 23 41 -5 9 7 27 6 9 14 4 7 8 14 18 8 17 10 5 17 3 12 15 7 11 -2 25 26 9 15 14 10 19 53 1 1 13 5 5 6 2 3 5 4 5 6 14 5 8 10 1 4 13 8 17 31 7 9 59 34 7 17 14 17 29 1 16 8 4 1 9 9 9 1 2 11 12 4 20 7 13 10 1 92 25 2 8 0 21 6 6 29 29 10 13 4 10 6 4 13 6 49 9 10 6 5 2 2 9 7 9 17 6 13 5 41 5 14 3 8 16 52 25 4 5 9 5 4 12 0 11 8 5 -1 12 8 4 10 9 7 4 13 4 4 2 7 8 9 2 2 3 5 9 6 7 4 10 3 7 1 5 4 22 7 7 4 3 5 5 11 34 0 10 2 9 4 7 13 9 14 9 15 4 4 18 7 2 2 15 8 12 8 9 7 13 14 7 14 23 5 1 3 6 11 7 5 7 10 14 3 14 11 6 10 5 7 26 13 12 12 12 26 6 18 16 6 4 4 1 6 24 13 8 -3 20 27 25 15 20 7 5 6 17 10 8 7 6 9 5 30 6 12 7 -7 14 3 14 2 9 1 -1 6 6 7 5 11 22 19 8 8 7 13 12 -1 16 27 3 1 0 9 7 11 7 13 17 2 10 16 32 3 7 3 38 8 30 22 3 6 3 2 7 14 9 14 3 7 6 4 17 7 3 7 9 9 12 6 1 6 15 17 10 10 9 4 51 5 13 5 7 7 15 7 41 12 7 6 5 4 32 32 11 5 3 17 10 2 2 4</t>
+    <t>5 1 7 1 5 1 4 4 7 14 5 -1 7 12 15 2 -4 7 2 7 9 4 -2 0 2 3 6 1 2 5 1 6 8 4 0 3 -2 1 7 -2 -4 3 5 3 6 0 0 6 6 -5 14 0 0 3 1 13 0 20 12 2 3 -3 0 3 12 6 7 6 6 5 -1 2 23 13 3 1 2 4 4 3 2 -1 9 3 14 3 2 8 6 -3 -1 10 7 1 -2 1 -2 11 16 10 3 2 5 1 1 3 6 7 3 6 1 2 7 2 2 43 1 3 4 4 2 0 4 2 2 0 7 7 2 4 7 2 5 3 0 5 4 -1 2 1 10 0 4 1 2 2 9 10 2 4 0 9 2 1 6 6 5 0 4 9 11 -2 7 8 2 7 1 4 7 4 6 5 1 8 3 1 11 3 5 2 1 3 14 6 7 1 5 4 18 1 0 0 2 16 5 2 3 3 10 4 23 15 2 0 10 7 4 5 14 10 0 6 0 12 2 7 6 9 6 2 3 0 0 3 2 3 9 11 4 3 1 1 9 3 5 0 24 2 3 13 6 3 -5 11 2 1 9 9 2 5 1 1 4 5 7 3 1 8 2 9 2 23 1 4 13 2 2 2 5 6 5 3 0 2 5 2 2 11 1 0 4 2 5 12 4 0 -3 0 5 0 1 1 4 -2 16 0 0 4 2 9 2 4 1 1 5 3 1 -3 14 3 3 6 3 4 1 3 2 2 3 2 3 0 2 4 3 2 7 12 6 3 -3 3 -3 0 2 1 6 5 2 3 2 0 18 6 4 -2 5 1 20 3 3 0 2 3 11 0 -5 6 26 6 3 -1 4 1 8 0 4 7 -3 7 2 0 1 2 0 2 7 13 2 17 3 2 12 1 -2 3 13 2 1 7 0 15 10 18 3 1 9 0 1 3 3 2 7 2 2 5 1 3 0 2 1 5 6 2 2 18 2 3 16 2 4 3 28 5 3 1 31 -1 2 8 0 13 0 0 0 2 2 2 4 1 15 3 -2 6 0 1 2 4 1 0 4 5 -2 2 1 -2 4 -2 1 1 -4 11 5 2 -4 3 13 1 3 1 3 2 3 5 3 0 4 2 6 4 2 5 2 14 7 4 1 19 3 2 0 1 4 -2 1 6 0 1 27 8 1 4 2 1 5 3 -1 5 4 0 2 2 10 1 2 0 6 2 1 3 0 3 11 3 8 6 5 0 5 -1 5 5 4 2 7 1 1 0 1 1 8 1 4 6 2 6 4 3 9 3 6 18 6 2 0 1 3 1 5 3 1 3 0 1 5 1 2 3 12 9 4 3 9 4 8 -3 6 11 11 4 1 5 1 2 7 7 5 1 3 1 1 11 6 13 3 0 13 3 7 2 1 14 4 1 0 3 4 21 2 3 3 5 3 3 1 -1 12 2 -1 9 2 1 3 8 3 6 4 5 1 7 4 1 4 3 2 4 5 0 18 -4 7 2 3 2 2 4 1 3 0 9 4 1 2 3 0 10 5 5 4 -4 6 6 3 22 2 4 4 4 2 4 5 21 -1 0 4 4 3 7 1 3 0 17 7 3 15 -1 6 2 1 1 10 1</t>
+  </si>
+  <si>
+    <t>7 8 45 8 6 10 11 3 2 4 6 8 23 9 -1 15 29 0 18 6 14 8 9 22 9 3 6 9 13 13 3 19 15 20 15 5 4 2 12 4 10 31 6 6 6 8 18 2 17 18 22 14 6 14 6 6 1 4 34 0 3 24 11 13 5 2 7 10 8 12 1 7 13 9 -1 16 12 9 8 14 12 22 0 11 7 15 5 11 3 10 17 6 7 14 12 9 4 4 5 9 37 15 6 8 4 9 46 12 5 59 23 5 72 3 8 10 1 4 2 4 23 7 2 28 14 20 5 7 29 9 6 11 21 6 9 15 6 11 2 44 1 11 3 10 6 3 7 2 7 13 4 17 8 4 12 1 9 6 11 6 4 7 6 0 19 8 4 7 45 53 2 3 10 3 5 25 9 2 3 8 8 1 16 8 24 0 5 21 13 5 6 26 29 16 7 11 17 18 14 11 11 4 1 18 16 7 9 3 21 3 20 5 7 1 2 2 9 7 -1 16 7 11 2 3 1 13 11 15 19 11 12 11 15 -1 19 4 9 12 2 18 12 9 3 28 28 9 6 4 17 13 14 4 38 18 8 19 9 3 1 12 6 7 29 5 15 46 6 4 47 7 36 8 21 3 7 6 29 10 15 29 6 14 5 8 9 0 5 0 11 9 3 8 13 4 7 3 4 8 6 17 30 22 13 35 6 4 25 10 7 15 14 15 25 9 9 6 -1 16 11 4 29 2 19 12 19 9 9 13 22 11 33 10 3 22 4 85 4 9 57 5 9 8 28 18 12 5 15 15 26 5 14 7 25 6 15 2 14 37 10 21 8 9 13 6 5 6 12 9 24 8 15 13 7 4 12 16 2 3 4 21 4 5 16 9 7 9 37 10 10 20 18 11 27 32 31 9 3 11 10 17 13 10 25 6 4 3 8 9 14 18 9 23 30 9 13 2 13 16 7 4 10 61 25 24 7 23 6 10 25 8 18 8 5 23 12 21 1 4 15 10 12 23 7 23 16 3 16 32 34 4 3 12 5 21 7 0 15 8 8 5 10 9 18 3 51 5 5 4 3 12 8 29 9 29 4 4 9 6 17 5 6 18 3 2 4 6 3 12 7 10 9 48 2 3 25 11 16 6 8 8 10 33 31 29 3 40 8 51 12 4 43 -1 16 2 8 13 0 6 18 18 8 10 10 6 20 7 6 5 4 21 7 9 10 24 5 -1 29 3 6 6 20 6 2 8 3 7 8 10 20 7 2 15 9 5 9 20 24 22 11 2 3 12 3 19 9 17 8 3 6 5 1 4 3 27 3 6 7 5 22 37 24 40 11 5 5 7 9 6 12 3 15 -2 -2 25 6 8 6 21 4 1 9 2 25 31 19 7 8 20 9 8 8 12 56 5 12 12 21 17 13 31 3 11 -1 4 35 10 -5 16 54 9 9 4 30 7 8 1 8 9 3 10 5 3 9 7 5 0 18 10 -5 5 2 15 9 34 7 3 28 14 13 16 2 11 7</t>
+  </si>
+  <si>
+    <t>1 0 5 5 9 4 5 4 6 3 13 6 2 7 13 3 -1 2 9 0 1 3 2 15 3 3 3 11 8 8 10 0 4 13 21 2 3 0 1 5 2 5 5 3 8 3 4 0 2 3 -1 2 9 3 5 13 6 5 4 17 5 8 13 3 -1 1 7 38 6 4 5 48 -1 0 2 2 21 3 14 2 -3 3 10 -3 11 3 6 4 4 4 4 0 3 -3 1 2 2 -5 3 2 -2 11 8 5 6 6 3 3 5 10 8 5 1 4 6 2 -1 2 3 0 1 5 3 -1 0 -1 13 8 9 -1 1 3 1 24 3 -1 6 6 -3 -3 2 3 1 2 1 -1 7 10 11 0 4 3 6 2 18 -2 0 3 6 2 6 4 13 2 1 8 11 2 8 4 5 4 -1 3 2 4 14 6 3 3 1 3 1 4 4 2 1 1 5 0 9 6 0 9 5 4 2 0 3 8 1 6 -4 3 6 7 2 0 -3 4 11 9 2 4 5 3 8 6 10 4 3 5 11 3 2 9 2 3 0 -2 14 -4 -5 7 2 3 6 5 3 1 0 5 3 4 -1 3 7 2 3 -4 4 7 0 1 11 2 5 24 3 8 3 4 22 -2 4 2 2 9 1 9 0 0 0 2 25 7 1 6 14 5 7 12 0 5 12 18 6 17 16 5 7 4 4 5 2 2 1 1 3 1 1 3 13 13 -2 18 -3 -1 13 2 1 1 -2 4 2 15 11 3 1 62 0 1 3 31 3 5 3 1 1 12 3 0 -1 4 -4 1 3 9 2 5 4 1 2 3 0 -4 5 5 1 1 27 12 6 2 3 5 0 0 1 -4 5 0 14 8 3 -1 8 8 9 -1 -1 24 1 2 1 7 8 2 4 5 0 7 5 3 5 5 0 20 1 -1 6 2 1 -2 5 0 4 0 3 0 1 4 5 2 1 -1 2 10 2 0 7 15 3 7 3 18 2 2 3 -3 0 4 1 16 3 2 4 11 6 -1 15 11 4 2 2 5 5 8 1 0 28 2 4 2 3 2 -1 14 -2 1 1 14 -3 2 3 1 4 0 3 6 5 2 2 3 24 4 1 6 0 1 14 10 1 3 5 3 19 4 4 0 -1 0 1 15 7 -1 18 -1 0 3 5 21 5 3 -3 8 2 11 6 4 8 0 2 2 4 1 7 6 9 1 6 11 20 4 3 -2 6 1 1 3 0 5 11 14 0 0 6 8 9 3 3 9 7 0 4 8 8 1 0 0 6 2 0 7 1 6 6 5 0 1 0 1 1 10 1 9 3 11 3 4 0 3 0 5 8 4 0 30 4 2 4 4 1 1 0 6 3 5 9 7 1 5 7 5 2 7 1 4 3 4 22 5 8 5 0 6 0 0 6 4 1 16 4 2 1 5 6 4 16 5 5 6 2 -2 2 6 1 6 20 5 2 3 5 2 0 5 7 5 2 3 8 -3 4 11 12 2 5 0 5 1 3 21 1 3 2 0 6 -1 5 3 2 6 -1 4 4 4 3 2 6 4 14 4 5 1 3 -2 -3 1 -2 10 -1 11 2 5 4 8 -2 18 5 2 6 4 -5 2 1 19 4 0 1 3 7 20 1 0 1 4 2 5 8 1 3 5 2 1 4 3 2 3 8 3 1 12 -5 1 1 22 1 3 1 16 2 6 2 2 4 1 9 5 -4 -3 13 4 1 0 -6 7 2 3 8 1 6 0 4 3</t>
+  </si>
+  <si>
+    <t>10 2 16 5 9 16 4 11 7 5 11 11 11 0 5 18 6 1 11 16 75 19 18 7 29 16 10 25 17 6 8 20 16 4 15 9 8 5 9 3 6 9 17 12 18 8 7 15 3 3 14 15 0 9 23 5 7 11 6 15 6 8 -1 27 11 2 21 15 6 26 7 10 18 6 11 7 9 1 5 8 12 5 7 12 14 14 49 9 14 9 12 26 32 4 13 5 16 37 8 4 23 15 23 6 16 2 42 4 3 -1 15 7 3 6 22 12 8 8 6 11 16 26 5 5 2 16 11 7 33 6 35 3 8 10 2 4 13 15 6 12 4 23 22 1 6 5 19 5 3 6 9 19 1 14 10 25 16 3 11 17 13 4 9 10 21 16 27 5 5 50 10 7 23 12 4 5 4 8 5 11 5 5 4 16 1 9 14 17 0 11 26 27 1 9 27 14 6 6 7 11 13 8 4 9 14 16 8 10 14 6 8 4 3 17 21 11 8 3 19 11 6 3 9 8 11 12 13 3 5 15 6 19 9 10 9 16 15 3 22 11 16 0 11 12 6 17 12 14 2 8 8 10 14 6 12 11 3 7 4 -3 22 11 17 3 16 13 6 23 25 8 3 10 11 18 20 3 4 4 19 17 7 28 23 41 -5 9 7 27 6 9 14 4 7 8 14 18 8 17 10 5 17 3 12 15 7 11 -2 25 26 9 15 14 10 19 53 1 1 13 5 5 6 2 3 5 4 5 6 14 5 8 10 1 4 13 8 17 31 7 9 59 34 7 17 14 17 29 1 16 8 4 1 9 9 9 1 2 11 12 4 20 7 13 10 1 92 25 2 8 0 21 6 6 29 29 10 13 4 10 6 4 13 6 49 9 10 6 5 2 2 9 7 9 17 6 13 5 41 5 14 3 8 16 52 25 4 5 9 5 4 12 0 11 8 5 -1 12 8 4 10 9 7 4 13 4 4 2 7 8 9 2 2 3 5 9 6 7 4 10 3 7 1 5 4 22 7 7 4 3 5 5 11 34 0 10 2 9 4 7 13 9 14 9 15 4 4 18 7 2 2 15 8 12 8 9 7 13 14 7 14 23 5 1 3 6 11 7 5 7 10 14 3 14 11 6 10 5 7 26 13 12 12 12 26 6 18 16 6 4 4 1 6 24 13 8 -3 20 27 25 15 20 7 5 6 17 10 8 7 6 9 5 30 6 12 7 -7 14 3 14 2 9 1 -1 6 6 7 5 11 22 19 8 8 7 13 12 -1 16 27 3 1 0 9 7 11 7 13 17 2 10 16 32 3 7 3 38 8 30 22 3 6 3 2 7 14 9 14 3 7 6 4 17 7 3 7 9 9 12 6 1 6 15 17 10 10 9 4 51 5 13 5 7 7 15 7 41 12 7 6 5 4 32 32 11 5 3 17 10 2 2 4 23 -1 13 6 7 4 7 6 5 6 5 6 0 10 35 10 3 4 10 9 10 12 6</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -167,16 +167,16 @@
     <t>38 21 24 27 29 35 17 22 23 21 15 28 34 33 32 10 28 3 26 28 21 29 27 22 25 33 0 28 31 21 18 16 28 18 28 18 15 24 11 24 32 13 13 18 12 23 26 23 18 18 20 14 25 32 18 0 11</t>
   </si>
   <si>
-    <t>30 16 22 12 12 35 19 19 18 9 11 22 32 44 14 21 0 21 33 32 24 13 20 22 15 25 15 31 22 15 15 20 14 26 32 22 20 23 19 18 19 12 25 15</t>
-  </si>
-  <si>
-    <t>52 51 24 42 36 46 44 46 57 47 59 48 43 30 56 45 39 24 61 38 39 36 31 42 46 47 63 45 42 31 47 51 47 56 19 58 27 48 35 56 38 46 35 63 67 64 37 55 40 50 45 55 49 45 67 54 45 49 56 52 68 39 70 47 66 71 54 37 59 35 42 58 40 61 42 44 63 37 47 54 48 68 32 53 36 54</t>
-  </si>
-  <si>
-    <t>19 10 0 0 0 11 0 0 38 11 0 0 0 0 0 0 0 0 0 0 0 0 0 -2 0 0 0 0 4 0 0 0 2 10 0 7 0 0 0 13 0 0 0 22 15 30 0 15 0 0 15 8 0 7 12 11 0 0 9 0 17 0 21 0 0 0 0 0 6 0 12 14 0 37 0 9 0 0 0 0 15 2 0 0 0 14</t>
-  </si>
-  <si>
-    <t>27 10 5 0 0 0 0 0 0 24 0 0 0 0 0 0 0 0 0 13 0 0 13 12 29 0 16 8 3 6 0 0 12 0 11 0 11 0 16 32 -3 13 9 19 21 0 0 0 3 0 0 7 0 10 0 16 7 0 2 0 0 17 0 5 6 0 0 0 0 9 0 5 0 0 0 0 15 0 0 5 0 12 11 21 0 0 0 0 9 7</t>
+    <t>30 16 22 12 12 35 19 19 18 9 11 22 32 44 14 21 0 21 33 32 24 13 20 22 15 25 15 31 22 15 15 20 14 26 32 22 20 23 19 18 19 12 25 15 19 24</t>
+  </si>
+  <si>
+    <t>52 51 24 42 36 46 44 46 57 47 59 48 43 30 56 45 39 24 61 38 39 36 31 42 46 47 63 45 42 31 47 51 47 56 19 58 27 48 35 56 38 46 35 63 67 64 37 55 40 50 45 55 49 45 67 54 45 49 56 52 68 39 70 47 66 71 54 37 59 35 42 58 40 61 42 44 63 37 47 54 48 68 32 53 36 54 42 67 38 55</t>
+  </si>
+  <si>
+    <t>19 10 0 0 0 11 0 0 38 11 0 0 0 0 0 0 0 0 0 0 0 0 0 -2 0 0 0 0 4 0 0 0 2 10 0 7 0 0 0 13 0 0 0 22 15 30 0 15 0 0 15 8 0 7 12 11 0 0 9 0 17 0 21 0 0 0 0 0 6 0 12 14 0 37 0 9 0 0 0 0 15 2 0 0 0 14 0 16 0 13</t>
+  </si>
+  <si>
+    <t>27 10 5 0 0 0 0 0 0 24 0 0 0 0 0 0 0 0 0 13 0 0 13 12 29 0 16 8 3 6 0 0 12 0 11 0 11 0 16 32 -3 13 9 19 21 0 0 0 3 0 0 7 0 10 0 16 7 0 2 0 0 17 0 5 6 0 0 0 0 9 0 5 0 0 0 0 15 0 0 5 0 12 11 21 0 0 0 0 9 7 6 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,19 +668,19 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -695,10 +695,10 @@
         <v>25</v>
       </c>
       <c r="L2">
-        <v>514</v>
+        <v>552</v>
       </c>
       <c r="M2">
-        <v>354</v>
+        <v>382</v>
       </c>
       <c r="N2">
         <v>27</v>
@@ -710,7 +710,7 @@
         <v>22</v>
       </c>
       <c r="Q2">
-        <v>905</v>
+        <v>963</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -721,28 +721,28 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="G3">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I3">
+        <v>95</v>
+      </c>
+      <c r="J3">
         <v>94</v>
-      </c>
-      <c r="J3">
-        <v>88</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>290</v>
       </c>
       <c r="N3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,7 +943,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="D2">
         <v>24</v>
@@ -952,28 +952,28 @@
         <v>11</v>
       </c>
       <c r="F2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G2">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>515</v>
+        <v>545</v>
       </c>
       <c r="M2">
-        <v>345</v>
+        <v>368</v>
       </c>
       <c r="N2">
         <v>28</v>
@@ -985,7 +985,7 @@
         <v>26</v>
       </c>
       <c r="Q2">
-        <v>911</v>
+        <v>978</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -993,31 +993,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
       <c r="E3">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F3">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="G3">
         <v>56</v>
       </c>
       <c r="H3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I3">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J3">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>298</v>
       </c>
       <c r="N3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,13 +1215,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -1233,16 +1233,16 @@
         <v>126</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L2">
         <v>33</v>
@@ -1251,10 +1251,10 @@
         <v>23</v>
       </c>
       <c r="N2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1348,7 +1348,7 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>9</v>
@@ -1368,7 +1368,7 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>13</v>
@@ -1409,7 +1409,7 @@
         <v>60</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1423,7 +1423,7 @@
         <v>57</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">

--- a/Base/Teams/Raiders/Team Data.xlsx
+++ b/Base/Teams/Raiders/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>5 1 7 1 5 1 4 4 7 14 5 -1 7 12 15 2 -4 7 2 7 9 4 -2 0 2 3 6 1 2 5 1 6 8 4 0 3 -2 1 7 -2 -4 3 5 3 6 0 0 6 6 -5 14 0 0 3 1 13 0 20 12 2 3 -3 0 3 12 6 7 6 6 5 -1 2 23 13 3 1 2 4 4 3 2 -1 9 3 14 3 2 8 6 -3 -1 10 7 1 -2 1 -2 11 16 10 3 2 5 1 1 3 6 7 3 6 1 2 7 2 2 43 1 3 4 4 2 0 4 2 2 0 7 7 2 4 7 2 5 3 0 5 4 -1 2 1 10 0 4 1 2 2 9 10 2 4 0 9 2 1 6 6 5 0 4 9 11 -2 7 8 2 7 1 4 7 4 6 5 1 8 3 1 11 3 5 2 1 3 14 6 7 1 5 4 18 1 0 0 2 16 5 2 3 3 10 4 23 15 2 0 10 7 4 5 14 10 0 6 0 12 2 7 6 9 6 2 3 0 0 3 2 3 9 11 4 3 1 1 9 3 5 0 24 2 3 13 6 3 -5 11 2 1 9 9 2 5 1 1 4 5 7 3 1 8 2 9 2 23 1 4 13 2 2 2 5 6 5 3 0 2 5 2 2 11 1 0 4 2 5 12 4 0 -3 0 5 0 1 1 4 -2 16 0 0 4 2 9 2 4 1 1 5 3 1 -3 14 3 3 6 3 4 1 3 2 2 3 2 3 0 2 4 3 2 7 12 6 3 -3 3 -3 0 2 1 6 5 2 3 2 0 18 6 4 -2 5 1 20 3 3 0 2 3 11 0 -5 6 26 6 3 -1 4 1 8 0 4 7 -3 7 2 0 1 2 0 2 7 13 2 17 3 2 12 1 -2 3 13 2 1 7 0 15 10 18 3 1 9 0 1 3 3 2 7 2 2 5 1 3 0 2 1 5 6 2 2 18 2 3 16 2 4 3 28 5 3 1 31 -1 2 8 0 13 0 0 0 2 2 2 4 1 15 3 -2 6 0 1 2 4 1 0 4 5 -2 2 1 -2 4 -2 1 1 -4 11 5 2 -4 3 13 1 3 1 3 2 3 5 3 0 4 2 6 4 2 5 2 14 7 4 1 19 3 2 0 1 4 -2 1 6 0 1 27 8 1 4 2 1 5 3 -1 5 4 0 2 2 10 1 2 0 6 2 1 3 0 3 11 3 8 6 5 0 5 -1 5 5 4 2 7 1 1 0 1 1 8 1 4 6 2 6 4 3 9 3 6 18 6 2 0 1 3 1 5 3 1 3 0 1 5 1 2 3 12 9 4 3 9 4 8 -3 6 11 11 4 1 5 1 2 7 7 5 1 3 1 1 11 6 13 3 0 13 3 7 2 1 14 4 1 0 3 4 21 2 3 3 5 3 3 1 -1 12 2 -1 9 2 1 3 8 3 6 4 5 1 7 4 1 4 3 2 4 5 0 18 -4 7 2 3 2 2 4 1 3 0 9 4 1 2 3 0 10 5 5 4 -4 6 6 3 22 2 4 4 4 2 4 5 21 -1 0 4 4 3 7 1 3 0 17 7 3 15 -1 6 2 1 1 10 1</t>
-  </si>
-  <si>
-    <t>7 8 45 8 6 10 11 3 2 4 6 8 23 9 -1 15 29 0 18 6 14 8 9 22 9 3 6 9 13 13 3 19 15 20 15 5 4 2 12 4 10 31 6 6 6 8 18 2 17 18 22 14 6 14 6 6 1 4 34 0 3 24 11 13 5 2 7 10 8 12 1 7 13 9 -1 16 12 9 8 14 12 22 0 11 7 15 5 11 3 10 17 6 7 14 12 9 4 4 5 9 37 15 6 8 4 9 46 12 5 59 23 5 72 3 8 10 1 4 2 4 23 7 2 28 14 20 5 7 29 9 6 11 21 6 9 15 6 11 2 44 1 11 3 10 6 3 7 2 7 13 4 17 8 4 12 1 9 6 11 6 4 7 6 0 19 8 4 7 45 53 2 3 10 3 5 25 9 2 3 8 8 1 16 8 24 0 5 21 13 5 6 26 29 16 7 11 17 18 14 11 11 4 1 18 16 7 9 3 21 3 20 5 7 1 2 2 9 7 -1 16 7 11 2 3 1 13 11 15 19 11 12 11 15 -1 19 4 9 12 2 18 12 9 3 28 28 9 6 4 17 13 14 4 38 18 8 19 9 3 1 12 6 7 29 5 15 46 6 4 47 7 36 8 21 3 7 6 29 10 15 29 6 14 5 8 9 0 5 0 11 9 3 8 13 4 7 3 4 8 6 17 30 22 13 35 6 4 25 10 7 15 14 15 25 9 9 6 -1 16 11 4 29 2 19 12 19 9 9 13 22 11 33 10 3 22 4 85 4 9 57 5 9 8 28 18 12 5 15 15 26 5 14 7 25 6 15 2 14 37 10 21 8 9 13 6 5 6 12 9 24 8 15 13 7 4 12 16 2 3 4 21 4 5 16 9 7 9 37 10 10 20 18 11 27 32 31 9 3 11 10 17 13 10 25 6 4 3 8 9 14 18 9 23 30 9 13 2 13 16 7 4 10 61 25 24 7 23 6 10 25 8 18 8 5 23 12 21 1 4 15 10 12 23 7 23 16 3 16 32 34 4 3 12 5 21 7 0 15 8 8 5 10 9 18 3 51 5 5 4 3 12 8 29 9 29 4 4 9 6 17 5 6 18 3 2 4 6 3 12 7 10 9 48 2 3 25 11 16 6 8 8 10 33 31 29 3 40 8 51 12 4 43 -1 16 2 8 13 0 6 18 18 8 10 10 6 20 7 6 5 4 21 7 9 10 24 5 -1 29 3 6 6 20 6 2 8 3 7 8 10 20 7 2 15 9 5 9 20 24 22 11 2 3 12 3 19 9 17 8 3 6 5 1 4 3 27 3 6 7 5 22 37 24 40 11 5 5 7 9 6 12 3 15 -2 -2 25 6 8 6 21 4 1 9 2 25 31 19 7 8 20 9 8 8 12 56 5 12 12 21 17 13 31 3 11 -1 4 35 10 -5 16 54 9 9 4 30 7 8 1 8 9 3 10 5 3 9 7 5 0 18 10 -5 5 2 15 9 34 7 3 28 14 13 16 2 11 7</t>
-  </si>
-  <si>
-    <t>1 0 5 5 9 4 5 4 6 3 13 6 2 7 13 3 -1 2 9 0 1 3 2 15 3 3 3 11 8 8 10 0 4 13 21 2 3 0 1 5 2 5 5 3 8 3 4 0 2 3 -1 2 9 3 5 13 6 5 4 17 5 8 13 3 -1 1 7 38 6 4 5 48 -1 0 2 2 21 3 14 2 -3 3 10 -3 11 3 6 4 4 4 4 0 3 -3 1 2 2 -5 3 2 -2 11 8 5 6 6 3 3 5 10 8 5 1 4 6 2 -1 2 3 0 1 5 3 -1 0 -1 13 8 9 -1 1 3 1 24 3 -1 6 6 -3 -3 2 3 1 2 1 -1 7 10 11 0 4 3 6 2 18 -2 0 3 6 2 6 4 13 2 1 8 11 2 8 4 5 4 -1 3 2 4 14 6 3 3 1 3 1 4 4 2 1 1 5 0 9 6 0 9 5 4 2 0 3 8 1 6 -4 3 6 7 2 0 -3 4 11 9 2 4 5 3 8 6 10 4 3 5 11 3 2 9 2 3 0 -2 14 -4 -5 7 2 3 6 5 3 1 0 5 3 4 -1 3 7 2 3 -4 4 7 0 1 11 2 5 24 3 8 3 4 22 -2 4 2 2 9 1 9 0 0 0 2 25 7 1 6 14 5 7 12 0 5 12 18 6 17 16 5 7 4 4 5 2 2 1 1 3 1 1 3 13 13 -2 18 -3 -1 13 2 1 1 -2 4 2 15 11 3 1 62 0 1 3 31 3 5 3 1 1 12 3 0 -1 4 -4 1 3 9 2 5 4 1 2 3 0 -4 5 5 1 1 27 12 6 2 3 5 0 0 1 -4 5 0 14 8 3 -1 8 8 9 -1 -1 24 1 2 1 7 8 2 4 5 0 7 5 3 5 5 0 20 1 -1 6 2 1 -2 5 0 4 0 3 0 1 4 5 2 1 -1 2 10 2 0 7 15 3 7 3 18 2 2 3 -3 0 4 1 16 3 2 4 11 6 -1 15 11 4 2 2 5 5 8 1 0 28 2 4 2 3 2 -1 14 -2 1 1 14 -3 2 3 1 4 0 3 6 5 2 2 3 24 4 1 6 0 1 14 10 1 3 5 3 19 4 4 0 -1 0 1 15 7 -1 18 -1 0 3 5 21 5 3 -3 8 2 11 6 4 8 0 2 2 4 1 7 6 9 1 6 11 20 4 3 -2 6 1 1 3 0 5 11 14 0 0 6 8 9 3 3 9 7 0 4 8 8 1 0 0 6 2 0 7 1 6 6 5 0 1 0 1 1 10 1 9 3 11 3 4 0 3 0 5 8 4 0 30 4 2 4 4 1 1 0 6 3 5 9 7 1 5 7 5 2 7 1 4 3 4 22 5 8 5 0 6 0 0 6 4 1 16 4 2 1 5 6 4 16 5 5 6 2 -2 2 6 1 6 20 5 2 3 5 2 0 5 7 5 2 3 8 -3 4 11 12 2 5 0 5 1 3 21 1 3 2 0 6 -1 5 3 2 6 -1 4 4 4 3 2 6 4 14 4 5 1 3 -2 -3 1 -2 10 -1 11 2 5 4 8 -2 18 5 2 6 4 -5 2 1 19 4 0 1 3 7 20 1 0 1 4 2 5 8 1 3 5 2 1 4 3 2 3 8 3 1 12 -5 1 1 22 1 3 1 16 2 6 2 2 4 1 9 5 -4 -3 13 4 1 0 -6 7 2 3 8 1 6 0 4 3</t>
-  </si>
-  <si>
-    <t>10 2 16 5 9 16 4 11 7 5 11 11 11 0 5 18 6 1 11 16 75 19 18 7 29 16 10 25 17 6 8 20 16 4 15 9 8 5 9 3 6 9 17 12 18 8 7 15 3 3 14 15 0 9 23 5 7 11 6 15 6 8 -1 27 11 2 21 15 6 26 7 10 18 6 11 7 9 1 5 8 12 5 7 12 14 14 49 9 14 9 12 26 32 4 13 5 16 37 8 4 23 15 23 6 16 2 42 4 3 -1 15 7 3 6 22 12 8 8 6 11 16 26 5 5 2 16 11 7 33 6 35 3 8 10 2 4 13 15 6 12 4 23 22 1 6 5 19 5 3 6 9 19 1 14 10 25 16 3 11 17 13 4 9 10 21 16 27 5 5 50 10 7 23 12 4 5 4 8 5 11 5 5 4 16 1 9 14 17 0 11 26 27 1 9 27 14 6 6 7 11 13 8 4 9 14 16 8 10 14 6 8 4 3 17 21 11 8 3 19 11 6 3 9 8 11 12 13 3 5 15 6 19 9 10 9 16 15 3 22 11 16 0 11 12 6 17 12 14 2 8 8 10 14 6 12 11 3 7 4 -3 22 11 17 3 16 13 6 23 25 8 3 10 11 18 20 3 4 4 19 17 7 28 23 41 -5 9 7 27 6 9 14 4 7 8 14 18 8 17 10 5 17 3 12 15 7 11 -2 25 26 9 15 14 10 19 53 1 1 13 5 5 6 2 3 5 4 5 6 14 5 8 10 1 4 13 8 17 31 7 9 59 34 7 17 14 17 29 1 16 8 4 1 9 9 9 1 2 11 12 4 20 7 13 10 1 92 25 2 8 0 21 6 6 29 29 10 13 4 10 6 4 13 6 49 9 10 6 5 2 2 9 7 9 17 6 13 5 41 5 14 3 8 16 52 25 4 5 9 5 4 12 0 11 8 5 -1 12 8 4 10 9 7 4 13 4 4 2 7 8 9 2 2 3 5 9 6 7 4 10 3 7 1 5 4 22 7 7 4 3 5 5 11 34 0 10 2 9 4 7 13 9 14 9 15 4 4 18 7 2 2 15 8 12 8 9 7 13 14 7 14 23 5 1 3 6 11 7 5 7 10 14 3 14 11 6 10 5 7 26 13 12 12 12 26 6 18 16 6 4 4 1 6 24 13 8 -3 20 27 25 15 20 7 5 6 17 10 8 7 6 9 5 30 6 12 7 -7 14 3 14 2 9 1 -1 6 6 7 5 11 22 19 8 8 7 13 12 -1 16 27 3 1 0 9 7 11 7 13 17 2 10 16 32 3 7 3 38 8 30 22 3 6 3 2 7 14 9 14 3 7 6 4 17 7 3 7 9 9 12 6 1 6 15 17 10 10 9 4 51 5 13 5 7 7 15 7 41 12 7 6 5 4 32 32 11 5 3 17 10 2 2 4 23 -1 13 6 7 4 7 6 5 6 5 6 0 10 35 10 3 4 10 9 10 12 6</t>
+    <t>5 1 7 1 5 1 4 4 7 14 5 -1 7 12 15 2 -4 7 2 7 9 4 -2 0 2 3 6 1 2 5 1 6 8 4 0 3 -2 1 7 -2 -4 3 5 3 6 0 0 6 6 -5 14 0 0 3 1 13 0 20 12 2 3 -3 0 3 12 6 7 6 6 5 -1 2 23 13 3 1 2 4 4 3 2 -1 9 3 14 3 2 8 6 -3 -1 10 7 1 -2 1 -2 11 16 10 3 2 5 1 1 3 6 7 3 6 1 2 7 2 2 43 1 3 4 4 2 0 4 2 2 0 7 7 2 4 7 2 5 3 0 5 4 -1 2 1 10 0 4 1 2 2 9 10 2 4 0 9 2 1 6 6 5 0 4 9 11 -2 7 8 2 7 1 4 7 4 6 5 1 8 3 1 11 3 5 2 1 3 14 6 7 1 5 4 18 1 0 0 2 16 5 2 3 3 10 4 23 15 2 0 10 7 4 5 14 10 0 6 0 12 2 7 6 9 6 2 3 0 0 3 2 3 9 11 4 3 1 1 9 3 5 0 24 2 3 13 6 3 -5 11 2 1 9 9 2 5 1 1 4 5 7 3 1 8 2 9 2 23 1 4 13 2 2 2 5 6 5 3 0 2 5 2 2 11 1 0 4 2 5 12 4 0 -3 0 5 0 1 1 4 -2 16 0 0 4 2 9 2 4 1 1 5 3 1 -3 14 3 3 6 3 4 1 3 2 2 3 2 3 0 2 4 3 2 7 12 6 3 -3 3 -3 0 2 1 6 5 2 3 2 0 18 6 4 -2 5 1 20 3 3 0 2 3 11 0 -5 6 26 6 3 -1 4 1 8 0 4 7 -3 7 2 0 1 2 0 2 7 13 2 17 3 2 12 1 -2 3 13 2 1 7 0 15 10 18 3 1 9 0 1 3 3 2 7 2 2 5 1 3 0 2 1 5 6 2 2 18 2 3 16 2 4 3 28 5 3 1 31 -1 2 8 0 13 0 0 0 2 2 2 4 1 15 3 -2 6 0 1 2 4 1 0 4 5 -2 2 1 -2 4 -2 1 1 -4 11 5 2 -4 3 13 1 3 1 3 2 3 5 3 0 4 2 6 4 2 5 2 14 7 4 1 19 3 2 0 1 4 -2 1 6 0 1 27 8 1 4 2 1 5 3 -1 5 4 0 2 2 10 1 2 0 6 2 1 3 0 3 11 3 8 6 5 0 5 -1 5 5 4 2 7 1 1 0 1 1 8 1 4 6 2 6 4 3 9 3 6 18 6 2 0 1 3 1 5 3 1 3 0 1 5 1 2 3 12 9 4 3 9 4 8 -3 6 11 11 4 1 5 1 2 7 7 5 1 3 1 1 11 6 13 3 0 13 3 7 2 1 14 4 1 0 3 4 21 2 3 3 5 3 3 1 -1 12 2 -1 9 2 1 3 8 3 6 4 5 1 7 4 1 4 3 2 4 5 0 18 -4 7 2 3 2 2 4 1 3 0 9 4 1 2 3 0 10 5 5 4 -4 6 6 3 22 2 4 4 4 2 4 5 21 -1 0 4 4 3 7 1 3 0 17 7 3 15 -1 6 2 1 1 10 1 -3 5 1 4 3 4 1 5 3</t>
+  </si>
+  <si>
+    <t>7 8 45 8 6 10 11 3 2 4 6 8 23 9 -1 15 29 0 18 6 14 8 9 22 9 3 6 9 13 13 3 19 15 20 15 5 4 2 12 4 10 31 6 6 6 8 18 2 17 18 22 14 6 14 6 6 1 4 34 0 3 24 11 13 5 2 7 10 8 12 1 7 13 9 -1 16 12 9 8 14 12 22 0 11 7 15 5 11 3 10 17 6 7 14 12 9 4 4 5 9 37 15 6 8 4 9 46 12 5 59 23 5 72 3 8 10 1 4 2 4 23 7 2 28 14 20 5 7 29 9 6 11 21 6 9 15 6 11 2 44 1 11 3 10 6 3 7 2 7 13 4 17 8 4 12 1 9 6 11 6 4 7 6 0 19 8 4 7 45 53 2 3 10 3 5 25 9 2 3 8 8 1 16 8 24 0 5 21 13 5 6 26 29 16 7 11 17 18 14 11 11 4 1 18 16 7 9 3 21 3 20 5 7 1 2 2 9 7 -1 16 7 11 2 3 1 13 11 15 19 11 12 11 15 -1 19 4 9 12 2 18 12 9 3 28 28 9 6 4 17 13 14 4 38 18 8 19 9 3 1 12 6 7 29 5 15 46 6 4 47 7 36 8 21 3 7 6 29 10 15 29 6 14 5 8 9 0 5 0 11 9 3 8 13 4 7 3 4 8 6 17 30 22 13 35 6 4 25 10 7 15 14 15 25 9 9 6 -1 16 11 4 29 2 19 12 19 9 9 13 22 11 33 10 3 22 4 85 4 9 57 5 9 8 28 18 12 5 15 15 26 5 14 7 25 6 15 2 14 37 10 21 8 9 13 6 5 6 12 9 24 8 15 13 7 4 12 16 2 3 4 21 4 5 16 9 7 9 37 10 10 20 18 11 27 32 31 9 3 11 10 17 13 10 25 6 4 3 8 9 14 18 9 23 30 9 13 2 13 16 7 4 10 61 25 24 7 23 6 10 25 8 18 8 5 23 12 21 1 4 15 10 12 23 7 23 16 3 16 32 34 4 3 12 5 21 7 0 15 8 8 5 10 9 18 3 51 5 5 4 3 12 8 29 9 29 4 4 9 6 17 5 6 18 3 2 4 6 3 12 7 10 9 48 2 3 25 11 16 6 8 8 10 33 31 29 3 40 8 51 12 4 43 -1 16 2 8 13 0 6 18 18 8 10 10 6 20 7 6 5 4 21 7 9 10 24 5 -1 29 3 6 6 20 6 2 8 3 7 8 10 20 7 2 15 9 5 9 20 24 22 11 2 3 12 3 19 9 17 8 3 6 5 1 4 3 27 3 6 7 5 22 37 24 40 11 5 5 7 9 6 12 3 15 -2 -2 25 6 8 6 21 4 1 9 2 25 31 19 7 8 20 9 8 8 12 56 5 12 12 21 17 13 31 3 11 -1 4 35 10 -5 16 54 9 9 4 30 7 8 1 8 9 3 10 5 3 9 7 5 0 18 10 -5 5 2 15 9 34 7 3 28 14 13 16 2 11 7 7 8 9 16 14 2 7 19 7 2 5 7 13 10 6 4 6 4 19 19 6 4</t>
+  </si>
+  <si>
+    <t>1 0 5 5 9 4 5 4 6 3 13 6 2 7 13 3 -1 2 9 0 1 3 2 15 3 3 3 11 8 8 10 0 4 13 21 2 3 0 1 5 2 5 5 3 8 3 4 0 2 3 -1 2 9 3 5 13 6 5 4 17 5 8 13 3 -1 1 7 38 6 4 5 48 -1 0 2 2 21 3 14 2 -3 3 10 -3 11 3 6 4 4 4 4 0 3 -3 1 2 2 -5 3 2 -2 11 8 5 6 6 3 3 5 10 8 5 1 4 6 2 -1 2 3 0 1 5 3 -1 0 -1 13 8 9 -1 1 3 1 24 3 -1 6 6 -3 -3 2 3 1 2 1 -1 7 10 11 0 4 3 6 2 18 -2 0 3 6 2 6 4 13 2 1 8 11 2 8 4 5 4 -1 3 2 4 14 6 3 3 1 3 1 4 4 2 1 1 5 0 9 6 0 9 5 4 2 0 3 8 1 6 -4 3 6 7 2 0 -3 4 11 9 2 4 5 3 8 6 10 4 3 5 11 3 2 9 2 3 0 -2 14 -4 -5 7 2 3 6 5 3 1 0 5 3 4 -1 3 7 2 3 -4 4 7 0 1 11 2 5 24 3 8 3 4 22 -2 4 2 2 9 1 9 0 0 0 2 25 7 1 6 14 5 7 12 0 5 12 18 6 17 16 5 7 4 4 5 2 2 1 1 3 1 1 3 13 13 -2 18 -3 -1 13 2 1 1 -2 4 2 15 11 3 1 62 0 1 3 31 3 5 3 1 1 12 3 0 -1 4 -4 1 3 9 2 5 4 1 2 3 0 -4 5 5 1 1 27 12 6 2 3 5 0 0 1 -4 5 0 14 8 3 -1 8 8 9 -1 -1 24 1 2 1 7 8 2 4 5 0 7 5 3 5 5 0 20 1 -1 6 2 1 -2 5 0 4 0 3 0 1 4 5 2 1 -1 2 10 2 0 7 15 3 7 3 18 2 2 3 -3 0 4 1 16 3 2 4 11 6 -1 15 11 4 2 2 5 5 8 1 0 28 2 4 2 3 2 -1 14 -2 1 1 14 -3 2 3 1 4 0 3 6 5 2 2 3 24 4 1 6 0 1 14 10 1 3 5 3 19 4 4 0 -1 0 1 15 7 -1 18 -1 0 3 5 21 5 3 -3 8 2 11 6 4 8 0 2 2 4 1 7 6 9 1 6 11 20 4 3 -2 6 1 1 3 0 5 11 14 0 0 6 8 9 3 3 9 7 0 4 8 8 1 0 0 6 2 0 7 1 6 6 5 0 1 0 1 1 10 1 9 3 11 3 4 0 3 0 5 8 4 0 30 4 2 4 4 1 1 0 6 3 5 9 7 1 5 7 5 2 7 1 4 3 4 22 5 8 5 0 6 0 0 6 4 1 16 4 2 1 5 6 4 16 5 5 6 2 -2 2 6 1 6 20 5 2 3 5 2 0 5 7 5 2 3 8 -3 4 11 12 2 5 0 5 1 3 21 1 3 2 0 6 -1 5 3 2 6 -1 4 4 4 3 2 6 4 14 4 5 1 3 -2 -3 1 -2 10 -1 11 2 5 4 8 -2 18 5 2 6 4 -5 2 1 19 4 0 1 3 7 20 1 0 1 4 2 5 8 1 3 5 2 1 4 3 2 3 8 3 1 12 -5 1 1 22 1 3 1 16 2 6 2 2 4 1 9 5 -4 -3 13 4 1 0 -6 7 2 3 8 1 6 0 4 3 2 1 2 7 5 7 0 3 1 0 0 1 4 9 6 4 2 10 4 2 -2 2 4 2 5 2</t>
+  </si>
+  <si>
+    <t>10 2 16 5 9 16 4 11 7 5 11 11 11 0 5 18 6 1 11 16 75 19 18 7 29 16 10 25 17 6 8 20 16 4 15 9 8 5 9 3 6 9 17 12 18 8 7 15 3 3 14 15 0 9 23 5 7 11 6 15 6 8 -1 27 11 2 21 15 6 26 7 10 18 6 11 7 9 1 5 8 12 5 7 12 14 14 49 9 14 9 12 26 32 4 13 5 16 37 8 4 23 15 23 6 16 2 42 4 3 -1 15 7 3 6 22 12 8 8 6 11 16 26 5 5 2 16 11 7 33 6 35 3 8 10 2 4 13 15 6 12 4 23 22 1 6 5 19 5 3 6 9 19 1 14 10 25 16 3 11 17 13 4 9 10 21 16 27 5 5 50 10 7 23 12 4 5 4 8 5 11 5 5 4 16 1 9 14 17 0 11 26 27 1 9 27 14 6 6 7 11 13 8 4 9 14 16 8 10 14 6 8 4 3 17 21 11 8 3 19 11 6 3 9 8 11 12 13 3 5 15 6 19 9 10 9 16 15 3 22 11 16 0 11 12 6 17 12 14 2 8 8 10 14 6 12 11 3 7 4 -3 22 11 17 3 16 13 6 23 25 8 3 10 11 18 20 3 4 4 19 17 7 28 23 41 -5 9 7 27 6 9 14 4 7 8 14 18 8 17 10 5 17 3 12 15 7 11 -2 25 26 9 15 14 10 19 53 1 1 13 5 5 6 2 3 5 4 5 6 14 5 8 10 1 4 13 8 17 31 7 9 59 34 7 17 14 17 29 1 16 8 4 1 9 9 9 1 2 11 12 4 20 7 13 10 1 92 25 2 8 0 21 6 6 29 29 10 13 4 10 6 4 13 6 49 9 10 6 5 2 2 9 7 9 17 6 13 5 41 5 14 3 8 16 52 25 4 5 9 5 4 12 0 11 8 5 -1 12 8 4 10 9 7 4 13 4 4 2 7 8 9 2 2 3 5 9 6 7 4 10 3 7 1 5 4 22 7 7 4 3 5 5 11 34 0 10 2 9 4 7 13 9 14 9 15 4 4 18 7 2 2 15 8 12 8 9 7 13 14 7 14 23 5 1 3 6 11 7 5 7 10 14 3 14 11 6 10 5 7 26 13 12 12 12 26 6 18 16 6 4 4 1 6 24 13 8 -3 20 27 25 15 20 7 5 6 17 10 8 7 6 9 5 30 6 12 7 -7 14 3 14 2 9 1 -1 6 6 7 5 11 22 19 8 8 7 13 12 -1 16 27 3 1 0 9 7 11 7 13 17 2 10 16 32 3 7 3 38 8 30 22 3 6 3 2 7 14 9 14 3 7 6 4 17 7 3 7 9 9 12 6 1 6 15 17 10 10 9 4 51 5 13 5 7 7 15 7 41 12 7 6 5 4 32 32 11 5 3 17 10 2 2 4 23 -1 13 6 7 4 7 6 5 6 5 6 0 10 35 10 3 4 10 9 10 12 6 6 44 23 10 19 19 28 7 9 3 1 7 38 15 5 -3 2 8 16 1</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>66 63 65 62 70 67 68 65 60 62 57 74 66 58 66 41 66 63 65 67 61 67 68 57 64 67 15 66 64 60 58 65 61 61 69 66 56 62 61 61 69 63 62 65 60 66 58 65 58 65 63 61 62 59 67 65 63</t>
-  </si>
-  <si>
-    <t>38 21 24 27 29 35 17 22 23 21 15 28 34 33 32 10 28 3 26 28 21 29 27 22 25 33 0 28 31 21 18 16 28 18 28 18 15 24 11 24 32 13 13 18 12 23 26 23 18 18 20 14 25 32 18 0 11</t>
-  </si>
-  <si>
-    <t>30 16 22 12 12 35 19 19 18 9 11 22 32 44 14 21 0 21 33 32 24 13 20 22 15 25 15 31 22 15 15 20 14 26 32 22 20 23 19 18 19 12 25 15 19 24</t>
-  </si>
-  <si>
-    <t>52 51 24 42 36 46 44 46 57 47 59 48 43 30 56 45 39 24 61 38 39 36 31 42 46 47 63 45 42 31 47 51 47 56 19 58 27 48 35 56 38 46 35 63 67 64 37 55 40 50 45 55 49 45 67 54 45 49 56 52 68 39 70 47 66 71 54 37 59 35 42 58 40 61 42 44 63 37 47 54 48 68 32 53 36 54 42 67 38 55</t>
-  </si>
-  <si>
-    <t>19 10 0 0 0 11 0 0 38 11 0 0 0 0 0 0 0 0 0 0 0 0 0 -2 0 0 0 0 4 0 0 0 2 10 0 7 0 0 0 13 0 0 0 22 15 30 0 15 0 0 15 8 0 7 12 11 0 0 9 0 17 0 21 0 0 0 0 0 6 0 12 14 0 37 0 9 0 0 0 0 15 2 0 0 0 14 0 16 0 13</t>
-  </si>
-  <si>
-    <t>27 10 5 0 0 0 0 0 0 24 0 0 0 0 0 0 0 0 0 13 0 0 13 12 29 0 16 8 3 6 0 0 12 0 11 0 11 0 16 32 -3 13 9 19 21 0 0 0 3 0 0 7 0 10 0 16 7 0 2 0 0 17 0 5 6 0 0 0 0 9 0 5 0 0 0 0 15 0 0 5 0 12 11 21 0 0 0 0 9 7 6 0 0 0</t>
+    <t>66 63 65 62 70 67 68 65 60 62 57 74 66 58 66 41 66 63 65 67 61 67 68 57 64 67 15 66 64 60 58 65 61 61 69 66 56 62 61 61 69 63 62 65 60 66 58 65 58 65 63 61 62 59 67 65 63 66</t>
+  </si>
+  <si>
+    <t>38 21 24 27 29 35 17 22 23 21 15 28 34 33 32 10 28 3 26 28 21 29 27 22 25 33 0 28 31 21 18 16 28 18 28 18 15 24 11 24 32 13 13 18 12 23 26 23 18 18 20 14 25 32 18 0 11 24</t>
+  </si>
+  <si>
+    <t>30 16 22 12 12 35 19 19 18 9 11 22 32 44 14 21 0 21 33 32 24 13 20 22 15 25 15 31 22 15 15 20 14 26 32 22 20 23 19 18 19 12 25 15 19 24 28 16 29</t>
+  </si>
+  <si>
+    <t>52 51 24 42 36 46 44 46 57 47 59 48 43 30 56 45 39 24 61 38 39 36 31 42 46 47 63 45 42 31 47 51 47 56 19 58 27 48 35 56 38 46 35 63 67 64 37 55 40 50 45 55 49 45 67 54 45 49 56 52 68 39 70 47 66 71 54 37 59 35 42 58 40 61 42 44 63 37 47 54 48 68 32 53 36 54 42 67 38 55 44 60 46</t>
+  </si>
+  <si>
+    <t>19 10 0 0 0 11 0 0 38 11 0 0 0 0 0 0 0 0 0 0 0 0 0 -2 0 0 0 0 4 0 0 0 2 10 0 7 0 0 0 13 0 0 0 22 15 30 0 15 0 0 15 8 0 7 12 11 0 0 9 0 17 0 21 0 0 0 0 0 6 0 12 14 0 37 0 9 0 0 0 0 15 2 0 0 0 14 0 16 0 13 0 0 11</t>
+  </si>
+  <si>
+    <t>27 10 5 0 0 0 0 0 0 24 0 0 0 0 0 0 0 0 0 13 0 0 13 12 29 0 16 8 3 6 0 0 12 0 11 0 11 0 16 32 -3 13 9 19 21 0 0 0 3 0 0 7 0 10 0 16 7 0 2 0 0 17 0 5 6 0 0 0 0 9 0 5 0 0 0 0 15 0 0 5 0 12 11 21 0 0 0 0 9 7 6 0 0 0 6</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,7 +668,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="D2">
         <v>32</v>
@@ -677,7 +677,7 @@
         <v>12</v>
       </c>
       <c r="F2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G2">
         <v>104</v>
@@ -701,13 +701,13 @@
         <v>382</v>
       </c>
       <c r="N2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q2">
         <v>963</v>
@@ -721,37 +721,37 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F3">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="G3">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I3">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J3">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>435</v>
+        <v>468</v>
       </c>
       <c r="M3">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="N3">
         <v>27</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>792</v>
+        <v>840</v>
       </c>
     </row>
   </sheetData>
@@ -943,19 +943,19 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H2">
         <v>7</v>
@@ -964,7 +964,7 @@
         <v>10</v>
       </c>
       <c r="J2">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,7 +976,7 @@
         <v>368</v>
       </c>
       <c r="N2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O2">
         <v>36</v>
@@ -993,40 +993,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
       <c r="E3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F3">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G3">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H3">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="J3">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>476</v>
+        <v>500</v>
       </c>
       <c r="M3">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="N3">
         <v>20</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>857</v>
+        <v>919</v>
       </c>
     </row>
   </sheetData>
@@ -1215,19 +1215,19 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G2">
         <v>126</v>
@@ -1239,10 +1239,10 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L2">
         <v>33</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,16 +1362,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>9</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1409,7 +1409,7 @@
         <v>60</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1417,13 +1417,13 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Raiders/Team Data.xlsx
+++ b/Base/Teams/Raiders/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>5 1 7 1 5 1 4 4 7 14 5 -1 7 12 15 2 -4 7 2 7 9 4 -2 0 2 3 6 1 2 5 1 6 8 4 0 3 -2 1 7 -2 -4 3 5 3 6 0 0 6 6 -5 14 0 0 3 1 13 0 20 12 2 3 -3 0 3 12 6 7 6 6 5 -1 2 23 13 3 1 2 4 4 3 2 -1 9 3 14 3 2 8 6 -3 -1 10 7 1 -2 1 -2 11 16 10 3 2 5 1 1 3 6 7 3 6 1 2 7 2 2 43 1 3 4 4 2 0 4 2 2 0 7 7 2 4 7 2 5 3 0 5 4 -1 2 1 10 0 4 1 2 2 9 10 2 4 0 9 2 1 6 6 5 0 4 9 11 -2 7 8 2 7 1 4 7 4 6 5 1 8 3 1 11 3 5 2 1 3 14 6 7 1 5 4 18 1 0 0 2 16 5 2 3 3 10 4 23 15 2 0 10 7 4 5 14 10 0 6 0 12 2 7 6 9 6 2 3 0 0 3 2 3 9 11 4 3 1 1 9 3 5 0 24 2 3 13 6 3 -5 11 2 1 9 9 2 5 1 1 4 5 7 3 1 8 2 9 2 23 1 4 13 2 2 2 5 6 5 3 0 2 5 2 2 11 1 0 4 2 5 12 4 0 -3 0 5 0 1 1 4 -2 16 0 0 4 2 9 2 4 1 1 5 3 1 -3 14 3 3 6 3 4 1 3 2 2 3 2 3 0 2 4 3 2 7 12 6 3 -3 3 -3 0 2 1 6 5 2 3 2 0 18 6 4 -2 5 1 20 3 3 0 2 3 11 0 -5 6 26 6 3 -1 4 1 8 0 4 7 -3 7 2 0 1 2 0 2 7 13 2 17 3 2 12 1 -2 3 13 2 1 7 0 15 10 18 3 1 9 0 1 3 3 2 7 2 2 5 1 3 0 2 1 5 6 2 2 18 2 3 16 2 4 3 28 5 3 1 31 -1 2 8 0 13 0 0 0 2 2 2 4 1 15 3 -2 6 0 1 2 4 1 0 4 5 -2 2 1 -2 4 -2 1 1 -4 11 5 2 -4 3 13 1 3 1 3 2 3 5 3 0 4 2 6 4 2 5 2 14 7 4 1 19 3 2 0 1 4 -2 1 6 0 1 27 8 1 4 2 1 5 3 -1 5 4 0 2 2 10 1 2 0 6 2 1 3 0 3 11 3 8 6 5 0 5 -1 5 5 4 2 7 1 1 0 1 1 8 1 4 6 2 6 4 3 9 3 6 18 6 2 0 1 3 1 5 3 1 3 0 1 5 1 2 3 12 9 4 3 9 4 8 -3 6 11 11 4 1 5 1 2 7 7 5 1 3 1 1 11 6 13 3 0 13 3 7 2 1 14 4 1 0 3 4 21 2 3 3 5 3 3 1 -1 12 2 -1 9 2 1 3 8 3 6 4 5 1 7 4 1 4 3 2 4 5 0 18 -4 7 2 3 2 2 4 1 3 0 9 4 1 2 3 0 10 5 5 4 -4 6 6 3 22 2 4 4 4 2 4 5 21 -1 0 4 4 3 7 1 3 0 17 7 3 15 -1 6 2 1 1 10 1 -3 5 1 4 3 4 1 5 3</t>
-  </si>
-  <si>
-    <t>7 8 45 8 6 10 11 3 2 4 6 8 23 9 -1 15 29 0 18 6 14 8 9 22 9 3 6 9 13 13 3 19 15 20 15 5 4 2 12 4 10 31 6 6 6 8 18 2 17 18 22 14 6 14 6 6 1 4 34 0 3 24 11 13 5 2 7 10 8 12 1 7 13 9 -1 16 12 9 8 14 12 22 0 11 7 15 5 11 3 10 17 6 7 14 12 9 4 4 5 9 37 15 6 8 4 9 46 12 5 59 23 5 72 3 8 10 1 4 2 4 23 7 2 28 14 20 5 7 29 9 6 11 21 6 9 15 6 11 2 44 1 11 3 10 6 3 7 2 7 13 4 17 8 4 12 1 9 6 11 6 4 7 6 0 19 8 4 7 45 53 2 3 10 3 5 25 9 2 3 8 8 1 16 8 24 0 5 21 13 5 6 26 29 16 7 11 17 18 14 11 11 4 1 18 16 7 9 3 21 3 20 5 7 1 2 2 9 7 -1 16 7 11 2 3 1 13 11 15 19 11 12 11 15 -1 19 4 9 12 2 18 12 9 3 28 28 9 6 4 17 13 14 4 38 18 8 19 9 3 1 12 6 7 29 5 15 46 6 4 47 7 36 8 21 3 7 6 29 10 15 29 6 14 5 8 9 0 5 0 11 9 3 8 13 4 7 3 4 8 6 17 30 22 13 35 6 4 25 10 7 15 14 15 25 9 9 6 -1 16 11 4 29 2 19 12 19 9 9 13 22 11 33 10 3 22 4 85 4 9 57 5 9 8 28 18 12 5 15 15 26 5 14 7 25 6 15 2 14 37 10 21 8 9 13 6 5 6 12 9 24 8 15 13 7 4 12 16 2 3 4 21 4 5 16 9 7 9 37 10 10 20 18 11 27 32 31 9 3 11 10 17 13 10 25 6 4 3 8 9 14 18 9 23 30 9 13 2 13 16 7 4 10 61 25 24 7 23 6 10 25 8 18 8 5 23 12 21 1 4 15 10 12 23 7 23 16 3 16 32 34 4 3 12 5 21 7 0 15 8 8 5 10 9 18 3 51 5 5 4 3 12 8 29 9 29 4 4 9 6 17 5 6 18 3 2 4 6 3 12 7 10 9 48 2 3 25 11 16 6 8 8 10 33 31 29 3 40 8 51 12 4 43 -1 16 2 8 13 0 6 18 18 8 10 10 6 20 7 6 5 4 21 7 9 10 24 5 -1 29 3 6 6 20 6 2 8 3 7 8 10 20 7 2 15 9 5 9 20 24 22 11 2 3 12 3 19 9 17 8 3 6 5 1 4 3 27 3 6 7 5 22 37 24 40 11 5 5 7 9 6 12 3 15 -2 -2 25 6 8 6 21 4 1 9 2 25 31 19 7 8 20 9 8 8 12 56 5 12 12 21 17 13 31 3 11 -1 4 35 10 -5 16 54 9 9 4 30 7 8 1 8 9 3 10 5 3 9 7 5 0 18 10 -5 5 2 15 9 34 7 3 28 14 13 16 2 11 7 7 8 9 16 14 2 7 19 7 2 5 7 13 10 6 4 6 4 19 19 6 4</t>
-  </si>
-  <si>
-    <t>1 0 5 5 9 4 5 4 6 3 13 6 2 7 13 3 -1 2 9 0 1 3 2 15 3 3 3 11 8 8 10 0 4 13 21 2 3 0 1 5 2 5 5 3 8 3 4 0 2 3 -1 2 9 3 5 13 6 5 4 17 5 8 13 3 -1 1 7 38 6 4 5 48 -1 0 2 2 21 3 14 2 -3 3 10 -3 11 3 6 4 4 4 4 0 3 -3 1 2 2 -5 3 2 -2 11 8 5 6 6 3 3 5 10 8 5 1 4 6 2 -1 2 3 0 1 5 3 -1 0 -1 13 8 9 -1 1 3 1 24 3 -1 6 6 -3 -3 2 3 1 2 1 -1 7 10 11 0 4 3 6 2 18 -2 0 3 6 2 6 4 13 2 1 8 11 2 8 4 5 4 -1 3 2 4 14 6 3 3 1 3 1 4 4 2 1 1 5 0 9 6 0 9 5 4 2 0 3 8 1 6 -4 3 6 7 2 0 -3 4 11 9 2 4 5 3 8 6 10 4 3 5 11 3 2 9 2 3 0 -2 14 -4 -5 7 2 3 6 5 3 1 0 5 3 4 -1 3 7 2 3 -4 4 7 0 1 11 2 5 24 3 8 3 4 22 -2 4 2 2 9 1 9 0 0 0 2 25 7 1 6 14 5 7 12 0 5 12 18 6 17 16 5 7 4 4 5 2 2 1 1 3 1 1 3 13 13 -2 18 -3 -1 13 2 1 1 -2 4 2 15 11 3 1 62 0 1 3 31 3 5 3 1 1 12 3 0 -1 4 -4 1 3 9 2 5 4 1 2 3 0 -4 5 5 1 1 27 12 6 2 3 5 0 0 1 -4 5 0 14 8 3 -1 8 8 9 -1 -1 24 1 2 1 7 8 2 4 5 0 7 5 3 5 5 0 20 1 -1 6 2 1 -2 5 0 4 0 3 0 1 4 5 2 1 -1 2 10 2 0 7 15 3 7 3 18 2 2 3 -3 0 4 1 16 3 2 4 11 6 -1 15 11 4 2 2 5 5 8 1 0 28 2 4 2 3 2 -1 14 -2 1 1 14 -3 2 3 1 4 0 3 6 5 2 2 3 24 4 1 6 0 1 14 10 1 3 5 3 19 4 4 0 -1 0 1 15 7 -1 18 -1 0 3 5 21 5 3 -3 8 2 11 6 4 8 0 2 2 4 1 7 6 9 1 6 11 20 4 3 -2 6 1 1 3 0 5 11 14 0 0 6 8 9 3 3 9 7 0 4 8 8 1 0 0 6 2 0 7 1 6 6 5 0 1 0 1 1 10 1 9 3 11 3 4 0 3 0 5 8 4 0 30 4 2 4 4 1 1 0 6 3 5 9 7 1 5 7 5 2 7 1 4 3 4 22 5 8 5 0 6 0 0 6 4 1 16 4 2 1 5 6 4 16 5 5 6 2 -2 2 6 1 6 20 5 2 3 5 2 0 5 7 5 2 3 8 -3 4 11 12 2 5 0 5 1 3 21 1 3 2 0 6 -1 5 3 2 6 -1 4 4 4 3 2 6 4 14 4 5 1 3 -2 -3 1 -2 10 -1 11 2 5 4 8 -2 18 5 2 6 4 -5 2 1 19 4 0 1 3 7 20 1 0 1 4 2 5 8 1 3 5 2 1 4 3 2 3 8 3 1 12 -5 1 1 22 1 3 1 16 2 6 2 2 4 1 9 5 -4 -3 13 4 1 0 -6 7 2 3 8 1 6 0 4 3 2 1 2 7 5 7 0 3 1 0 0 1 4 9 6 4 2 10 4 2 -2 2 4 2 5 2</t>
-  </si>
-  <si>
-    <t>10 2 16 5 9 16 4 11 7 5 11 11 11 0 5 18 6 1 11 16 75 19 18 7 29 16 10 25 17 6 8 20 16 4 15 9 8 5 9 3 6 9 17 12 18 8 7 15 3 3 14 15 0 9 23 5 7 11 6 15 6 8 -1 27 11 2 21 15 6 26 7 10 18 6 11 7 9 1 5 8 12 5 7 12 14 14 49 9 14 9 12 26 32 4 13 5 16 37 8 4 23 15 23 6 16 2 42 4 3 -1 15 7 3 6 22 12 8 8 6 11 16 26 5 5 2 16 11 7 33 6 35 3 8 10 2 4 13 15 6 12 4 23 22 1 6 5 19 5 3 6 9 19 1 14 10 25 16 3 11 17 13 4 9 10 21 16 27 5 5 50 10 7 23 12 4 5 4 8 5 11 5 5 4 16 1 9 14 17 0 11 26 27 1 9 27 14 6 6 7 11 13 8 4 9 14 16 8 10 14 6 8 4 3 17 21 11 8 3 19 11 6 3 9 8 11 12 13 3 5 15 6 19 9 10 9 16 15 3 22 11 16 0 11 12 6 17 12 14 2 8 8 10 14 6 12 11 3 7 4 -3 22 11 17 3 16 13 6 23 25 8 3 10 11 18 20 3 4 4 19 17 7 28 23 41 -5 9 7 27 6 9 14 4 7 8 14 18 8 17 10 5 17 3 12 15 7 11 -2 25 26 9 15 14 10 19 53 1 1 13 5 5 6 2 3 5 4 5 6 14 5 8 10 1 4 13 8 17 31 7 9 59 34 7 17 14 17 29 1 16 8 4 1 9 9 9 1 2 11 12 4 20 7 13 10 1 92 25 2 8 0 21 6 6 29 29 10 13 4 10 6 4 13 6 49 9 10 6 5 2 2 9 7 9 17 6 13 5 41 5 14 3 8 16 52 25 4 5 9 5 4 12 0 11 8 5 -1 12 8 4 10 9 7 4 13 4 4 2 7 8 9 2 2 3 5 9 6 7 4 10 3 7 1 5 4 22 7 7 4 3 5 5 11 34 0 10 2 9 4 7 13 9 14 9 15 4 4 18 7 2 2 15 8 12 8 9 7 13 14 7 14 23 5 1 3 6 11 7 5 7 10 14 3 14 11 6 10 5 7 26 13 12 12 12 26 6 18 16 6 4 4 1 6 24 13 8 -3 20 27 25 15 20 7 5 6 17 10 8 7 6 9 5 30 6 12 7 -7 14 3 14 2 9 1 -1 6 6 7 5 11 22 19 8 8 7 13 12 -1 16 27 3 1 0 9 7 11 7 13 17 2 10 16 32 3 7 3 38 8 30 22 3 6 3 2 7 14 9 14 3 7 6 4 17 7 3 7 9 9 12 6 1 6 15 17 10 10 9 4 51 5 13 5 7 7 15 7 41 12 7 6 5 4 32 32 11 5 3 17 10 2 2 4 23 -1 13 6 7 4 7 6 5 6 5 6 0 10 35 10 3 4 10 9 10 12 6 6 44 23 10 19 19 28 7 9 3 1 7 38 15 5 -3 2 8 16 1</t>
+    <t>5 1 7 1 5 1 4 4 7 14 5 -1 7 12 15 2 -4 7 2 7 9 4 -2 0 2 3 6 1 2 5 1 6 8 4 0 3 -2 1 7 -2 -4 3 5 3 6 0 0 6 6 -5 14 0 0 3 1 13 0 20 12 2 3 -3 0 3 12 6 7 6 6 5 -1 2 23 13 3 1 2 4 4 3 2 -1 9 3 14 3 2 8 6 -3 -1 10 7 1 -2 1 -2 11 16 10 3 2 5 1 1 3 6 7 3 6 1 2 7 2 2 43 1 3 4 4 2 0 4 2 2 0 7 7 2 4 7 2 5 3 0 5 4 -1 2 1 10 0 4 1 2 2 9 10 2 4 0 9 2 1 6 6 5 0 4 9 11 -2 7 8 2 7 1 4 7 4 6 5 1 8 3 1 11 3 5 2 1 3 14 6 7 1 5 4 18 1 0 0 2 16 5 2 3 3 10 4 23 15 2 0 10 7 4 5 14 10 0 6 0 12 2 7 6 9 6 2 3 0 0 3 2 3 9 11 4 3 1 1 9 3 5 0 24 2 3 13 6 3 -5 11 2 1 9 9 2 5 1 1 4 5 7 3 1 8 2 9 2 23 1 4 13 2 2 2 5 6 5 3 0 2 5 2 2 11 1 0 4 2 5 12 4 0 -3 0 5 0 1 1 4 -2 16 0 0 4 2 9 2 4 1 1 5 3 1 -3 14 3 3 6 3 4 1 3 2 2 3 2 3 0 2 4 3 2 7 12 6 3 -3 3 -3 0 2 1 6 5 2 3 2 0 18 6 4 -2 5 1 20 3 3 0 2 3 11 0 -5 6 26 6 3 -1 4 1 8 0 4 7 -3 7 2 0 1 2 0 2 7 13 2 17 3 2 12 1 -2 3 13 2 1 7 0 15 10 18 3 1 9 0 1 3 3 2 7 2 2 5 1 3 0 2 1 5 6 2 2 18 2 3 16 2 4 3 28 5 3 1 31 -1 2 8 0 13 0 0 0 2 2 2 4 1 15 3 -2 6 0 1 2 4 1 0 4 5 -2 2 1 -2 4 -2 1 1 -4 11 5 2 -4 3 13 1 3 1 3 2 3 5 3 0 4 2 6 4 2 5 2 14 7 4 1 19 3 2 0 1 4 -2 1 6 0 1 27 8 1 4 2 1 5 3 -1 5 4 0 2 2 10 1 2 0 6 2 1 3 0 3 11 3 8 6 5 0 5 -1 5 5 4 2 7 1 1 0 1 1 8 1 4 6 2 6 4 3 9 3 6 18 6 2 0 1 3 1 5 3 1 3 0 1 5 1 2 3 12 9 4 3 9 4 8 -3 6 11 11 4 1 5 1 2 7 7 5 1 3 1 1 11 6 13 3 0 13 3 7 2 1 14 4 1 0 3 4 21 2 3 3 5 3 3 1 -1 12 2 -1 9 2 1 3 8 3 6 4 5 1 7 4 1 4 3 2 4 5 0 18 -4 7 2 3 2 2 4 1 3 0 9 4 1 2 3 0 10 5 5 4 -4 6 6 3 22 2 4 4 4 2 4 5 21 -1 0 4 4 3 7 1 3 0 17 7 3 15 -1 6 2 1 1 10 1 -3 5 1 4 3 4 1 5 3 2 -2 1 3 19 7 6 3 3 6 3 5 8 6 3 3 0 1 6 2 9 4 1 -3</t>
+  </si>
+  <si>
+    <t>7 8 45 8 6 10 11 3 2 4 6 8 23 9 -1 15 29 0 18 6 14 8 9 22 9 3 6 9 13 13 3 19 15 20 15 5 4 2 12 4 10 31 6 6 6 8 18 2 17 18 22 14 6 14 6 6 1 4 34 0 3 24 11 13 5 2 7 10 8 12 1 7 13 9 -1 16 12 9 8 14 12 22 0 11 7 15 5 11 3 10 17 6 7 14 12 9 4 4 5 9 37 15 6 8 4 9 46 12 5 59 23 5 72 3 8 10 1 4 2 4 23 7 2 28 14 20 5 7 29 9 6 11 21 6 9 15 6 11 2 44 1 11 3 10 6 3 7 2 7 13 4 17 8 4 12 1 9 6 11 6 4 7 6 0 19 8 4 7 45 53 2 3 10 3 5 25 9 2 3 8 8 1 16 8 24 0 5 21 13 5 6 26 29 16 7 11 17 18 14 11 11 4 1 18 16 7 9 3 21 3 20 5 7 1 2 2 9 7 -1 16 7 11 2 3 1 13 11 15 19 11 12 11 15 -1 19 4 9 12 2 18 12 9 3 28 28 9 6 4 17 13 14 4 38 18 8 19 9 3 1 12 6 7 29 5 15 46 6 4 47 7 36 8 21 3 7 6 29 10 15 29 6 14 5 8 9 0 5 0 11 9 3 8 13 4 7 3 4 8 6 17 30 22 13 35 6 4 25 10 7 15 14 15 25 9 9 6 -1 16 11 4 29 2 19 12 19 9 9 13 22 11 33 10 3 22 4 85 4 9 57 5 9 8 28 18 12 5 15 15 26 5 14 7 25 6 15 2 14 37 10 21 8 9 13 6 5 6 12 9 24 8 15 13 7 4 12 16 2 3 4 21 4 5 16 9 7 9 37 10 10 20 18 11 27 32 31 9 3 11 10 17 13 10 25 6 4 3 8 9 14 18 9 23 30 9 13 2 13 16 7 4 10 61 25 24 7 23 6 10 25 8 18 8 5 23 12 21 1 4 15 10 12 23 7 23 16 3 16 32 34 4 3 12 5 21 7 0 15 8 8 5 10 9 18 3 51 5 5 4 3 12 8 29 9 29 4 4 9 6 17 5 6 18 3 2 4 6 3 12 7 10 9 48 2 3 25 11 16 6 8 8 10 33 31 29 3 40 8 51 12 4 43 -1 16 2 8 13 0 6 18 18 8 10 10 6 20 7 6 5 4 21 7 9 10 24 5 -1 29 3 6 6 20 6 2 8 3 7 8 10 20 7 2 15 9 5 9 20 24 22 11 2 3 12 3 19 9 17 8 3 6 5 1 4 3 27 3 6 7 5 22 37 24 40 11 5 5 7 9 6 12 3 15 -2 -2 25 6 8 6 21 4 1 9 2 25 31 19 7 8 20 9 8 8 12 56 5 12 12 21 17 13 31 3 11 -1 4 35 10 -5 16 54 9 9 4 30 7 8 1 8 9 3 10 5 3 9 7 5 0 18 10 -5 5 2 15 9 34 7 3 28 14 13 16 2 11 7 7 8 9 16 14 2 7 19 7 2 5 7 13 10 6 4 6 4 19 19 6 4 -1 12 14 11 17 12 7 5 5 10 5 13 8 6 16 14 16 12 6 7 3 12 9 12 15</t>
+  </si>
+  <si>
+    <t>1 0 5 5 9 4 5 4 6 3 13 6 2 7 13 3 -1 2 9 0 1 3 2 15 3 3 3 11 8 8 10 0 4 13 21 2 3 0 1 5 2 5 5 3 8 3 4 0 2 3 -1 2 9 3 5 13 6 5 4 17 5 8 13 3 -1 1 7 38 6 4 5 48 -1 0 2 2 21 3 14 2 -3 3 10 -3 11 3 6 4 4 4 4 0 3 -3 1 2 2 -5 3 2 -2 11 8 5 6 6 3 3 5 10 8 5 1 4 6 2 -1 2 3 0 1 5 3 -1 0 -1 13 8 9 -1 1 3 1 24 3 -1 6 6 -3 -3 2 3 1 2 1 -1 7 10 11 0 4 3 6 2 18 -2 0 3 6 2 6 4 13 2 1 8 11 2 8 4 5 4 -1 3 2 4 14 6 3 3 1 3 1 4 4 2 1 1 5 0 9 6 0 9 5 4 2 0 3 8 1 6 -4 3 6 7 2 0 -3 4 11 9 2 4 5 3 8 6 10 4 3 5 11 3 2 9 2 3 0 -2 14 -4 -5 7 2 3 6 5 3 1 0 5 3 4 -1 3 7 2 3 -4 4 7 0 1 11 2 5 24 3 8 3 4 22 -2 4 2 2 9 1 9 0 0 0 2 25 7 1 6 14 5 7 12 0 5 12 18 6 17 16 5 7 4 4 5 2 2 1 1 3 1 1 3 13 13 -2 18 -3 -1 13 2 1 1 -2 4 2 15 11 3 1 62 0 1 3 31 3 5 3 1 1 12 3 0 -1 4 -4 1 3 9 2 5 4 1 2 3 0 -4 5 5 1 1 27 12 6 2 3 5 0 0 1 -4 5 0 14 8 3 -1 8 8 9 -1 -1 24 1 2 1 7 8 2 4 5 0 7 5 3 5 5 0 20 1 -1 6 2 1 -2 5 0 4 0 3 0 1 4 5 2 1 -1 2 10 2 0 7 15 3 7 3 18 2 2 3 -3 0 4 1 16 3 2 4 11 6 -1 15 11 4 2 2 5 5 8 1 0 28 2 4 2 3 2 -1 14 -2 1 1 14 -3 2 3 1 4 0 3 6 5 2 2 3 24 4 1 6 0 1 14 10 1 3 5 3 19 4 4 0 -1 0 1 15 7 -1 18 -1 0 3 5 21 5 3 -3 8 2 11 6 4 8 0 2 2 4 1 7 6 9 1 6 11 20 4 3 -2 6 1 1 3 0 5 11 14 0 0 6 8 9 3 3 9 7 0 4 8 8 1 0 0 6 2 0 7 1 6 6 5 0 1 0 1 1 10 1 9 3 11 3 4 0 3 0 5 8 4 0 30 4 2 4 4 1 1 0 6 3 5 9 7 1 5 7 5 2 7 1 4 3 4 22 5 8 5 0 6 0 0 6 4 1 16 4 2 1 5 6 4 16 5 5 6 2 -2 2 6 1 6 20 5 2 3 5 2 0 5 7 5 2 3 8 -3 4 11 12 2 5 0 5 1 3 21 1 3 2 0 6 -1 5 3 2 6 -1 4 4 4 3 2 6 4 14 4 5 1 3 -2 -3 1 -2 10 -1 11 2 5 4 8 -2 18 5 2 6 4 -5 2 1 19 4 0 1 3 7 20 1 0 1 4 2 5 8 1 3 5 2 1 4 3 2 3 8 3 1 12 -5 1 1 22 1 3 1 16 2 6 2 2 4 1 9 5 -4 -3 13 4 1 0 -6 7 2 3 8 1 6 0 4 3 2 1 2 7 5 7 0 3 1 0 0 1 4 9 6 4 2 10 4 2 -2 2 4 2 5 2 4 -7 -2 8 1 4 4 -1 2 4 24 2 4 1 1 6 4 3 12 2 6 2 5 0</t>
+  </si>
+  <si>
+    <t>10 2 16 5 9 16 4 11 7 5 11 11 11 0 5 18 6 1 11 16 75 19 18 7 29 16 10 25 17 6 8 20 16 4 15 9 8 5 9 3 6 9 17 12 18 8 7 15 3 3 14 15 0 9 23 5 7 11 6 15 6 8 -1 27 11 2 21 15 6 26 7 10 18 6 11 7 9 1 5 8 12 5 7 12 14 14 49 9 14 9 12 26 32 4 13 5 16 37 8 4 23 15 23 6 16 2 42 4 3 -1 15 7 3 6 22 12 8 8 6 11 16 26 5 5 2 16 11 7 33 6 35 3 8 10 2 4 13 15 6 12 4 23 22 1 6 5 19 5 3 6 9 19 1 14 10 25 16 3 11 17 13 4 9 10 21 16 27 5 5 50 10 7 23 12 4 5 4 8 5 11 5 5 4 16 1 9 14 17 0 11 26 27 1 9 27 14 6 6 7 11 13 8 4 9 14 16 8 10 14 6 8 4 3 17 21 11 8 3 19 11 6 3 9 8 11 12 13 3 5 15 6 19 9 10 9 16 15 3 22 11 16 0 11 12 6 17 12 14 2 8 8 10 14 6 12 11 3 7 4 -3 22 11 17 3 16 13 6 23 25 8 3 10 11 18 20 3 4 4 19 17 7 28 23 41 -5 9 7 27 6 9 14 4 7 8 14 18 8 17 10 5 17 3 12 15 7 11 -2 25 26 9 15 14 10 19 53 1 1 13 5 5 6 2 3 5 4 5 6 14 5 8 10 1 4 13 8 17 31 7 9 59 34 7 17 14 17 29 1 16 8 4 1 9 9 9 1 2 11 12 4 20 7 13 10 1 92 25 2 8 0 21 6 6 29 29 10 13 4 10 6 4 13 6 49 9 10 6 5 2 2 9 7 9 17 6 13 5 41 5 14 3 8 16 52 25 4 5 9 5 4 12 0 11 8 5 -1 12 8 4 10 9 7 4 13 4 4 2 7 8 9 2 2 3 5 9 6 7 4 10 3 7 1 5 4 22 7 7 4 3 5 5 11 34 0 10 2 9 4 7 13 9 14 9 15 4 4 18 7 2 2 15 8 12 8 9 7 13 14 7 14 23 5 1 3 6 11 7 5 7 10 14 3 14 11 6 10 5 7 26 13 12 12 12 26 6 18 16 6 4 4 1 6 24 13 8 -3 20 27 25 15 20 7 5 6 17 10 8 7 6 9 5 30 6 12 7 -7 14 3 14 2 9 1 -1 6 6 7 5 11 22 19 8 8 7 13 12 -1 16 27 3 1 0 9 7 11 7 13 17 2 10 16 32 3 7 3 38 8 30 22 3 6 3 2 7 14 9 14 3 7 6 4 17 7 3 7 9 9 12 6 1 6 15 17 10 10 9 4 51 5 13 5 7 7 15 7 41 12 7 6 5 4 32 32 11 5 3 17 10 2 2 4 23 -1 13 6 7 4 7 6 5 6 5 6 0 10 35 10 3 4 10 9 10 12 6 6 44 23 10 19 19 28 7 9 3 1 7 38 15 5 -3 2 8 16 1 5 10 6 6 2 4 3 4 4 9 13 6 6 13 5 25 11 3 6</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>66 63 65 62 70 67 68 65 60 62 57 74 66 58 66 41 66 63 65 67 61 67 68 57 64 67 15 66 64 60 58 65 61 61 69 66 56 62 61 61 69 63 62 65 60 66 58 65 58 65 63 61 62 59 67 65 63 66</t>
-  </si>
-  <si>
-    <t>38 21 24 27 29 35 17 22 23 21 15 28 34 33 32 10 28 3 26 28 21 29 27 22 25 33 0 28 31 21 18 16 28 18 28 18 15 24 11 24 32 13 13 18 12 23 26 23 18 18 20 14 25 32 18 0 11 24</t>
-  </si>
-  <si>
-    <t>30 16 22 12 12 35 19 19 18 9 11 22 32 44 14 21 0 21 33 32 24 13 20 22 15 25 15 31 22 15 15 20 14 26 32 22 20 23 19 18 19 12 25 15 19 24 28 16 29</t>
-  </si>
-  <si>
-    <t>52 51 24 42 36 46 44 46 57 47 59 48 43 30 56 45 39 24 61 38 39 36 31 42 46 47 63 45 42 31 47 51 47 56 19 58 27 48 35 56 38 46 35 63 67 64 37 55 40 50 45 55 49 45 67 54 45 49 56 52 68 39 70 47 66 71 54 37 59 35 42 58 40 61 42 44 63 37 47 54 48 68 32 53 36 54 42 67 38 55 44 60 46</t>
-  </si>
-  <si>
-    <t>19 10 0 0 0 11 0 0 38 11 0 0 0 0 0 0 0 0 0 0 0 0 0 -2 0 0 0 0 4 0 0 0 2 10 0 7 0 0 0 13 0 0 0 22 15 30 0 15 0 0 15 8 0 7 12 11 0 0 9 0 17 0 21 0 0 0 0 0 6 0 12 14 0 37 0 9 0 0 0 0 15 2 0 0 0 14 0 16 0 13 0 0 11</t>
-  </si>
-  <si>
-    <t>27 10 5 0 0 0 0 0 0 24 0 0 0 0 0 0 0 0 0 13 0 0 13 12 29 0 16 8 3 6 0 0 12 0 11 0 11 0 16 32 -3 13 9 19 21 0 0 0 3 0 0 7 0 10 0 16 7 0 2 0 0 17 0 5 6 0 0 0 0 9 0 5 0 0 0 0 15 0 0 5 0 12 11 21 0 0 0 0 9 7 6 0 0 0 6</t>
+    <t>66 63 65 62 70 67 68 65 60 62 57 74 66 58 66 41 66 63 65 67 61 67 68 57 64 67 15 66 64 60 58 65 61 61 69 66 56 62 61 61 69 63 62 65 60 66 58 65 58 65 63 61 62 59 67 65 63 66 62</t>
+  </si>
+  <si>
+    <t>38 21 24 27 29 35 17 22 23 21 15 28 34 33 32 10 28 3 26 28 21 29 27 22 25 33 0 28 31 21 18 16 28 18 28 18 15 24 11 24 32 13 13 18 12 23 26 23 18 18 20 14 25 32 18 0 11 24 24</t>
+  </si>
+  <si>
+    <t>30 16 22 12 12 35 19 19 18 9 11 22 32 44 14 21 0 21 33 32 24 13 20 22 15 25 15 31 22 15 15 20 14 26 32 22 20 23 19 18 19 12 25 15 19 24 28 16 29 14 23</t>
+  </si>
+  <si>
+    <t>52 51 24 42 36 46 44 46 57 47 59 48 43 30 56 45 39 24 61 38 39 36 31 42 46 47 63 45 42 31 47 51 47 56 19 58 27 48 35 56 38 46 35 63 67 64 37 55 40 50 45 55 49 45 67 54 45 49 56 52 68 39 70 47 66 71 54 37 59 35 42 58 40 61 42 44 63 37 47 54 48 68 32 53 36 54 42 67 38 55 44 60 46 42 49 41 45</t>
+  </si>
+  <si>
+    <t>19 10 0 0 0 11 0 0 38 11 0 0 0 0 0 0 0 0 0 0 0 0 0 -2 0 0 0 0 4 0 0 0 2 10 0 7 0 0 0 13 0 0 0 22 15 30 0 15 0 0 15 8 0 7 12 11 0 0 9 0 17 0 21 0 0 0 0 0 6 0 12 14 0 37 0 9 0 0 0 0 15 2 0 0 0 14 0 16 0 13 0 0 11 20 0 0 0</t>
+  </si>
+  <si>
+    <t>27 10 5 0 0 0 0 0 0 24 0 0 0 0 0 0 0 0 0 13 0 0 13 12 29 0 16 8 3 6 0 0 12 0 11 0 11 0 16 32 -3 13 9 19 21 0 0 0 3 0 0 7 0 10 0 16 7 0 2 0 0 17 0 5 6 0 0 0 0 9 0 5 0 0 0 0 15 0 0 5 0 12 11 21 0 0 0 0 9 7 6 0 0 0 6 29 0 0 0 2</t>
   </si>
   <si>
     <t>INT</t>
@@ -665,31 +665,31 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="D2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <v>12</v>
       </c>
       <c r="F2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G2">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I2">
         <v>15</v>
       </c>
       <c r="J2">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,13 +701,13 @@
         <v>382</v>
       </c>
       <c r="N2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q2">
         <v>963</v>
@@ -718,40 +718,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="D3">
         <v>6</v>
       </c>
       <c r="E3">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F3">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="G3">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H3">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I3">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J3">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>468</v>
+        <v>505</v>
       </c>
       <c r="M3">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="N3">
         <v>27</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>840</v>
+        <v>909</v>
       </c>
     </row>
   </sheetData>
@@ -943,28 +943,28 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="D2">
         <v>25</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G2">
         <v>111</v>
       </c>
       <c r="H2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2">
         <v>10</v>
       </c>
       <c r="J2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -979,10 +979,10 @@
         <v>31</v>
       </c>
       <c r="O2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q2">
         <v>978</v>
@@ -993,10 +993,10 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D3">
         <v>8</v>
@@ -1005,28 +1005,28 @@
         <v>60</v>
       </c>
       <c r="F3">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G3">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H3">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I3">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="J3">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>500</v>
+        <v>529</v>
       </c>
       <c r="M3">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="N3">
         <v>20</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>919</v>
+        <v>974</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -1239,16 +1239,16 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N2">
         <v>15</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,16 +1362,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>9</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Raiders/Team Data.xlsx
+++ b/Base/Teams/Raiders/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>5 1 7 1 5 1 4 4 7 14 5 -1 7 12 15 2 -4 7 2 7 9 4 -2 0 2 3 6 1 2 5 1 6 8 4 0 3 -2 1 7 -2 -4 3 5 3 6 0 0 6 6 -5 14 0 0 3 1 13 0 20 12 2 3 -3 0 3 12 6 7 6 6 5 -1 2 23 13 3 1 2 4 4 3 2 -1 9 3 14 3 2 8 6 -3 -1 10 7 1 -2 1 -2 11 16 10 3 2 5 1 1 3 6 7 3 6 1 2 7 2 2 43 1 3 4 4 2 0 4 2 2 0 7 7 2 4 7 2 5 3 0 5 4 -1 2 1 10 0 4 1 2 2 9 10 2 4 0 9 2 1 6 6 5 0 4 9 11 -2 7 8 2 7 1 4 7 4 6 5 1 8 3 1 11 3 5 2 1 3 14 6 7 1 5 4 18 1 0 0 2 16 5 2 3 3 10 4 23 15 2 0 10 7 4 5 14 10 0 6 0 12 2 7 6 9 6 2 3 0 0 3 2 3 9 11 4 3 1 1 9 3 5 0 24 2 3 13 6 3 -5 11 2 1 9 9 2 5 1 1 4 5 7 3 1 8 2 9 2 23 1 4 13 2 2 2 5 6 5 3 0 2 5 2 2 11 1 0 4 2 5 12 4 0 -3 0 5 0 1 1 4 -2 16 0 0 4 2 9 2 4 1 1 5 3 1 -3 14 3 3 6 3 4 1 3 2 2 3 2 3 0 2 4 3 2 7 12 6 3 -3 3 -3 0 2 1 6 5 2 3 2 0 18 6 4 -2 5 1 20 3 3 0 2 3 11 0 -5 6 26 6 3 -1 4 1 8 0 4 7 -3 7 2 0 1 2 0 2 7 13 2 17 3 2 12 1 -2 3 13 2 1 7 0 15 10 18 3 1 9 0 1 3 3 2 7 2 2 5 1 3 0 2 1 5 6 2 2 18 2 3 16 2 4 3 28 5 3 1 31 -1 2 8 0 13 0 0 0 2 2 2 4 1 15 3 -2 6 0 1 2 4 1 0 4 5 -2 2 1 -2 4 -2 1 1 -4 11 5 2 -4 3 13 1 3 1 3 2 3 5 3 0 4 2 6 4 2 5 2 14 7 4 1 19 3 2 0 1 4 -2 1 6 0 1 27 8 1 4 2 1 5 3 -1 5 4 0 2 2 10 1 2 0 6 2 1 3 0 3 11 3 8 6 5 0 5 -1 5 5 4 2 7 1 1 0 1 1 8 1 4 6 2 6 4 3 9 3 6 18 6 2 0 1 3 1 5 3 1 3 0 1 5 1 2 3 12 9 4 3 9 4 8 -3 6 11 11 4 1 5 1 2 7 7 5 1 3 1 1 11 6 13 3 0 13 3 7 2 1 14 4 1 0 3 4 21 2 3 3 5 3 3 1 -1 12 2 -1 9 2 1 3 8 3 6 4 5 1 7 4 1 4 3 2 4 5 0 18 -4 7 2 3 2 2 4 1 3 0 9 4 1 2 3 0 10 5 5 4 -4 6 6 3 22 2 4 4 4 2 4 5 21 -1 0 4 4 3 7 1 3 0 17 7 3 15 -1 6 2 1 1 10 1 -3 5 1 4 3 4 1 5 3 2 -2 1 3 19 7 6 3 3 6 3 5 8 6 3 3 0 1 6 2 9 4 1 -3</t>
-  </si>
-  <si>
-    <t>7 8 45 8 6 10 11 3 2 4 6 8 23 9 -1 15 29 0 18 6 14 8 9 22 9 3 6 9 13 13 3 19 15 20 15 5 4 2 12 4 10 31 6 6 6 8 18 2 17 18 22 14 6 14 6 6 1 4 34 0 3 24 11 13 5 2 7 10 8 12 1 7 13 9 -1 16 12 9 8 14 12 22 0 11 7 15 5 11 3 10 17 6 7 14 12 9 4 4 5 9 37 15 6 8 4 9 46 12 5 59 23 5 72 3 8 10 1 4 2 4 23 7 2 28 14 20 5 7 29 9 6 11 21 6 9 15 6 11 2 44 1 11 3 10 6 3 7 2 7 13 4 17 8 4 12 1 9 6 11 6 4 7 6 0 19 8 4 7 45 53 2 3 10 3 5 25 9 2 3 8 8 1 16 8 24 0 5 21 13 5 6 26 29 16 7 11 17 18 14 11 11 4 1 18 16 7 9 3 21 3 20 5 7 1 2 2 9 7 -1 16 7 11 2 3 1 13 11 15 19 11 12 11 15 -1 19 4 9 12 2 18 12 9 3 28 28 9 6 4 17 13 14 4 38 18 8 19 9 3 1 12 6 7 29 5 15 46 6 4 47 7 36 8 21 3 7 6 29 10 15 29 6 14 5 8 9 0 5 0 11 9 3 8 13 4 7 3 4 8 6 17 30 22 13 35 6 4 25 10 7 15 14 15 25 9 9 6 -1 16 11 4 29 2 19 12 19 9 9 13 22 11 33 10 3 22 4 85 4 9 57 5 9 8 28 18 12 5 15 15 26 5 14 7 25 6 15 2 14 37 10 21 8 9 13 6 5 6 12 9 24 8 15 13 7 4 12 16 2 3 4 21 4 5 16 9 7 9 37 10 10 20 18 11 27 32 31 9 3 11 10 17 13 10 25 6 4 3 8 9 14 18 9 23 30 9 13 2 13 16 7 4 10 61 25 24 7 23 6 10 25 8 18 8 5 23 12 21 1 4 15 10 12 23 7 23 16 3 16 32 34 4 3 12 5 21 7 0 15 8 8 5 10 9 18 3 51 5 5 4 3 12 8 29 9 29 4 4 9 6 17 5 6 18 3 2 4 6 3 12 7 10 9 48 2 3 25 11 16 6 8 8 10 33 31 29 3 40 8 51 12 4 43 -1 16 2 8 13 0 6 18 18 8 10 10 6 20 7 6 5 4 21 7 9 10 24 5 -1 29 3 6 6 20 6 2 8 3 7 8 10 20 7 2 15 9 5 9 20 24 22 11 2 3 12 3 19 9 17 8 3 6 5 1 4 3 27 3 6 7 5 22 37 24 40 11 5 5 7 9 6 12 3 15 -2 -2 25 6 8 6 21 4 1 9 2 25 31 19 7 8 20 9 8 8 12 56 5 12 12 21 17 13 31 3 11 -1 4 35 10 -5 16 54 9 9 4 30 7 8 1 8 9 3 10 5 3 9 7 5 0 18 10 -5 5 2 15 9 34 7 3 28 14 13 16 2 11 7 7 8 9 16 14 2 7 19 7 2 5 7 13 10 6 4 6 4 19 19 6 4 -1 12 14 11 17 12 7 5 5 10 5 13 8 6 16 14 16 12 6 7 3 12 9 12 15</t>
-  </si>
-  <si>
-    <t>1 0 5 5 9 4 5 4 6 3 13 6 2 7 13 3 -1 2 9 0 1 3 2 15 3 3 3 11 8 8 10 0 4 13 21 2 3 0 1 5 2 5 5 3 8 3 4 0 2 3 -1 2 9 3 5 13 6 5 4 17 5 8 13 3 -1 1 7 38 6 4 5 48 -1 0 2 2 21 3 14 2 -3 3 10 -3 11 3 6 4 4 4 4 0 3 -3 1 2 2 -5 3 2 -2 11 8 5 6 6 3 3 5 10 8 5 1 4 6 2 -1 2 3 0 1 5 3 -1 0 -1 13 8 9 -1 1 3 1 24 3 -1 6 6 -3 -3 2 3 1 2 1 -1 7 10 11 0 4 3 6 2 18 -2 0 3 6 2 6 4 13 2 1 8 11 2 8 4 5 4 -1 3 2 4 14 6 3 3 1 3 1 4 4 2 1 1 5 0 9 6 0 9 5 4 2 0 3 8 1 6 -4 3 6 7 2 0 -3 4 11 9 2 4 5 3 8 6 10 4 3 5 11 3 2 9 2 3 0 -2 14 -4 -5 7 2 3 6 5 3 1 0 5 3 4 -1 3 7 2 3 -4 4 7 0 1 11 2 5 24 3 8 3 4 22 -2 4 2 2 9 1 9 0 0 0 2 25 7 1 6 14 5 7 12 0 5 12 18 6 17 16 5 7 4 4 5 2 2 1 1 3 1 1 3 13 13 -2 18 -3 -1 13 2 1 1 -2 4 2 15 11 3 1 62 0 1 3 31 3 5 3 1 1 12 3 0 -1 4 -4 1 3 9 2 5 4 1 2 3 0 -4 5 5 1 1 27 12 6 2 3 5 0 0 1 -4 5 0 14 8 3 -1 8 8 9 -1 -1 24 1 2 1 7 8 2 4 5 0 7 5 3 5 5 0 20 1 -1 6 2 1 -2 5 0 4 0 3 0 1 4 5 2 1 -1 2 10 2 0 7 15 3 7 3 18 2 2 3 -3 0 4 1 16 3 2 4 11 6 -1 15 11 4 2 2 5 5 8 1 0 28 2 4 2 3 2 -1 14 -2 1 1 14 -3 2 3 1 4 0 3 6 5 2 2 3 24 4 1 6 0 1 14 10 1 3 5 3 19 4 4 0 -1 0 1 15 7 -1 18 -1 0 3 5 21 5 3 -3 8 2 11 6 4 8 0 2 2 4 1 7 6 9 1 6 11 20 4 3 -2 6 1 1 3 0 5 11 14 0 0 6 8 9 3 3 9 7 0 4 8 8 1 0 0 6 2 0 7 1 6 6 5 0 1 0 1 1 10 1 9 3 11 3 4 0 3 0 5 8 4 0 30 4 2 4 4 1 1 0 6 3 5 9 7 1 5 7 5 2 7 1 4 3 4 22 5 8 5 0 6 0 0 6 4 1 16 4 2 1 5 6 4 16 5 5 6 2 -2 2 6 1 6 20 5 2 3 5 2 0 5 7 5 2 3 8 -3 4 11 12 2 5 0 5 1 3 21 1 3 2 0 6 -1 5 3 2 6 -1 4 4 4 3 2 6 4 14 4 5 1 3 -2 -3 1 -2 10 -1 11 2 5 4 8 -2 18 5 2 6 4 -5 2 1 19 4 0 1 3 7 20 1 0 1 4 2 5 8 1 3 5 2 1 4 3 2 3 8 3 1 12 -5 1 1 22 1 3 1 16 2 6 2 2 4 1 9 5 -4 -3 13 4 1 0 -6 7 2 3 8 1 6 0 4 3 2 1 2 7 5 7 0 3 1 0 0 1 4 9 6 4 2 10 4 2 -2 2 4 2 5 2 4 -7 -2 8 1 4 4 -1 2 4 24 2 4 1 1 6 4 3 12 2 6 2 5 0</t>
-  </si>
-  <si>
-    <t>10 2 16 5 9 16 4 11 7 5 11 11 11 0 5 18 6 1 11 16 75 19 18 7 29 16 10 25 17 6 8 20 16 4 15 9 8 5 9 3 6 9 17 12 18 8 7 15 3 3 14 15 0 9 23 5 7 11 6 15 6 8 -1 27 11 2 21 15 6 26 7 10 18 6 11 7 9 1 5 8 12 5 7 12 14 14 49 9 14 9 12 26 32 4 13 5 16 37 8 4 23 15 23 6 16 2 42 4 3 -1 15 7 3 6 22 12 8 8 6 11 16 26 5 5 2 16 11 7 33 6 35 3 8 10 2 4 13 15 6 12 4 23 22 1 6 5 19 5 3 6 9 19 1 14 10 25 16 3 11 17 13 4 9 10 21 16 27 5 5 50 10 7 23 12 4 5 4 8 5 11 5 5 4 16 1 9 14 17 0 11 26 27 1 9 27 14 6 6 7 11 13 8 4 9 14 16 8 10 14 6 8 4 3 17 21 11 8 3 19 11 6 3 9 8 11 12 13 3 5 15 6 19 9 10 9 16 15 3 22 11 16 0 11 12 6 17 12 14 2 8 8 10 14 6 12 11 3 7 4 -3 22 11 17 3 16 13 6 23 25 8 3 10 11 18 20 3 4 4 19 17 7 28 23 41 -5 9 7 27 6 9 14 4 7 8 14 18 8 17 10 5 17 3 12 15 7 11 -2 25 26 9 15 14 10 19 53 1 1 13 5 5 6 2 3 5 4 5 6 14 5 8 10 1 4 13 8 17 31 7 9 59 34 7 17 14 17 29 1 16 8 4 1 9 9 9 1 2 11 12 4 20 7 13 10 1 92 25 2 8 0 21 6 6 29 29 10 13 4 10 6 4 13 6 49 9 10 6 5 2 2 9 7 9 17 6 13 5 41 5 14 3 8 16 52 25 4 5 9 5 4 12 0 11 8 5 -1 12 8 4 10 9 7 4 13 4 4 2 7 8 9 2 2 3 5 9 6 7 4 10 3 7 1 5 4 22 7 7 4 3 5 5 11 34 0 10 2 9 4 7 13 9 14 9 15 4 4 18 7 2 2 15 8 12 8 9 7 13 14 7 14 23 5 1 3 6 11 7 5 7 10 14 3 14 11 6 10 5 7 26 13 12 12 12 26 6 18 16 6 4 4 1 6 24 13 8 -3 20 27 25 15 20 7 5 6 17 10 8 7 6 9 5 30 6 12 7 -7 14 3 14 2 9 1 -1 6 6 7 5 11 22 19 8 8 7 13 12 -1 16 27 3 1 0 9 7 11 7 13 17 2 10 16 32 3 7 3 38 8 30 22 3 6 3 2 7 14 9 14 3 7 6 4 17 7 3 7 9 9 12 6 1 6 15 17 10 10 9 4 51 5 13 5 7 7 15 7 41 12 7 6 5 4 32 32 11 5 3 17 10 2 2 4 23 -1 13 6 7 4 7 6 5 6 5 6 0 10 35 10 3 4 10 9 10 12 6 6 44 23 10 19 19 28 7 9 3 1 7 38 15 5 -3 2 8 16 1 5 10 6 6 2 4 3 4 4 9 13 6 6 13 5 25 11 3 6</t>
+    <t>5 1 7 1 5 1 4 4 7 14 5 -1 7 12 15 2 -4 7 2 7 9 4 -2 0 2 3 6 1 2 5 1 6 8 4 0 3 -2 1 7 -2 -4 3 5 3 6 0 0 6 6 -5 14 0 0 3 1 13 0 20 12 2 3 -3 0 3 12 6 7 6 6 5 -1 2 23 13 3 1 2 4 4 3 2 -1 9 3 14 3 2 8 6 -3 -1 10 7 1 -2 1 -2 11 16 10 3 2 5 1 1 3 6 7 3 6 1 2 7 2 2 43 1 3 4 4 2 0 4 2 2 0 7 7 2 4 7 2 5 3 0 5 4 -1 2 1 10 0 4 1 2 2 9 10 2 4 0 9 2 1 6 6 5 0 4 9 11 -2 7 8 2 7 1 4 7 4 6 5 1 8 3 1 11 3 5 2 1 3 14 6 7 1 5 4 18 1 0 0 2 16 5 2 3 3 10 4 23 15 2 0 10 7 4 5 14 10 0 6 0 12 2 7 6 9 6 2 3 0 0 3 2 3 9 11 4 3 1 1 9 3 5 0 24 2 3 13 6 3 -5 11 2 1 9 9 2 5 1 1 4 5 7 3 1 8 2 9 2 23 1 4 13 2 2 2 5 6 5 3 0 2 5 2 2 11 1 0 4 2 5 12 4 0 -3 0 5 0 1 1 4 -2 16 0 0 4 2 9 2 4 1 1 5 3 1 -3 14 3 3 6 3 4 1 3 2 2 3 2 3 0 2 4 3 2 7 12 6 3 -3 3 -3 0 2 1 6 5 2 3 2 0 18 6 4 -2 5 1 20 3 3 0 2 3 11 0 -5 6 26 6 3 -1 4 1 8 0 4 7 -3 7 2 0 1 2 0 2 7 13 2 17 3 2 12 1 -2 3 13 2 1 7 0 15 10 18 3 1 9 0 1 3 3 2 7 2 2 5 1 3 0 2 1 5 6 2 2 18 2 3 16 2 4 3 28 5 3 1 31 -1 2 8 0 13 0 0 0 2 2 2 4 1 15 3 -2 6 0 1 2 4 1 0 4 5 -2 2 1 -2 4 -2 1 1 -4 11 5 2 -4 3 13 1 3 1 3 2 3 5 3 0 4 2 6 4 2 5 2 14 7 4 1 19 3 2 0 1 4 -2 1 6 0 1 27 8 1 4 2 1 5 3 -1 5 4 0 2 2 10 1 2 0 6 2 1 3 0 3 11 3 8 6 5 0 5 -1 5 5 4 2 7 1 1 0 1 1 8 1 4 6 2 6 4 3 9 3 6 18 6 2 0 1 3 1 5 3 1 3 0 1 5 1 2 3 12 9 4 3 9 4 8 -3 6 11 11 4 1 5 1 2 7 7 5 1 3 1 1 11 6 13 3 0 13 3 7 2 1 14 4 1 0 3 4 21 2 3 3 5 3 3 1 -1 12 2 -1 9 2 1 3 8 3 6 4 5 1 7 4 1 4 3 2 4 5 0 18 -4 7 2 3 2 2 4 1 3 0 9 4 1 2 3 0 10 5 5 4 -4 6 6 3 22 2 4 4 4 2 4 5 21 -1 0 4 4 3 7 1 3 0 17 7 3 15 -1 6 2 1 1 10 1 -3 5 1 4 3 4 1 5 3 2 -2 1 3 19 7 6 3 3 6 3 5 8 6 3 3 0 1 6 2 9 4 1 -3 3 3 7 4 6 5 3 3 -2 0 -4 8 7 3 8 19 4 8 5 5 4 8 -4 3 0 4 4 4 10 6 0 4 13 3 5</t>
+  </si>
+  <si>
+    <t>7 8 45 8 6 10 11 3 2 4 6 8 23 9 -1 15 29 0 18 6 14 8 9 22 9 3 6 9 13 13 3 19 15 20 15 5 4 2 12 4 10 31 6 6 6 8 18 2 17 18 22 14 6 14 6 6 1 4 34 0 3 24 11 13 5 2 7 10 8 12 1 7 13 9 -1 16 12 9 8 14 12 22 0 11 7 15 5 11 3 10 17 6 7 14 12 9 4 4 5 9 37 15 6 8 4 9 46 12 5 59 23 5 72 3 8 10 1 4 2 4 23 7 2 28 14 20 5 7 29 9 6 11 21 6 9 15 6 11 2 44 1 11 3 10 6 3 7 2 7 13 4 17 8 4 12 1 9 6 11 6 4 7 6 0 19 8 4 7 45 53 2 3 10 3 5 25 9 2 3 8 8 1 16 8 24 0 5 21 13 5 6 26 29 16 7 11 17 18 14 11 11 4 1 18 16 7 9 3 21 3 20 5 7 1 2 2 9 7 -1 16 7 11 2 3 1 13 11 15 19 11 12 11 15 -1 19 4 9 12 2 18 12 9 3 28 28 9 6 4 17 13 14 4 38 18 8 19 9 3 1 12 6 7 29 5 15 46 6 4 47 7 36 8 21 3 7 6 29 10 15 29 6 14 5 8 9 0 5 0 11 9 3 8 13 4 7 3 4 8 6 17 30 22 13 35 6 4 25 10 7 15 14 15 25 9 9 6 -1 16 11 4 29 2 19 12 19 9 9 13 22 11 33 10 3 22 4 85 4 9 57 5 9 8 28 18 12 5 15 15 26 5 14 7 25 6 15 2 14 37 10 21 8 9 13 6 5 6 12 9 24 8 15 13 7 4 12 16 2 3 4 21 4 5 16 9 7 9 37 10 10 20 18 11 27 32 31 9 3 11 10 17 13 10 25 6 4 3 8 9 14 18 9 23 30 9 13 2 13 16 7 4 10 61 25 24 7 23 6 10 25 8 18 8 5 23 12 21 1 4 15 10 12 23 7 23 16 3 16 32 34 4 3 12 5 21 7 0 15 8 8 5 10 9 18 3 51 5 5 4 3 12 8 29 9 29 4 4 9 6 17 5 6 18 3 2 4 6 3 12 7 10 9 48 2 3 25 11 16 6 8 8 10 33 31 29 3 40 8 51 12 4 43 -1 16 2 8 13 0 6 18 18 8 10 10 6 20 7 6 5 4 21 7 9 10 24 5 -1 29 3 6 6 20 6 2 8 3 7 8 10 20 7 2 15 9 5 9 20 24 22 11 2 3 12 3 19 9 17 8 3 6 5 1 4 3 27 3 6 7 5 22 37 24 40 11 5 5 7 9 6 12 3 15 -2 -2 25 6 8 6 21 4 1 9 2 25 31 19 7 8 20 9 8 8 12 56 5 12 12 21 17 13 31 3 11 -1 4 35 10 -5 16 54 9 9 4 30 7 8 1 8 9 3 10 5 3 9 7 5 0 18 10 -5 5 2 15 9 34 7 3 28 14 13 16 2 11 7 7 8 9 16 14 2 7 19 7 2 5 7 13 10 6 4 6 4 19 19 6 4 -1 12 14 11 17 12 7 5 5 10 5 13 8 6 16 14 16 12 6 7 3 12 9 12 15 8 5 16 18 6 4 0 15 10 20 -5 5 7 13 12 12 18 6 3 28</t>
+  </si>
+  <si>
+    <t>1 0 5 5 9 4 5 4 6 3 13 6 2 7 13 3 -1 2 9 0 1 3 2 15 3 3 3 11 8 8 10 0 4 13 21 2 3 0 1 5 2 5 5 3 8 3 4 0 2 3 -1 2 9 3 5 13 6 5 4 17 5 8 13 3 -1 1 7 38 6 4 5 48 -1 0 2 2 21 3 14 2 -3 3 10 -3 11 3 6 4 4 4 4 0 3 -3 1 2 2 -5 3 2 -2 11 8 5 6 6 3 3 5 10 8 5 1 4 6 2 -1 2 3 0 1 5 3 -1 0 -1 13 8 9 -1 1 3 1 24 3 -1 6 6 -3 -3 2 3 1 2 1 -1 7 10 11 0 4 3 6 2 18 -2 0 3 6 2 6 4 13 2 1 8 11 2 8 4 5 4 -1 3 2 4 14 6 3 3 1 3 1 4 4 2 1 1 5 0 9 6 0 9 5 4 2 0 3 8 1 6 -4 3 6 7 2 0 -3 4 11 9 2 4 5 3 8 6 10 4 3 5 11 3 2 9 2 3 0 -2 14 -4 -5 7 2 3 6 5 3 1 0 5 3 4 -1 3 7 2 3 -4 4 7 0 1 11 2 5 24 3 8 3 4 22 -2 4 2 2 9 1 9 0 0 0 2 25 7 1 6 14 5 7 12 0 5 12 18 6 17 16 5 7 4 4 5 2 2 1 1 3 1 1 3 13 13 -2 18 -3 -1 13 2 1 1 -2 4 2 15 11 3 1 62 0 1 3 31 3 5 3 1 1 12 3 0 -1 4 -4 1 3 9 2 5 4 1 2 3 0 -4 5 5 1 1 27 12 6 2 3 5 0 0 1 -4 5 0 14 8 3 -1 8 8 9 -1 -1 24 1 2 1 7 8 2 4 5 0 7 5 3 5 5 0 20 1 -1 6 2 1 -2 5 0 4 0 3 0 1 4 5 2 1 -1 2 10 2 0 7 15 3 7 3 18 2 2 3 -3 0 4 1 16 3 2 4 11 6 -1 15 11 4 2 2 5 5 8 1 0 28 2 4 2 3 2 -1 14 -2 1 1 14 -3 2 3 1 4 0 3 6 5 2 2 3 24 4 1 6 0 1 14 10 1 3 5 3 19 4 4 0 -1 0 1 15 7 -1 18 -1 0 3 5 21 5 3 -3 8 2 11 6 4 8 0 2 2 4 1 7 6 9 1 6 11 20 4 3 -2 6 1 1 3 0 5 11 14 0 0 6 8 9 3 3 9 7 0 4 8 8 1 0 0 6 2 0 7 1 6 6 5 0 1 0 1 1 10 1 9 3 11 3 4 0 3 0 5 8 4 0 30 4 2 4 4 1 1 0 6 3 5 9 7 1 5 7 5 2 7 1 4 3 4 22 5 8 5 0 6 0 0 6 4 1 16 4 2 1 5 6 4 16 5 5 6 2 -2 2 6 1 6 20 5 2 3 5 2 0 5 7 5 2 3 8 -3 4 11 12 2 5 0 5 1 3 21 1 3 2 0 6 -1 5 3 2 6 -1 4 4 4 3 2 6 4 14 4 5 1 3 -2 -3 1 -2 10 -1 11 2 5 4 8 -2 18 5 2 6 4 -5 2 1 19 4 0 1 3 7 20 1 0 1 4 2 5 8 1 3 5 2 1 4 3 2 3 8 3 1 12 -5 1 1 22 1 3 1 16 2 6 2 2 4 1 9 5 -4 -3 13 4 1 0 -6 7 2 3 8 1 6 0 4 3 2 1 2 7 5 7 0 3 1 0 0 1 4 9 6 4 2 10 4 2 -2 2 4 2 5 2 4 -7 -2 8 1 4 4 -1 2 4 24 2 4 1 1 6 4 3 12 2 6 2 5 0 4 5 1 1 1 3 1 3 -4 1 -3 1 3 0 -4 5</t>
+  </si>
+  <si>
+    <t>10 2 16 5 9 16 4 11 7 5 11 11 11 0 5 18 6 1 11 16 75 19 18 7 29 16 10 25 17 6 8 20 16 4 15 9 8 5 9 3 6 9 17 12 18 8 7 15 3 3 14 15 0 9 23 5 7 11 6 15 6 8 -1 27 11 2 21 15 6 26 7 10 18 6 11 7 9 1 5 8 12 5 7 12 14 14 49 9 14 9 12 26 32 4 13 5 16 37 8 4 23 15 23 6 16 2 42 4 3 -1 15 7 3 6 22 12 8 8 6 11 16 26 5 5 2 16 11 7 33 6 35 3 8 10 2 4 13 15 6 12 4 23 22 1 6 5 19 5 3 6 9 19 1 14 10 25 16 3 11 17 13 4 9 10 21 16 27 5 5 50 10 7 23 12 4 5 4 8 5 11 5 5 4 16 1 9 14 17 0 11 26 27 1 9 27 14 6 6 7 11 13 8 4 9 14 16 8 10 14 6 8 4 3 17 21 11 8 3 19 11 6 3 9 8 11 12 13 3 5 15 6 19 9 10 9 16 15 3 22 11 16 0 11 12 6 17 12 14 2 8 8 10 14 6 12 11 3 7 4 -3 22 11 17 3 16 13 6 23 25 8 3 10 11 18 20 3 4 4 19 17 7 28 23 41 -5 9 7 27 6 9 14 4 7 8 14 18 8 17 10 5 17 3 12 15 7 11 -2 25 26 9 15 14 10 19 53 1 1 13 5 5 6 2 3 5 4 5 6 14 5 8 10 1 4 13 8 17 31 7 9 59 34 7 17 14 17 29 1 16 8 4 1 9 9 9 1 2 11 12 4 20 7 13 10 1 92 25 2 8 0 21 6 6 29 29 10 13 4 10 6 4 13 6 49 9 10 6 5 2 2 9 7 9 17 6 13 5 41 5 14 3 8 16 52 25 4 5 9 5 4 12 0 11 8 5 -1 12 8 4 10 9 7 4 13 4 4 2 7 8 9 2 2 3 5 9 6 7 4 10 3 7 1 5 4 22 7 7 4 3 5 5 11 34 0 10 2 9 4 7 13 9 14 9 15 4 4 18 7 2 2 15 8 12 8 9 7 13 14 7 14 23 5 1 3 6 11 7 5 7 10 14 3 14 11 6 10 5 7 26 13 12 12 12 26 6 18 16 6 4 4 1 6 24 13 8 -3 20 27 25 15 20 7 5 6 17 10 8 7 6 9 5 30 6 12 7 -7 14 3 14 2 9 1 -1 6 6 7 5 11 22 19 8 8 7 13 12 -1 16 27 3 1 0 9 7 11 7 13 17 2 10 16 32 3 7 3 38 8 30 22 3 6 3 2 7 14 9 14 3 7 6 4 17 7 3 7 9 9 12 6 1 6 15 17 10 10 9 4 51 5 13 5 7 7 15 7 41 12 7 6 5 4 32 32 11 5 3 17 10 2 2 4 23 -1 13 6 7 4 7 6 5 6 5 6 0 10 35 10 3 4 10 9 10 12 6 6 44 23 10 19 19 28 7 9 3 1 7 38 15 5 -3 2 8 16 1 5 10 6 6 2 4 3 4 4 9 13 6 6 13 5 25 11 3 6 5 2 7 1 40 4 14 6 8 20 5 13 4 8</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>66 63 65 62 70 67 68 65 60 62 57 74 66 58 66 41 66 63 65 67 61 67 68 57 64 67 15 66 64 60 58 65 61 61 69 66 56 62 61 61 69 63 62 65 60 66 58 65 58 65 63 61 62 59 67 65 63 66 62</t>
-  </si>
-  <si>
-    <t>38 21 24 27 29 35 17 22 23 21 15 28 34 33 32 10 28 3 26 28 21 29 27 22 25 33 0 28 31 21 18 16 28 18 28 18 15 24 11 24 32 13 13 18 12 23 26 23 18 18 20 14 25 32 18 0 11 24 24</t>
-  </si>
-  <si>
-    <t>30 16 22 12 12 35 19 19 18 9 11 22 32 44 14 21 0 21 33 32 24 13 20 22 15 25 15 31 22 15 15 20 14 26 32 22 20 23 19 18 19 12 25 15 19 24 28 16 29 14 23</t>
-  </si>
-  <si>
-    <t>52 51 24 42 36 46 44 46 57 47 59 48 43 30 56 45 39 24 61 38 39 36 31 42 46 47 63 45 42 31 47 51 47 56 19 58 27 48 35 56 38 46 35 63 67 64 37 55 40 50 45 55 49 45 67 54 45 49 56 52 68 39 70 47 66 71 54 37 59 35 42 58 40 61 42 44 63 37 47 54 48 68 32 53 36 54 42 67 38 55 44 60 46 42 49 41 45</t>
-  </si>
-  <si>
-    <t>19 10 0 0 0 11 0 0 38 11 0 0 0 0 0 0 0 0 0 0 0 0 0 -2 0 0 0 0 4 0 0 0 2 10 0 7 0 0 0 13 0 0 0 22 15 30 0 15 0 0 15 8 0 7 12 11 0 0 9 0 17 0 21 0 0 0 0 0 6 0 12 14 0 37 0 9 0 0 0 0 15 2 0 0 0 14 0 16 0 13 0 0 11 20 0 0 0</t>
-  </si>
-  <si>
-    <t>27 10 5 0 0 0 0 0 0 24 0 0 0 0 0 0 0 0 0 13 0 0 13 12 29 0 16 8 3 6 0 0 12 0 11 0 11 0 16 32 -3 13 9 19 21 0 0 0 3 0 0 7 0 10 0 16 7 0 2 0 0 17 0 5 6 0 0 0 0 9 0 5 0 0 0 0 15 0 0 5 0 12 11 21 0 0 0 0 9 7 6 0 0 0 6 29 0 0 0 2</t>
+    <t>66 63 65 62 70 67 68 65 60 62 57 74 66 58 66 41 66 63 65 67 61 67 68 57 64 67 15 66 64 60 58 65 61 61 69 66 56 62 61 61 69 63 62 65 60 66 58 65 58 65 63 61 62 59 67 65 63 66 62 58</t>
+  </si>
+  <si>
+    <t>38 21 24 27 29 35 17 22 23 21 15 28 34 33 32 10 28 3 26 28 21 29 27 22 25 33 0 28 31 21 18 16 28 18 28 18 15 24 11 24 32 13 13 18 12 23 26 23 18 18 20 14 25 32 18 0 11 24 24 18</t>
+  </si>
+  <si>
+    <t>30 16 22 12 12 35 19 19 18 9 11 22 32 44 14 21 0 21 33 32 24 13 20 22 15 25 15 31 22 15 15 20 14 26 32 22 20 23 19 18 19 12 25 15 19 24 28 16 29 14 23 23</t>
+  </si>
+  <si>
+    <t>52 51 24 42 36 46 44 46 57 47 59 48 43 30 56 45 39 24 61 38 39 36 31 42 46 47 63 45 42 31 47 51 47 56 19 58 27 48 35 56 38 46 35 63 67 64 37 55 40 50 45 55 49 45 67 54 45 49 56 52 68 39 70 47 66 71 54 37 59 35 42 58 40 61 42 44 63 37 47 54 48 68 32 53 36 54 42 67 38 55 44 60 46 42 49 41 45 38 47</t>
+  </si>
+  <si>
+    <t>19 10 0 0 0 11 0 0 38 11 0 0 0 0 0 0 0 0 0 0 0 0 0 -2 0 0 0 0 4 0 0 0 2 10 0 7 0 0 0 13 0 0 0 22 15 30 0 15 0 0 15 8 0 7 12 11 0 0 9 0 17 0 21 0 0 0 0 0 6 0 12 14 0 37 0 9 0 0 0 0 15 2 0 0 0 14 0 16 0 13 0 0 11 20 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t>27 10 5 0 0 0 0 0 0 24 0 0 0 0 0 0 0 0 0 13 0 0 13 12 29 0 16 8 3 6 0 0 12 0 11 0 11 0 16 32 -3 13 9 19 21 0 0 0 3 0 0 7 0 10 0 16 7 0 2 0 0 17 0 5 6 0 0 0 0 9 0 5 0 0 0 0 15 0 0 5 0 12 11 21 0 0 0 0 9 7 6 0 0 0 6 29 0 0 0 2 0 0 6 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,19 +668,19 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="D2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2">
         <v>12</v>
       </c>
       <c r="F2">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G2">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H2">
         <v>7</v>
@@ -689,28 +689,28 @@
         <v>15</v>
       </c>
       <c r="J2">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>552</v>
+        <v>577</v>
       </c>
       <c r="M2">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="N2">
         <v>31</v>
       </c>
       <c r="O2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q2">
-        <v>963</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -721,7 +721,7 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="D3">
         <v>6</v>
@@ -730,19 +730,19 @@
         <v>52</v>
       </c>
       <c r="F3">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="G3">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I3">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J3">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>337</v>
       </c>
       <c r="N3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -940,52 +940,52 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H2">
         <v>8</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>545</v>
+        <v>567</v>
       </c>
       <c r="M2">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="N2">
         <v>31</v>
       </c>
       <c r="O2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q2">
-        <v>978</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -996,25 +996,25 @@
         <v>19</v>
       </c>
       <c r="C3">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
       <c r="E3">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F3">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="G3">
         <v>63</v>
       </c>
       <c r="H3">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I3">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="J3">
         <v>98</v>
@@ -1029,7 +1029,7 @@
         <v>338</v>
       </c>
       <c r="N3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -1245,10 +1245,10 @@
         <v>63</v>
       </c>
       <c r="L2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N2">
         <v>15</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1345,13 +1345,13 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>7</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>13</v>
@@ -1368,7 +1368,7 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>13</v>
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Raiders/Team Data.xlsx
+++ b/Base/Teams/Raiders/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>5 1 7 1 5 1 4 4 7 14 5 -1 7 12 15 2 -4 7 2 7 9 4 -2 0 2 3 6 1 2 5 1 6 8 4 0 3 -2 1 7 -2 -4 3 5 3 6 0 0 6 6 -5 14 0 0 3 1 13 0 20 12 2 3 -3 0 3 12 6 7 6 6 5 -1 2 23 13 3 1 2 4 4 3 2 -1 9 3 14 3 2 8 6 -3 -1 10 7 1 -2 1 -2 11 16 10 3 2 5 1 1 3 6 7 3 6 1 2 7 2 2 43 1 3 4 4 2 0 4 2 2 0 7 7 2 4 7 2 5 3 0 5 4 -1 2 1 10 0 4 1 2 2 9 10 2 4 0 9 2 1 6 6 5 0 4 9 11 -2 7 8 2 7 1 4 7 4 6 5 1 8 3 1 11 3 5 2 1 3 14 6 7 1 5 4 18 1 0 0 2 16 5 2 3 3 10 4 23 15 2 0 10 7 4 5 14 10 0 6 0 12 2 7 6 9 6 2 3 0 0 3 2 3 9 11 4 3 1 1 9 3 5 0 24 2 3 13 6 3 -5 11 2 1 9 9 2 5 1 1 4 5 7 3 1 8 2 9 2 23 1 4 13 2 2 2 5 6 5 3 0 2 5 2 2 11 1 0 4 2 5 12 4 0 -3 0 5 0 1 1 4 -2 16 0 0 4 2 9 2 4 1 1 5 3 1 -3 14 3 3 6 3 4 1 3 2 2 3 2 3 0 2 4 3 2 7 12 6 3 -3 3 -3 0 2 1 6 5 2 3 2 0 18 6 4 -2 5 1 20 3 3 0 2 3 11 0 -5 6 26 6 3 -1 4 1 8 0 4 7 -3 7 2 0 1 2 0 2 7 13 2 17 3 2 12 1 -2 3 13 2 1 7 0 15 10 18 3 1 9 0 1 3 3 2 7 2 2 5 1 3 0 2 1 5 6 2 2 18 2 3 16 2 4 3 28 5 3 1 31 -1 2 8 0 13 0 0 0 2 2 2 4 1 15 3 -2 6 0 1 2 4 1 0 4 5 -2 2 1 -2 4 -2 1 1 -4 11 5 2 -4 3 13 1 3 1 3 2 3 5 3 0 4 2 6 4 2 5 2 14 7 4 1 19 3 2 0 1 4 -2 1 6 0 1 27 8 1 4 2 1 5 3 -1 5 4 0 2 2 10 1 2 0 6 2 1 3 0 3 11 3 8 6 5 0 5 -1 5 5 4 2 7 1 1 0 1 1 8 1 4 6 2 6 4 3 9 3 6 18 6 2 0 1 3 1 5 3 1 3 0 1 5 1 2 3 12 9 4 3 9 4 8 -3 6 11 11 4 1 5 1 2 7 7 5 1 3 1 1 11 6 13 3 0 13 3 7 2 1 14 4 1 0 3 4 21 2 3 3 5 3 3 1 -1 12 2 -1 9 2 1 3 8 3 6 4 5 1 7 4 1 4 3 2 4 5 0 18 -4 7 2 3 2 2 4 1 3 0 9 4 1 2 3 0 10 5 5 4 -4 6 6 3 22 2 4 4 4 2 4 5 21 -1 0 4 4 3 7 1 3 0 17 7 3 15 -1 6 2 1 1 10 1 -3 5 1 4 3 4 1 5 3 2 -2 1 3 19 7 6 3 3 6 3 5 8 6 3 3 0 1 6 2 9 4 1 -3 3 3 7 4 6 5 3 3 -2 0 -4 8 7 3 8 19 4 8 5 5 4 8 -4 3 0 4 4 4 10 6 0 4 13 3 5</t>
-  </si>
-  <si>
-    <t>7 8 45 8 6 10 11 3 2 4 6 8 23 9 -1 15 29 0 18 6 14 8 9 22 9 3 6 9 13 13 3 19 15 20 15 5 4 2 12 4 10 31 6 6 6 8 18 2 17 18 22 14 6 14 6 6 1 4 34 0 3 24 11 13 5 2 7 10 8 12 1 7 13 9 -1 16 12 9 8 14 12 22 0 11 7 15 5 11 3 10 17 6 7 14 12 9 4 4 5 9 37 15 6 8 4 9 46 12 5 59 23 5 72 3 8 10 1 4 2 4 23 7 2 28 14 20 5 7 29 9 6 11 21 6 9 15 6 11 2 44 1 11 3 10 6 3 7 2 7 13 4 17 8 4 12 1 9 6 11 6 4 7 6 0 19 8 4 7 45 53 2 3 10 3 5 25 9 2 3 8 8 1 16 8 24 0 5 21 13 5 6 26 29 16 7 11 17 18 14 11 11 4 1 18 16 7 9 3 21 3 20 5 7 1 2 2 9 7 -1 16 7 11 2 3 1 13 11 15 19 11 12 11 15 -1 19 4 9 12 2 18 12 9 3 28 28 9 6 4 17 13 14 4 38 18 8 19 9 3 1 12 6 7 29 5 15 46 6 4 47 7 36 8 21 3 7 6 29 10 15 29 6 14 5 8 9 0 5 0 11 9 3 8 13 4 7 3 4 8 6 17 30 22 13 35 6 4 25 10 7 15 14 15 25 9 9 6 -1 16 11 4 29 2 19 12 19 9 9 13 22 11 33 10 3 22 4 85 4 9 57 5 9 8 28 18 12 5 15 15 26 5 14 7 25 6 15 2 14 37 10 21 8 9 13 6 5 6 12 9 24 8 15 13 7 4 12 16 2 3 4 21 4 5 16 9 7 9 37 10 10 20 18 11 27 32 31 9 3 11 10 17 13 10 25 6 4 3 8 9 14 18 9 23 30 9 13 2 13 16 7 4 10 61 25 24 7 23 6 10 25 8 18 8 5 23 12 21 1 4 15 10 12 23 7 23 16 3 16 32 34 4 3 12 5 21 7 0 15 8 8 5 10 9 18 3 51 5 5 4 3 12 8 29 9 29 4 4 9 6 17 5 6 18 3 2 4 6 3 12 7 10 9 48 2 3 25 11 16 6 8 8 10 33 31 29 3 40 8 51 12 4 43 -1 16 2 8 13 0 6 18 18 8 10 10 6 20 7 6 5 4 21 7 9 10 24 5 -1 29 3 6 6 20 6 2 8 3 7 8 10 20 7 2 15 9 5 9 20 24 22 11 2 3 12 3 19 9 17 8 3 6 5 1 4 3 27 3 6 7 5 22 37 24 40 11 5 5 7 9 6 12 3 15 -2 -2 25 6 8 6 21 4 1 9 2 25 31 19 7 8 20 9 8 8 12 56 5 12 12 21 17 13 31 3 11 -1 4 35 10 -5 16 54 9 9 4 30 7 8 1 8 9 3 10 5 3 9 7 5 0 18 10 -5 5 2 15 9 34 7 3 28 14 13 16 2 11 7 7 8 9 16 14 2 7 19 7 2 5 7 13 10 6 4 6 4 19 19 6 4 -1 12 14 11 17 12 7 5 5 10 5 13 8 6 16 14 16 12 6 7 3 12 9 12 15 8 5 16 18 6 4 0 15 10 20 -5 5 7 13 12 12 18 6 3 28</t>
-  </si>
-  <si>
-    <t>1 0 5 5 9 4 5 4 6 3 13 6 2 7 13 3 -1 2 9 0 1 3 2 15 3 3 3 11 8 8 10 0 4 13 21 2 3 0 1 5 2 5 5 3 8 3 4 0 2 3 -1 2 9 3 5 13 6 5 4 17 5 8 13 3 -1 1 7 38 6 4 5 48 -1 0 2 2 21 3 14 2 -3 3 10 -3 11 3 6 4 4 4 4 0 3 -3 1 2 2 -5 3 2 -2 11 8 5 6 6 3 3 5 10 8 5 1 4 6 2 -1 2 3 0 1 5 3 -1 0 -1 13 8 9 -1 1 3 1 24 3 -1 6 6 -3 -3 2 3 1 2 1 -1 7 10 11 0 4 3 6 2 18 -2 0 3 6 2 6 4 13 2 1 8 11 2 8 4 5 4 -1 3 2 4 14 6 3 3 1 3 1 4 4 2 1 1 5 0 9 6 0 9 5 4 2 0 3 8 1 6 -4 3 6 7 2 0 -3 4 11 9 2 4 5 3 8 6 10 4 3 5 11 3 2 9 2 3 0 -2 14 -4 -5 7 2 3 6 5 3 1 0 5 3 4 -1 3 7 2 3 -4 4 7 0 1 11 2 5 24 3 8 3 4 22 -2 4 2 2 9 1 9 0 0 0 2 25 7 1 6 14 5 7 12 0 5 12 18 6 17 16 5 7 4 4 5 2 2 1 1 3 1 1 3 13 13 -2 18 -3 -1 13 2 1 1 -2 4 2 15 11 3 1 62 0 1 3 31 3 5 3 1 1 12 3 0 -1 4 -4 1 3 9 2 5 4 1 2 3 0 -4 5 5 1 1 27 12 6 2 3 5 0 0 1 -4 5 0 14 8 3 -1 8 8 9 -1 -1 24 1 2 1 7 8 2 4 5 0 7 5 3 5 5 0 20 1 -1 6 2 1 -2 5 0 4 0 3 0 1 4 5 2 1 -1 2 10 2 0 7 15 3 7 3 18 2 2 3 -3 0 4 1 16 3 2 4 11 6 -1 15 11 4 2 2 5 5 8 1 0 28 2 4 2 3 2 -1 14 -2 1 1 14 -3 2 3 1 4 0 3 6 5 2 2 3 24 4 1 6 0 1 14 10 1 3 5 3 19 4 4 0 -1 0 1 15 7 -1 18 -1 0 3 5 21 5 3 -3 8 2 11 6 4 8 0 2 2 4 1 7 6 9 1 6 11 20 4 3 -2 6 1 1 3 0 5 11 14 0 0 6 8 9 3 3 9 7 0 4 8 8 1 0 0 6 2 0 7 1 6 6 5 0 1 0 1 1 10 1 9 3 11 3 4 0 3 0 5 8 4 0 30 4 2 4 4 1 1 0 6 3 5 9 7 1 5 7 5 2 7 1 4 3 4 22 5 8 5 0 6 0 0 6 4 1 16 4 2 1 5 6 4 16 5 5 6 2 -2 2 6 1 6 20 5 2 3 5 2 0 5 7 5 2 3 8 -3 4 11 12 2 5 0 5 1 3 21 1 3 2 0 6 -1 5 3 2 6 -1 4 4 4 3 2 6 4 14 4 5 1 3 -2 -3 1 -2 10 -1 11 2 5 4 8 -2 18 5 2 6 4 -5 2 1 19 4 0 1 3 7 20 1 0 1 4 2 5 8 1 3 5 2 1 4 3 2 3 8 3 1 12 -5 1 1 22 1 3 1 16 2 6 2 2 4 1 9 5 -4 -3 13 4 1 0 -6 7 2 3 8 1 6 0 4 3 2 1 2 7 5 7 0 3 1 0 0 1 4 9 6 4 2 10 4 2 -2 2 4 2 5 2 4 -7 -2 8 1 4 4 -1 2 4 24 2 4 1 1 6 4 3 12 2 6 2 5 0 4 5 1 1 1 3 1 3 -4 1 -3 1 3 0 -4 5</t>
-  </si>
-  <si>
-    <t>10 2 16 5 9 16 4 11 7 5 11 11 11 0 5 18 6 1 11 16 75 19 18 7 29 16 10 25 17 6 8 20 16 4 15 9 8 5 9 3 6 9 17 12 18 8 7 15 3 3 14 15 0 9 23 5 7 11 6 15 6 8 -1 27 11 2 21 15 6 26 7 10 18 6 11 7 9 1 5 8 12 5 7 12 14 14 49 9 14 9 12 26 32 4 13 5 16 37 8 4 23 15 23 6 16 2 42 4 3 -1 15 7 3 6 22 12 8 8 6 11 16 26 5 5 2 16 11 7 33 6 35 3 8 10 2 4 13 15 6 12 4 23 22 1 6 5 19 5 3 6 9 19 1 14 10 25 16 3 11 17 13 4 9 10 21 16 27 5 5 50 10 7 23 12 4 5 4 8 5 11 5 5 4 16 1 9 14 17 0 11 26 27 1 9 27 14 6 6 7 11 13 8 4 9 14 16 8 10 14 6 8 4 3 17 21 11 8 3 19 11 6 3 9 8 11 12 13 3 5 15 6 19 9 10 9 16 15 3 22 11 16 0 11 12 6 17 12 14 2 8 8 10 14 6 12 11 3 7 4 -3 22 11 17 3 16 13 6 23 25 8 3 10 11 18 20 3 4 4 19 17 7 28 23 41 -5 9 7 27 6 9 14 4 7 8 14 18 8 17 10 5 17 3 12 15 7 11 -2 25 26 9 15 14 10 19 53 1 1 13 5 5 6 2 3 5 4 5 6 14 5 8 10 1 4 13 8 17 31 7 9 59 34 7 17 14 17 29 1 16 8 4 1 9 9 9 1 2 11 12 4 20 7 13 10 1 92 25 2 8 0 21 6 6 29 29 10 13 4 10 6 4 13 6 49 9 10 6 5 2 2 9 7 9 17 6 13 5 41 5 14 3 8 16 52 25 4 5 9 5 4 12 0 11 8 5 -1 12 8 4 10 9 7 4 13 4 4 2 7 8 9 2 2 3 5 9 6 7 4 10 3 7 1 5 4 22 7 7 4 3 5 5 11 34 0 10 2 9 4 7 13 9 14 9 15 4 4 18 7 2 2 15 8 12 8 9 7 13 14 7 14 23 5 1 3 6 11 7 5 7 10 14 3 14 11 6 10 5 7 26 13 12 12 12 26 6 18 16 6 4 4 1 6 24 13 8 -3 20 27 25 15 20 7 5 6 17 10 8 7 6 9 5 30 6 12 7 -7 14 3 14 2 9 1 -1 6 6 7 5 11 22 19 8 8 7 13 12 -1 16 27 3 1 0 9 7 11 7 13 17 2 10 16 32 3 7 3 38 8 30 22 3 6 3 2 7 14 9 14 3 7 6 4 17 7 3 7 9 9 12 6 1 6 15 17 10 10 9 4 51 5 13 5 7 7 15 7 41 12 7 6 5 4 32 32 11 5 3 17 10 2 2 4 23 -1 13 6 7 4 7 6 5 6 5 6 0 10 35 10 3 4 10 9 10 12 6 6 44 23 10 19 19 28 7 9 3 1 7 38 15 5 -3 2 8 16 1 5 10 6 6 2 4 3 4 4 9 13 6 6 13 5 25 11 3 6 5 2 7 1 40 4 14 6 8 20 5 13 4 8</t>
+    <t>5 1 7 1 5 1 4 4 7 14 5 -1 7 12 15 2 -4 7 2 7 9 4 -2 0 2 3 6 1 2 5 1 6 8 4 0 3 -2 1 7 -2 -4 3 5 3 6 0 0 6 6 -5 14 0 0 3 1 13 0 20 12 2 3 -3 0 3 12 6 7 6 6 5 -1 2 23 13 3 1 2 4 4 3 2 -1 9 3 14 3 2 8 6 -3 -1 10 7 1 -2 1 -2 11 16 10 3 2 5 1 1 3 6 7 3 6 1 2 7 2 2 43 1 3 4 4 2 0 4 2 2 0 7 7 2 4 7 2 5 3 0 5 4 -1 2 1 10 0 4 1 2 2 9 10 2 4 0 9 2 1 6 6 5 0 4 9 11 -2 7 8 2 7 1 4 7 4 6 5 1 8 3 1 11 3 5 2 1 3 14 6 7 1 5 4 18 1 0 0 2 16 5 2 3 3 10 4 23 15 2 0 10 7 4 5 14 10 0 6 0 12 2 7 6 9 6 2 3 0 0 3 2 3 9 11 4 3 1 1 9 3 5 0 24 2 3 13 6 3 -5 11 2 1 9 9 2 5 1 1 4 5 7 3 1 8 2 9 2 23 1 4 13 2 2 2 5 6 5 3 0 2 5 2 2 11 1 0 4 2 5 12 4 0 -3 0 5 0 1 1 4 -2 16 0 0 4 2 9 2 4 1 1 5 3 1 -3 14 3 3 6 3 4 1 3 2 2 3 2 3 0 2 4 3 2 7 12 6 3 -3 3 -3 0 2 1 6 5 2 3 2 0 18 6 4 -2 5 1 20 3 3 0 2 3 11 0 -5 6 26 6 3 -1 4 1 8 0 4 7 -3 7 2 0 1 2 0 2 7 13 2 17 3 2 12 1 -2 3 13 2 1 7 0 15 10 18 3 1 9 0 1 3 3 2 7 2 2 5 1 3 0 2 1 5 6 2 2 18 2 3 16 2 4 3 28 5 3 1 31 -1 2 8 0 13 0 0 0 2 2 2 4 1 15 3 -2 6 0 1 2 4 1 0 4 5 -2 2 1 -2 4 -2 1 1 -4 11 5 2 -4 3 13 1 3 1 3 2 3 5 3 0 4 2 6 4 2 5 2 14 7 4 1 19 3 2 0 1 4 -2 1 6 0 1 27 8 1 4 2 1 5 3 -1 5 4 0 2 2 10 1 2 0 6 2 1 3 0 3 11 3 8 6 5 0 5 -1 5 5 4 2 7 1 1 0 1 1 8 1 4 6 2 6 4 3 9 3 6 18 6 2 0 1 3 1 5 3 1 3 0 1 5 1 2 3 12 9 4 3 9 4 8 -3 6 11 11 4 1 5 1 2 7 7 5 1 3 1 1 11 6 13 3 0 13 3 7 2 1 14 4 1 0 3 4 21 2 3 3 5 3 3 1 -1 12 2 -1 9 2 1 3 8 3 6 4 5 1 7 4 1 4 3 2 4 5 0 18 -4 7 2 3 2 2 4 1 3 0 9 4 1 2 3 0 10 5 5 4 -4 6 6 3 22 2 4 4 4 2 4 5 21 -1 0 4 4 3 7 1 3 0 17 7 3 15 -1 6 2 1 1 10 1 -3 5 1 4 3 4 1 5 3 2 -2 1 3 19 7 6 3 3 6 3 5 8 6 3 3 0 1 6 2 9 4 1 -3 3 3 7 4 6 5 3 3 -2 0 -4 8 7 3 8 19 4 8 5 5 4 8 -4 3 0 4 4 4 10 6 0 4 13 3 5 6 2 6 4 6 9 2 9 0 0 2 -4 1 -1 3 5 4 4 8 3 2 1 1 2 5 2</t>
+  </si>
+  <si>
+    <t>7 8 45 8 6 10 11 3 2 4 6 8 23 9 -1 15 29 0 18 6 14 8 9 22 9 3 6 9 13 13 3 19 15 20 15 5 4 2 12 4 10 31 6 6 6 8 18 2 17 18 22 14 6 14 6 6 1 4 34 0 3 24 11 13 5 2 7 10 8 12 1 7 13 9 -1 16 12 9 8 14 12 22 0 11 7 15 5 11 3 10 17 6 7 14 12 9 4 4 5 9 37 15 6 8 4 9 46 12 5 59 23 5 72 3 8 10 1 4 2 4 23 7 2 28 14 20 5 7 29 9 6 11 21 6 9 15 6 11 2 44 1 11 3 10 6 3 7 2 7 13 4 17 8 4 12 1 9 6 11 6 4 7 6 0 19 8 4 7 45 53 2 3 10 3 5 25 9 2 3 8 8 1 16 8 24 0 5 21 13 5 6 26 29 16 7 11 17 18 14 11 11 4 1 18 16 7 9 3 21 3 20 5 7 1 2 2 9 7 -1 16 7 11 2 3 1 13 11 15 19 11 12 11 15 -1 19 4 9 12 2 18 12 9 3 28 28 9 6 4 17 13 14 4 38 18 8 19 9 3 1 12 6 7 29 5 15 46 6 4 47 7 36 8 21 3 7 6 29 10 15 29 6 14 5 8 9 0 5 0 11 9 3 8 13 4 7 3 4 8 6 17 30 22 13 35 6 4 25 10 7 15 14 15 25 9 9 6 -1 16 11 4 29 2 19 12 19 9 9 13 22 11 33 10 3 22 4 85 4 9 57 5 9 8 28 18 12 5 15 15 26 5 14 7 25 6 15 2 14 37 10 21 8 9 13 6 5 6 12 9 24 8 15 13 7 4 12 16 2 3 4 21 4 5 16 9 7 9 37 10 10 20 18 11 27 32 31 9 3 11 10 17 13 10 25 6 4 3 8 9 14 18 9 23 30 9 13 2 13 16 7 4 10 61 25 24 7 23 6 10 25 8 18 8 5 23 12 21 1 4 15 10 12 23 7 23 16 3 16 32 34 4 3 12 5 21 7 0 15 8 8 5 10 9 18 3 51 5 5 4 3 12 8 29 9 29 4 4 9 6 17 5 6 18 3 2 4 6 3 12 7 10 9 48 2 3 25 11 16 6 8 8 10 33 31 29 3 40 8 51 12 4 43 -1 16 2 8 13 0 6 18 18 8 10 10 6 20 7 6 5 4 21 7 9 10 24 5 -1 29 3 6 6 20 6 2 8 3 7 8 10 20 7 2 15 9 5 9 20 24 22 11 2 3 12 3 19 9 17 8 3 6 5 1 4 3 27 3 6 7 5 22 37 24 40 11 5 5 7 9 6 12 3 15 -2 -2 25 6 8 6 21 4 1 9 2 25 31 19 7 8 20 9 8 8 12 56 5 12 12 21 17 13 31 3 11 -1 4 35 10 -5 16 54 9 9 4 30 7 8 1 8 9 3 10 5 3 9 7 5 0 18 10 -5 5 2 15 9 34 7 3 28 14 13 16 2 11 7 7 8 9 16 14 2 7 19 7 2 5 7 13 10 6 4 6 4 19 19 6 4 -1 12 14 11 17 12 7 5 5 10 5 13 8 6 16 14 16 12 6 7 3 12 9 12 15 8 5 16 18 6 4 0 15 10 20 -5 5 7 13 12 12 18 6 3 28 14 5 7 3 11 -2 11 4 26 12 5 4 5 19 13 7 42 2 5 9 4 14 24</t>
+  </si>
+  <si>
+    <t>1 0 5 5 9 4 5 4 6 3 13 6 2 7 13 3 -1 2 9 0 1 3 2 15 3 3 3 11 8 8 10 0 4 13 21 2 3 0 1 5 2 5 5 3 8 3 4 0 2 3 -1 2 9 3 5 13 6 5 4 17 5 8 13 3 -1 1 7 38 6 4 5 48 -1 0 2 2 21 3 14 2 -3 3 10 -3 11 3 6 4 4 4 4 0 3 -3 1 2 2 -5 3 2 -2 11 8 5 6 6 3 3 5 10 8 5 1 4 6 2 -1 2 3 0 1 5 3 -1 0 -1 13 8 9 -1 1 3 1 24 3 -1 6 6 -3 -3 2 3 1 2 1 -1 7 10 11 0 4 3 6 2 18 -2 0 3 6 2 6 4 13 2 1 8 11 2 8 4 5 4 -1 3 2 4 14 6 3 3 1 3 1 4 4 2 1 1 5 0 9 6 0 9 5 4 2 0 3 8 1 6 -4 3 6 7 2 0 -3 4 11 9 2 4 5 3 8 6 10 4 3 5 11 3 2 9 2 3 0 -2 14 -4 -5 7 2 3 6 5 3 1 0 5 3 4 -1 3 7 2 3 -4 4 7 0 1 11 2 5 24 3 8 3 4 22 -2 4 2 2 9 1 9 0 0 0 2 25 7 1 6 14 5 7 12 0 5 12 18 6 17 16 5 7 4 4 5 2 2 1 1 3 1 1 3 13 13 -2 18 -3 -1 13 2 1 1 -2 4 2 15 11 3 1 62 0 1 3 31 3 5 3 1 1 12 3 0 -1 4 -4 1 3 9 2 5 4 1 2 3 0 -4 5 5 1 1 27 12 6 2 3 5 0 0 1 -4 5 0 14 8 3 -1 8 8 9 -1 -1 24 1 2 1 7 8 2 4 5 0 7 5 3 5 5 0 20 1 -1 6 2 1 -2 5 0 4 0 3 0 1 4 5 2 1 -1 2 10 2 0 7 15 3 7 3 18 2 2 3 -3 0 4 1 16 3 2 4 11 6 -1 15 11 4 2 2 5 5 8 1 0 28 2 4 2 3 2 -1 14 -2 1 1 14 -3 2 3 1 4 0 3 6 5 2 2 3 24 4 1 6 0 1 14 10 1 3 5 3 19 4 4 0 -1 0 1 15 7 -1 18 -1 0 3 5 21 5 3 -3 8 2 11 6 4 8 0 2 2 4 1 7 6 9 1 6 11 20 4 3 -2 6 1 1 3 0 5 11 14 0 0 6 8 9 3 3 9 7 0 4 8 8 1 0 0 6 2 0 7 1 6 6 5 0 1 0 1 1 10 1 9 3 11 3 4 0 3 0 5 8 4 0 30 4 2 4 4 1 1 0 6 3 5 9 7 1 5 7 5 2 7 1 4 3 4 22 5 8 5 0 6 0 0 6 4 1 16 4 2 1 5 6 4 16 5 5 6 2 -2 2 6 1 6 20 5 2 3 5 2 0 5 7 5 2 3 8 -3 4 11 12 2 5 0 5 1 3 21 1 3 2 0 6 -1 5 3 2 6 -1 4 4 4 3 2 6 4 14 4 5 1 3 -2 -3 1 -2 10 -1 11 2 5 4 8 -2 18 5 2 6 4 -5 2 1 19 4 0 1 3 7 20 1 0 1 4 2 5 8 1 3 5 2 1 4 3 2 3 8 3 1 12 -5 1 1 22 1 3 1 16 2 6 2 2 4 1 9 5 -4 -3 13 4 1 0 -6 7 2 3 8 1 6 0 4 3 2 1 2 7 5 7 0 3 1 0 0 1 4 9 6 4 2 10 4 2 -2 2 4 2 5 2 4 -7 -2 8 1 4 4 -1 2 4 24 2 4 1 1 6 4 3 12 2 6 2 5 0 4 5 1 1 1 3 1 3 -4 1 -3 1 3 0 -4 5 3 -3 4 6 4 18 24 3 0 1 1 14 2 0 4 9 -1 2 8 5 7 1 4 3 1</t>
+  </si>
+  <si>
+    <t>10 2 16 5 9 16 4 11 7 5 11 11 11 0 5 18 6 1 11 16 75 19 18 7 29 16 10 25 17 6 8 20 16 4 15 9 8 5 9 3 6 9 17 12 18 8 7 15 3 3 14 15 0 9 23 5 7 11 6 15 6 8 -1 27 11 2 21 15 6 26 7 10 18 6 11 7 9 1 5 8 12 5 7 12 14 14 49 9 14 9 12 26 32 4 13 5 16 37 8 4 23 15 23 6 16 2 42 4 3 -1 15 7 3 6 22 12 8 8 6 11 16 26 5 5 2 16 11 7 33 6 35 3 8 10 2 4 13 15 6 12 4 23 22 1 6 5 19 5 3 6 9 19 1 14 10 25 16 3 11 17 13 4 9 10 21 16 27 5 5 50 10 7 23 12 4 5 4 8 5 11 5 5 4 16 1 9 14 17 0 11 26 27 1 9 27 14 6 6 7 11 13 8 4 9 14 16 8 10 14 6 8 4 3 17 21 11 8 3 19 11 6 3 9 8 11 12 13 3 5 15 6 19 9 10 9 16 15 3 22 11 16 0 11 12 6 17 12 14 2 8 8 10 14 6 12 11 3 7 4 -3 22 11 17 3 16 13 6 23 25 8 3 10 11 18 20 3 4 4 19 17 7 28 23 41 -5 9 7 27 6 9 14 4 7 8 14 18 8 17 10 5 17 3 12 15 7 11 -2 25 26 9 15 14 10 19 53 1 1 13 5 5 6 2 3 5 4 5 6 14 5 8 10 1 4 13 8 17 31 7 9 59 34 7 17 14 17 29 1 16 8 4 1 9 9 9 1 2 11 12 4 20 7 13 10 1 92 25 2 8 0 21 6 6 29 29 10 13 4 10 6 4 13 6 49 9 10 6 5 2 2 9 7 9 17 6 13 5 41 5 14 3 8 16 52 25 4 5 9 5 4 12 0 11 8 5 -1 12 8 4 10 9 7 4 13 4 4 2 7 8 9 2 2 3 5 9 6 7 4 10 3 7 1 5 4 22 7 7 4 3 5 5 11 34 0 10 2 9 4 7 13 9 14 9 15 4 4 18 7 2 2 15 8 12 8 9 7 13 14 7 14 23 5 1 3 6 11 7 5 7 10 14 3 14 11 6 10 5 7 26 13 12 12 12 26 6 18 16 6 4 4 1 6 24 13 8 -3 20 27 25 15 20 7 5 6 17 10 8 7 6 9 5 30 6 12 7 -7 14 3 14 2 9 1 -1 6 6 7 5 11 22 19 8 8 7 13 12 -1 16 27 3 1 0 9 7 11 7 13 17 2 10 16 32 3 7 3 38 8 30 22 3 6 3 2 7 14 9 14 3 7 6 4 17 7 3 7 9 9 12 6 1 6 15 17 10 10 9 4 51 5 13 5 7 7 15 7 41 12 7 6 5 4 32 32 11 5 3 17 10 2 2 4 23 -1 13 6 7 4 7 6 5 6 5 6 0 10 35 10 3 4 10 9 10 12 6 6 44 23 10 19 19 28 7 9 3 1 7 38 15 5 -3 2 8 16 1 5 10 6 6 2 4 3 4 4 9 13 6 6 13 5 25 11 3 6 5 2 7 1 40 4 14 6 8 20 5 13 4 8 8 5 17 7 6 8 4 12 7 45 5 3 12 6 0 3</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>66 63 65 62 70 67 68 65 60 62 57 74 66 58 66 41 66 63 65 67 61 67 68 57 64 67 15 66 64 60 58 65 61 61 69 66 56 62 61 61 69 63 62 65 60 66 58 65 58 65 63 61 62 59 67 65 63 66 62 58</t>
-  </si>
-  <si>
-    <t>38 21 24 27 29 35 17 22 23 21 15 28 34 33 32 10 28 3 26 28 21 29 27 22 25 33 0 28 31 21 18 16 28 18 28 18 15 24 11 24 32 13 13 18 12 23 26 23 18 18 20 14 25 32 18 0 11 24 24 18</t>
-  </si>
-  <si>
-    <t>30 16 22 12 12 35 19 19 18 9 11 22 32 44 14 21 0 21 33 32 24 13 20 22 15 25 15 31 22 15 15 20 14 26 32 22 20 23 19 18 19 12 25 15 19 24 28 16 29 14 23 23</t>
-  </si>
-  <si>
-    <t>52 51 24 42 36 46 44 46 57 47 59 48 43 30 56 45 39 24 61 38 39 36 31 42 46 47 63 45 42 31 47 51 47 56 19 58 27 48 35 56 38 46 35 63 67 64 37 55 40 50 45 55 49 45 67 54 45 49 56 52 68 39 70 47 66 71 54 37 59 35 42 58 40 61 42 44 63 37 47 54 48 68 32 53 36 54 42 67 38 55 44 60 46 42 49 41 45 38 47</t>
-  </si>
-  <si>
-    <t>19 10 0 0 0 11 0 0 38 11 0 0 0 0 0 0 0 0 0 0 0 0 0 -2 0 0 0 0 4 0 0 0 2 10 0 7 0 0 0 13 0 0 0 22 15 30 0 15 0 0 15 8 0 7 12 11 0 0 9 0 17 0 21 0 0 0 0 0 6 0 12 14 0 37 0 9 0 0 0 0 15 2 0 0 0 14 0 16 0 13 0 0 11 20 0 0 0 0 0</t>
-  </si>
-  <si>
-    <t>27 10 5 0 0 0 0 0 0 24 0 0 0 0 0 0 0 0 0 13 0 0 13 12 29 0 16 8 3 6 0 0 12 0 11 0 11 0 16 32 -3 13 9 19 21 0 0 0 3 0 0 7 0 10 0 16 7 0 2 0 0 17 0 5 6 0 0 0 0 9 0 5 0 0 0 0 15 0 0 5 0 12 11 21 0 0 0 0 9 7 6 0 0 0 6 29 0 0 0 2 0 0 6 0 0</t>
+    <t>66 63 65 62 70 67 68 65 60 62 57 74 66 58 66 41 66 63 65 67 61 67 68 57 64 67 15 66 64 60 58 65 61 61 69 66 56 62 61 61 69 63 62 65 60 66 58 65 58 65 63 61 62 59 67 65 63 66 62 58 58 57</t>
+  </si>
+  <si>
+    <t>38 21 24 27 29 35 17 22 23 21 15 28 34 33 32 10 28 3 26 28 21 29 27 22 25 33 0 28 31 21 18 16 28 18 28 18 15 24 11 24 32 13 13 18 12 23 26 23 18 18 20 14 25 32 18 0 11 24 24 18 20 0</t>
+  </si>
+  <si>
+    <t>30 16 22 12 12 35 19 19 18 9 11 22 32 44 14 21 0 21 33 32 24 13 20 22 15 25 15 31 22 15 15 20 14 26 32 22 20 23 19 18 19 12 25 15 19 24 28 16 29 14 23 23 34 9</t>
+  </si>
+  <si>
+    <t>52 51 24 42 36 46 44 46 57 47 59 48 43 30 56 45 39 24 61 38 39 36 31 42 46 47 63 45 42 31 47 51 47 56 19 58 27 48 35 56 38 46 35 63 67 64 37 55 40 50 45 55 49 45 67 54 45 49 56 52 68 39 70 47 66 71 54 37 59 35 42 58 40 61 42 44 63 37 47 54 48 68 32 53 36 54 42 67 38 55 44 60 46 42 49 41 45 38 47 44 60</t>
+  </si>
+  <si>
+    <t>19 10 0 0 0 11 0 0 38 11 0 0 0 0 0 0 0 0 0 0 0 0 0 -2 0 0 0 0 4 0 0 0 2 10 0 7 0 0 0 13 0 0 0 22 15 30 0 15 0 0 15 8 0 7 12 11 0 0 9 0 17 0 21 0 0 0 0 0 6 0 12 14 0 37 0 9 0 0 0 0 15 2 0 0 0 14 0 16 0 13 0 0 11 20 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t>27 10 5 0 0 0 0 0 0 24 0 0 0 0 0 0 0 0 0 13 0 0 13 12 29 0 16 8 3 6 0 0 12 0 11 0 11 0 16 32 -3 13 9 19 21 0 0 0 3 0 0 7 0 10 0 16 7 0 2 0 0 17 0 5 6 0 0 0 0 9 0 5 0 0 0 0 15 0 0 5 0 12 11 21 0 0 0 0 9 7 6 0 0 0 6 29 0 0 0 2 0 0 6 0 0 7 41 0 0 16</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,19 +668,19 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="D2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H2">
         <v>7</v>
@@ -689,7 +689,7 @@
         <v>15</v>
       </c>
       <c r="J2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,13 +701,13 @@
         <v>402</v>
       </c>
       <c r="N2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Q2">
         <v>1027</v>
@@ -718,40 +718,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="D3">
         <v>6</v>
       </c>
       <c r="E3">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F3">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="G3">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H3">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I3">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="J3">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>505</v>
+        <v>537</v>
       </c>
       <c r="M3">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="N3">
         <v>29</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>909</v>
+        <v>972</v>
       </c>
     </row>
   </sheetData>
@@ -943,19 +943,19 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>16</v>
       </c>
       <c r="F2">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="G2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H2">
         <v>8</v>
@@ -964,7 +964,7 @@
         <v>11</v>
       </c>
       <c r="J2">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,13 +976,13 @@
         <v>383</v>
       </c>
       <c r="N2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q2">
         <v>1020</v>
@@ -996,37 +996,37 @@
         <v>19</v>
       </c>
       <c r="C3">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F3">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G3">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I3">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="J3">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>529</v>
+        <v>556</v>
       </c>
       <c r="M3">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="N3">
         <v>22</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>974</v>
+        <v>1032</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -1239,16 +1239,16 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N2">
         <v>15</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,16 +1362,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>9</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1403,13 +1403,13 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Raiders/Team Data.xlsx
+++ b/Base/Teams/Raiders/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>5 1 7 1 5 1 4 4 7 14 5 -1 7 12 15 2 -4 7 2 7 9 4 -2 0 2 3 6 1 2 5 1 6 8 4 0 3 -2 1 7 -2 -4 3 5 3 6 0 0 6 6 -5 14 0 0 3 1 13 0 20 12 2 3 -3 0 3 12 6 7 6 6 5 -1 2 23 13 3 1 2 4 4 3 2 -1 9 3 14 3 2 8 6 -3 -1 10 7 1 -2 1 -2 11 16 10 3 2 5 1 1 3 6 7 3 6 1 2 7 2 2 43 1 3 4 4 2 0 4 2 2 0 7 7 2 4 7 2 5 3 0 5 4 -1 2 1 10 0 4 1 2 2 9 10 2 4 0 9 2 1 6 6 5 0 4 9 11 -2 7 8 2 7 1 4 7 4 6 5 1 8 3 1 11 3 5 2 1 3 14 6 7 1 5 4 18 1 0 0 2 16 5 2 3 3 10 4 23 15 2 0 10 7 4 5 14 10 0 6 0 12 2 7 6 9 6 2 3 0 0 3 2 3 9 11 4 3 1 1 9 3 5 0 24 2 3 13 6 3 -5 11 2 1 9 9 2 5 1 1 4 5 7 3 1 8 2 9 2 23 1 4 13 2 2 2 5 6 5 3 0 2 5 2 2 11 1 0 4 2 5 12 4 0 -3 0 5 0 1 1 4 -2 16 0 0 4 2 9 2 4 1 1 5 3 1 -3 14 3 3 6 3 4 1 3 2 2 3 2 3 0 2 4 3 2 7 12 6 3 -3 3 -3 0 2 1 6 5 2 3 2 0 18 6 4 -2 5 1 20 3 3 0 2 3 11 0 -5 6 26 6 3 -1 4 1 8 0 4 7 -3 7 2 0 1 2 0 2 7 13 2 17 3 2 12 1 -2 3 13 2 1 7 0 15 10 18 3 1 9 0 1 3 3 2 7 2 2 5 1 3 0 2 1 5 6 2 2 18 2 3 16 2 4 3 28 5 3 1 31 -1 2 8 0 13 0 0 0 2 2 2 4 1 15 3 -2 6 0 1 2 4 1 0 4 5 -2 2 1 -2 4 -2 1 1 -4 11 5 2 -4 3 13 1 3 1 3 2 3 5 3 0 4 2 6 4 2 5 2 14 7 4 1 19 3 2 0 1 4 -2 1 6 0 1 27 8 1 4 2 1 5 3 -1 5 4 0 2 2 10 1 2 0 6 2 1 3 0 3 11 3 8 6 5 0 5 -1 5 5 4 2 7 1 1 0 1 1 8 1 4 6 2 6 4 3 9 3 6 18 6 2 0 1 3 1 5 3 1 3 0 1 5 1 2 3 12 9 4 3 9 4 8 -3 6 11 11 4 1 5 1 2 7 7 5 1 3 1 1 11 6 13 3 0 13 3 7 2 1 14 4 1 0 3 4 21 2 3 3 5 3 3 1 -1 12 2 -1 9 2 1 3 8 3 6 4 5 1 7 4 1 4 3 2 4 5 0 18 -4 7 2 3 2 2 4 1 3 0 9 4 1 2 3 0 10 5 5 4 -4 6 6 3 22 2 4 4 4 2 4 5 21 -1 0 4 4 3 7 1 3 0 17 7 3 15 -1 6 2 1 1 10 1 -3 5 1 4 3 4 1 5 3 2 -2 1 3 19 7 6 3 3 6 3 5 8 6 3 3 0 1 6 2 9 4 1 -3 3 3 7 4 6 5 3 3 -2 0 -4 8 7 3 8 19 4 8 5 5 4 8 -4 3 0 4 4 4 10 6 0 4 13 3 5 6 2 6 4 6 9 2 9 0 0 2 -4 1 -1 3 5 4 4 8 3 2 1 1 2 5 2</t>
-  </si>
-  <si>
-    <t>7 8 45 8 6 10 11 3 2 4 6 8 23 9 -1 15 29 0 18 6 14 8 9 22 9 3 6 9 13 13 3 19 15 20 15 5 4 2 12 4 10 31 6 6 6 8 18 2 17 18 22 14 6 14 6 6 1 4 34 0 3 24 11 13 5 2 7 10 8 12 1 7 13 9 -1 16 12 9 8 14 12 22 0 11 7 15 5 11 3 10 17 6 7 14 12 9 4 4 5 9 37 15 6 8 4 9 46 12 5 59 23 5 72 3 8 10 1 4 2 4 23 7 2 28 14 20 5 7 29 9 6 11 21 6 9 15 6 11 2 44 1 11 3 10 6 3 7 2 7 13 4 17 8 4 12 1 9 6 11 6 4 7 6 0 19 8 4 7 45 53 2 3 10 3 5 25 9 2 3 8 8 1 16 8 24 0 5 21 13 5 6 26 29 16 7 11 17 18 14 11 11 4 1 18 16 7 9 3 21 3 20 5 7 1 2 2 9 7 -1 16 7 11 2 3 1 13 11 15 19 11 12 11 15 -1 19 4 9 12 2 18 12 9 3 28 28 9 6 4 17 13 14 4 38 18 8 19 9 3 1 12 6 7 29 5 15 46 6 4 47 7 36 8 21 3 7 6 29 10 15 29 6 14 5 8 9 0 5 0 11 9 3 8 13 4 7 3 4 8 6 17 30 22 13 35 6 4 25 10 7 15 14 15 25 9 9 6 -1 16 11 4 29 2 19 12 19 9 9 13 22 11 33 10 3 22 4 85 4 9 57 5 9 8 28 18 12 5 15 15 26 5 14 7 25 6 15 2 14 37 10 21 8 9 13 6 5 6 12 9 24 8 15 13 7 4 12 16 2 3 4 21 4 5 16 9 7 9 37 10 10 20 18 11 27 32 31 9 3 11 10 17 13 10 25 6 4 3 8 9 14 18 9 23 30 9 13 2 13 16 7 4 10 61 25 24 7 23 6 10 25 8 18 8 5 23 12 21 1 4 15 10 12 23 7 23 16 3 16 32 34 4 3 12 5 21 7 0 15 8 8 5 10 9 18 3 51 5 5 4 3 12 8 29 9 29 4 4 9 6 17 5 6 18 3 2 4 6 3 12 7 10 9 48 2 3 25 11 16 6 8 8 10 33 31 29 3 40 8 51 12 4 43 -1 16 2 8 13 0 6 18 18 8 10 10 6 20 7 6 5 4 21 7 9 10 24 5 -1 29 3 6 6 20 6 2 8 3 7 8 10 20 7 2 15 9 5 9 20 24 22 11 2 3 12 3 19 9 17 8 3 6 5 1 4 3 27 3 6 7 5 22 37 24 40 11 5 5 7 9 6 12 3 15 -2 -2 25 6 8 6 21 4 1 9 2 25 31 19 7 8 20 9 8 8 12 56 5 12 12 21 17 13 31 3 11 -1 4 35 10 -5 16 54 9 9 4 30 7 8 1 8 9 3 10 5 3 9 7 5 0 18 10 -5 5 2 15 9 34 7 3 28 14 13 16 2 11 7 7 8 9 16 14 2 7 19 7 2 5 7 13 10 6 4 6 4 19 19 6 4 -1 12 14 11 17 12 7 5 5 10 5 13 8 6 16 14 16 12 6 7 3 12 9 12 15 8 5 16 18 6 4 0 15 10 20 -5 5 7 13 12 12 18 6 3 28 14 5 7 3 11 -2 11 4 26 12 5 4 5 19 13 7 42 2 5 9 4 14 24</t>
-  </si>
-  <si>
-    <t>1 0 5 5 9 4 5 4 6 3 13 6 2 7 13 3 -1 2 9 0 1 3 2 15 3 3 3 11 8 8 10 0 4 13 21 2 3 0 1 5 2 5 5 3 8 3 4 0 2 3 -1 2 9 3 5 13 6 5 4 17 5 8 13 3 -1 1 7 38 6 4 5 48 -1 0 2 2 21 3 14 2 -3 3 10 -3 11 3 6 4 4 4 4 0 3 -3 1 2 2 -5 3 2 -2 11 8 5 6 6 3 3 5 10 8 5 1 4 6 2 -1 2 3 0 1 5 3 -1 0 -1 13 8 9 -1 1 3 1 24 3 -1 6 6 -3 -3 2 3 1 2 1 -1 7 10 11 0 4 3 6 2 18 -2 0 3 6 2 6 4 13 2 1 8 11 2 8 4 5 4 -1 3 2 4 14 6 3 3 1 3 1 4 4 2 1 1 5 0 9 6 0 9 5 4 2 0 3 8 1 6 -4 3 6 7 2 0 -3 4 11 9 2 4 5 3 8 6 10 4 3 5 11 3 2 9 2 3 0 -2 14 -4 -5 7 2 3 6 5 3 1 0 5 3 4 -1 3 7 2 3 -4 4 7 0 1 11 2 5 24 3 8 3 4 22 -2 4 2 2 9 1 9 0 0 0 2 25 7 1 6 14 5 7 12 0 5 12 18 6 17 16 5 7 4 4 5 2 2 1 1 3 1 1 3 13 13 -2 18 -3 -1 13 2 1 1 -2 4 2 15 11 3 1 62 0 1 3 31 3 5 3 1 1 12 3 0 -1 4 -4 1 3 9 2 5 4 1 2 3 0 -4 5 5 1 1 27 12 6 2 3 5 0 0 1 -4 5 0 14 8 3 -1 8 8 9 -1 -1 24 1 2 1 7 8 2 4 5 0 7 5 3 5 5 0 20 1 -1 6 2 1 -2 5 0 4 0 3 0 1 4 5 2 1 -1 2 10 2 0 7 15 3 7 3 18 2 2 3 -3 0 4 1 16 3 2 4 11 6 -1 15 11 4 2 2 5 5 8 1 0 28 2 4 2 3 2 -1 14 -2 1 1 14 -3 2 3 1 4 0 3 6 5 2 2 3 24 4 1 6 0 1 14 10 1 3 5 3 19 4 4 0 -1 0 1 15 7 -1 18 -1 0 3 5 21 5 3 -3 8 2 11 6 4 8 0 2 2 4 1 7 6 9 1 6 11 20 4 3 -2 6 1 1 3 0 5 11 14 0 0 6 8 9 3 3 9 7 0 4 8 8 1 0 0 6 2 0 7 1 6 6 5 0 1 0 1 1 10 1 9 3 11 3 4 0 3 0 5 8 4 0 30 4 2 4 4 1 1 0 6 3 5 9 7 1 5 7 5 2 7 1 4 3 4 22 5 8 5 0 6 0 0 6 4 1 16 4 2 1 5 6 4 16 5 5 6 2 -2 2 6 1 6 20 5 2 3 5 2 0 5 7 5 2 3 8 -3 4 11 12 2 5 0 5 1 3 21 1 3 2 0 6 -1 5 3 2 6 -1 4 4 4 3 2 6 4 14 4 5 1 3 -2 -3 1 -2 10 -1 11 2 5 4 8 -2 18 5 2 6 4 -5 2 1 19 4 0 1 3 7 20 1 0 1 4 2 5 8 1 3 5 2 1 4 3 2 3 8 3 1 12 -5 1 1 22 1 3 1 16 2 6 2 2 4 1 9 5 -4 -3 13 4 1 0 -6 7 2 3 8 1 6 0 4 3 2 1 2 7 5 7 0 3 1 0 0 1 4 9 6 4 2 10 4 2 -2 2 4 2 5 2 4 -7 -2 8 1 4 4 -1 2 4 24 2 4 1 1 6 4 3 12 2 6 2 5 0 4 5 1 1 1 3 1 3 -4 1 -3 1 3 0 -4 5 3 -3 4 6 4 18 24 3 0 1 1 14 2 0 4 9 -1 2 8 5 7 1 4 3 1</t>
-  </si>
-  <si>
-    <t>10 2 16 5 9 16 4 11 7 5 11 11 11 0 5 18 6 1 11 16 75 19 18 7 29 16 10 25 17 6 8 20 16 4 15 9 8 5 9 3 6 9 17 12 18 8 7 15 3 3 14 15 0 9 23 5 7 11 6 15 6 8 -1 27 11 2 21 15 6 26 7 10 18 6 11 7 9 1 5 8 12 5 7 12 14 14 49 9 14 9 12 26 32 4 13 5 16 37 8 4 23 15 23 6 16 2 42 4 3 -1 15 7 3 6 22 12 8 8 6 11 16 26 5 5 2 16 11 7 33 6 35 3 8 10 2 4 13 15 6 12 4 23 22 1 6 5 19 5 3 6 9 19 1 14 10 25 16 3 11 17 13 4 9 10 21 16 27 5 5 50 10 7 23 12 4 5 4 8 5 11 5 5 4 16 1 9 14 17 0 11 26 27 1 9 27 14 6 6 7 11 13 8 4 9 14 16 8 10 14 6 8 4 3 17 21 11 8 3 19 11 6 3 9 8 11 12 13 3 5 15 6 19 9 10 9 16 15 3 22 11 16 0 11 12 6 17 12 14 2 8 8 10 14 6 12 11 3 7 4 -3 22 11 17 3 16 13 6 23 25 8 3 10 11 18 20 3 4 4 19 17 7 28 23 41 -5 9 7 27 6 9 14 4 7 8 14 18 8 17 10 5 17 3 12 15 7 11 -2 25 26 9 15 14 10 19 53 1 1 13 5 5 6 2 3 5 4 5 6 14 5 8 10 1 4 13 8 17 31 7 9 59 34 7 17 14 17 29 1 16 8 4 1 9 9 9 1 2 11 12 4 20 7 13 10 1 92 25 2 8 0 21 6 6 29 29 10 13 4 10 6 4 13 6 49 9 10 6 5 2 2 9 7 9 17 6 13 5 41 5 14 3 8 16 52 25 4 5 9 5 4 12 0 11 8 5 -1 12 8 4 10 9 7 4 13 4 4 2 7 8 9 2 2 3 5 9 6 7 4 10 3 7 1 5 4 22 7 7 4 3 5 5 11 34 0 10 2 9 4 7 13 9 14 9 15 4 4 18 7 2 2 15 8 12 8 9 7 13 14 7 14 23 5 1 3 6 11 7 5 7 10 14 3 14 11 6 10 5 7 26 13 12 12 12 26 6 18 16 6 4 4 1 6 24 13 8 -3 20 27 25 15 20 7 5 6 17 10 8 7 6 9 5 30 6 12 7 -7 14 3 14 2 9 1 -1 6 6 7 5 11 22 19 8 8 7 13 12 -1 16 27 3 1 0 9 7 11 7 13 17 2 10 16 32 3 7 3 38 8 30 22 3 6 3 2 7 14 9 14 3 7 6 4 17 7 3 7 9 9 12 6 1 6 15 17 10 10 9 4 51 5 13 5 7 7 15 7 41 12 7 6 5 4 32 32 11 5 3 17 10 2 2 4 23 -1 13 6 7 4 7 6 5 6 5 6 0 10 35 10 3 4 10 9 10 12 6 6 44 23 10 19 19 28 7 9 3 1 7 38 15 5 -3 2 8 16 1 5 10 6 6 2 4 3 4 4 9 13 6 6 13 5 25 11 3 6 5 2 7 1 40 4 14 6 8 20 5 13 4 8 8 5 17 7 6 8 4 12 7 45 5 3 12 6 0 3</t>
+    <t>5 1 7 1 5 1 4 4 7 14 5 -1 7 12 15 2 -4 7 2 7 9 4 -2 0 2 3 6 1 2 5 1 6 8 4 0 3 -2 1 7 -2 -4 3 5 3 6 0 0 6 6 -5 14 0 0 3 1 13 0 20 12 2 3 -3 0 3 12 6 7 6 6 5 -1 2 23 13 3 1 2 4 4 3 2 -1 9 3 14 3 2 8 6 -3 -1 10 7 1 -2 1 -2 11 16 10 3 2 5 1 1 3 6 7 3 6 1 2 7 2 2 43 1 3 4 4 2 0 4 2 2 0 7 7 2 4 7 2 5 3 0 5 4 -1 2 1 10 0 4 1 2 2 9 10 2 4 0 9 2 1 6 6 5 0 4 9 11 -2 7 8 2 7 1 4 7 4 6 5 1 8 3 1 11 3 5 2 1 3 14 6 7 1 5 4 18 1 0 0 2 16 5 2 3 3 10 4 23 15 2 0 10 7 4 5 14 10 0 6 0 12 2 7 6 9 6 2 3 0 0 3 2 3 9 11 4 3 1 1 9 3 5 0 24 2 3 13 6 3 -5 11 2 1 9 9 2 5 1 1 4 5 7 3 1 8 2 9 2 23 1 4 13 2 2 2 5 6 5 3 0 2 5 2 2 11 1 0 4 2 5 12 4 0 -3 0 5 0 1 1 4 -2 16 0 0 4 2 9 2 4 1 1 5 3 1 -3 14 3 3 6 3 4 1 3 2 2 3 2 3 0 2 4 3 2 7 12 6 3 -3 3 -3 0 2 1 6 5 2 3 2 0 18 6 4 -2 5 1 20 3 3 0 2 3 11 0 -5 6 26 6 3 -1 4 1 8 0 4 7 -3 7 2 0 1 2 0 2 7 13 2 17 3 2 12 1 -2 3 13 2 1 7 0 15 10 18 3 1 9 0 1 3 3 2 7 2 2 5 1 3 0 2 1 5 6 2 2 18 2 3 16 2 4 3 28 5 3 1 31 -1 2 8 0 13 0 0 0 2 2 2 4 1 15 3 -2 6 0 1 2 4 1 0 4 5 -2 2 1 -2 4 -2 1 1 -4 11 5 2 -4 3 13 1 3 1 3 2 3 5 3 0 4 2 6 4 2 5 2 14 7 4 1 19 3 2 0 1 4 -2 1 6 0 1 27 8 1 4 2 1 5 3 -1 5 4 0 2 2 10 1 2 0 6 2 1 3 0 3 11 3 8 6 5 0 5 -1 5 5 4 2 7 1 1 0 1 1 8 1 4 6 2 6 4 3 9 3 6 18 6 2 0 1 3 1 5 3 1 3 0 1 5 1 2 3 12 9 4 3 9 4 8 -3 6 11 11 4 1 5 1 2 7 7 5 1 3 1 1 11 6 13 3 0 13 3 7 2 1 14 4 1 0 3 4 21 2 3 3 5 3 3 1 -1 12 2 -1 9 2 1 3 8 3 6 4 5 1 7 4 1 4 3 2 4 5 0 18 -4 7 2 3 2 2 4 1 3 0 9 4 1 2 3 0 10 5 5 4 -4 6 6 3 22 2 4 4 4 2 4 5 21 -1 0 4 4 3 7 1 3 0 17 7 3 15 -1 6 2 1 1 10 1 -3 5 1 4 3 4 1 5 3 2 -2 1 3 19 7 6 3 3 6 3 5 8 6 3 3 0 1 6 2 9 4 1 -3 3 3 7 4 6 5 3 3 -2 0 -4 8 7 3 8 19 4 8 5 5 4 8 -4 3 0 4 4 4 10 6 0 4 13 3 5 6 2 6 4 6 9 2 9 0 0 2 -4 1 -1 3 5 4 4 8 3 2 1 1 2 5 2 8 0 0 -3 14 -2 3 1 1 -2 0 23 1 2 7 5 3 15 2 1 0 11 7 5 8 -4 28 18 0 7 -1 7 10 5 3 1 2 2 14 35 2 20 -1 0 8 7 5</t>
+  </si>
+  <si>
+    <t>7 8 45 8 6 10 11 3 2 4 6 8 23 9 -1 15 29 0 18 6 14 8 9 22 9 3 6 9 13 13 3 19 15 20 15 5 4 2 12 4 10 31 6 6 6 8 18 2 17 18 22 14 6 14 6 6 1 4 34 0 3 24 11 13 5 2 7 10 8 12 1 7 13 9 -1 16 12 9 8 14 12 22 0 11 7 15 5 11 3 10 17 6 7 14 12 9 4 4 5 9 37 15 6 8 4 9 46 12 5 59 23 5 72 3 8 10 1 4 2 4 23 7 2 28 14 20 5 7 29 9 6 11 21 6 9 15 6 11 2 44 1 11 3 10 6 3 7 2 7 13 4 17 8 4 12 1 9 6 11 6 4 7 6 0 19 8 4 7 45 53 2 3 10 3 5 25 9 2 3 8 8 1 16 8 24 0 5 21 13 5 6 26 29 16 7 11 17 18 14 11 11 4 1 18 16 7 9 3 21 3 20 5 7 1 2 2 9 7 -1 16 7 11 2 3 1 13 11 15 19 11 12 11 15 -1 19 4 9 12 2 18 12 9 3 28 28 9 6 4 17 13 14 4 38 18 8 19 9 3 1 12 6 7 29 5 15 46 6 4 47 7 36 8 21 3 7 6 29 10 15 29 6 14 5 8 9 0 5 0 11 9 3 8 13 4 7 3 4 8 6 17 30 22 13 35 6 4 25 10 7 15 14 15 25 9 9 6 -1 16 11 4 29 2 19 12 19 9 9 13 22 11 33 10 3 22 4 85 4 9 57 5 9 8 28 18 12 5 15 15 26 5 14 7 25 6 15 2 14 37 10 21 8 9 13 6 5 6 12 9 24 8 15 13 7 4 12 16 2 3 4 21 4 5 16 9 7 9 37 10 10 20 18 11 27 32 31 9 3 11 10 17 13 10 25 6 4 3 8 9 14 18 9 23 30 9 13 2 13 16 7 4 10 61 25 24 7 23 6 10 25 8 18 8 5 23 12 21 1 4 15 10 12 23 7 23 16 3 16 32 34 4 3 12 5 21 7 0 15 8 8 5 10 9 18 3 51 5 5 4 3 12 8 29 9 29 4 4 9 6 17 5 6 18 3 2 4 6 3 12 7 10 9 48 2 3 25 11 16 6 8 8 10 33 31 29 3 40 8 51 12 4 43 -1 16 2 8 13 0 6 18 18 8 10 10 6 20 7 6 5 4 21 7 9 10 24 5 -1 29 3 6 6 20 6 2 8 3 7 8 10 20 7 2 15 9 5 9 20 24 22 11 2 3 12 3 19 9 17 8 3 6 5 1 4 3 27 3 6 7 5 22 37 24 40 11 5 5 7 9 6 12 3 15 -2 -2 25 6 8 6 21 4 1 9 2 25 31 19 7 8 20 9 8 8 12 56 5 12 12 21 17 13 31 3 11 -1 4 35 10 -5 16 54 9 9 4 30 7 8 1 8 9 3 10 5 3 9 7 5 0 18 10 -5 5 2 15 9 34 7 3 28 14 13 16 2 11 7 7 8 9 16 14 2 7 19 7 2 5 7 13 10 6 4 6 4 19 19 6 4 -1 12 14 11 17 12 7 5 5 10 5 13 8 6 16 14 16 12 6 7 3 12 9 12 15 8 5 16 18 6 4 0 15 10 20 -5 5 7 13 12 12 18 6 3 28 14 5 7 3 11 -2 11 4 26 12 5 4 5 19 13 7 42 2 5 9 4 14 24 8 44 0 4 12 12 18 4 4 30 6 2 -1 8 0 7 17 -5 11 17 6 8 9 13 7 6 7 19 4 11 14 12 6 9 16 7 5 16 3 3 13 5 13 7 15 23 10</t>
+  </si>
+  <si>
+    <t>1 0 5 5 9 4 5 4 6 3 13 6 2 7 13 3 -1 2 9 0 1 3 2 15 3 3 3 11 8 8 10 0 4 13 21 2 3 0 1 5 2 5 5 3 8 3 4 0 2 3 -1 2 9 3 5 13 6 5 4 17 5 8 13 3 -1 1 7 38 6 4 5 48 -1 0 2 2 21 3 14 2 -3 3 10 -3 11 3 6 4 4 4 4 0 3 -3 1 2 2 -5 3 2 -2 11 8 5 6 6 3 3 5 10 8 5 1 4 6 2 -1 2 3 0 1 5 3 -1 0 -1 13 8 9 -1 1 3 1 24 3 -1 6 6 -3 -3 2 3 1 2 1 -1 7 10 11 0 4 3 6 2 18 -2 0 3 6 2 6 4 13 2 1 8 11 2 8 4 5 4 -1 3 2 4 14 6 3 3 1 3 1 4 4 2 1 1 5 0 9 6 0 9 5 4 2 0 3 8 1 6 -4 3 6 7 2 0 -3 4 11 9 2 4 5 3 8 6 10 4 3 5 11 3 2 9 2 3 0 -2 14 -4 -5 7 2 3 6 5 3 1 0 5 3 4 -1 3 7 2 3 -4 4 7 0 1 11 2 5 24 3 8 3 4 22 -2 4 2 2 9 1 9 0 0 0 2 25 7 1 6 14 5 7 12 0 5 12 18 6 17 16 5 7 4 4 5 2 2 1 1 3 1 1 3 13 13 -2 18 -3 -1 13 2 1 1 -2 4 2 15 11 3 1 62 0 1 3 31 3 5 3 1 1 12 3 0 -1 4 -4 1 3 9 2 5 4 1 2 3 0 -4 5 5 1 1 27 12 6 2 3 5 0 0 1 -4 5 0 14 8 3 -1 8 8 9 -1 -1 24 1 2 1 7 8 2 4 5 0 7 5 3 5 5 0 20 1 -1 6 2 1 -2 5 0 4 0 3 0 1 4 5 2 1 -1 2 10 2 0 7 15 3 7 3 18 2 2 3 -3 0 4 1 16 3 2 4 11 6 -1 15 11 4 2 2 5 5 8 1 0 28 2 4 2 3 2 -1 14 -2 1 1 14 -3 2 3 1 4 0 3 6 5 2 2 3 24 4 1 6 0 1 14 10 1 3 5 3 19 4 4 0 -1 0 1 15 7 -1 18 -1 0 3 5 21 5 3 -3 8 2 11 6 4 8 0 2 2 4 1 7 6 9 1 6 11 20 4 3 -2 6 1 1 3 0 5 11 14 0 0 6 8 9 3 3 9 7 0 4 8 8 1 0 0 6 2 0 7 1 6 6 5 0 1 0 1 1 10 1 9 3 11 3 4 0 3 0 5 8 4 0 30 4 2 4 4 1 1 0 6 3 5 9 7 1 5 7 5 2 7 1 4 3 4 22 5 8 5 0 6 0 0 6 4 1 16 4 2 1 5 6 4 16 5 5 6 2 -2 2 6 1 6 20 5 2 3 5 2 0 5 7 5 2 3 8 -3 4 11 12 2 5 0 5 1 3 21 1 3 2 0 6 -1 5 3 2 6 -1 4 4 4 3 2 6 4 14 4 5 1 3 -2 -3 1 -2 10 -1 11 2 5 4 8 -2 18 5 2 6 4 -5 2 1 19 4 0 1 3 7 20 1 0 1 4 2 5 8 1 3 5 2 1 4 3 2 3 8 3 1 12 -5 1 1 22 1 3 1 16 2 6 2 2 4 1 9 5 -4 -3 13 4 1 0 -6 7 2 3 8 1 6 0 4 3 2 1 2 7 5 7 0 3 1 0 0 1 4 9 6 4 2 10 4 2 -2 2 4 2 5 2 4 -7 -2 8 1 4 4 -1 2 4 24 2 4 1 1 6 4 3 12 2 6 2 5 0 4 5 1 1 1 3 1 3 -4 1 -3 1 3 0 -4 5 3 -3 4 6 4 18 24 3 0 1 1 14 2 0 4 9 -1 2 8 5 7 1 4 3 1 3 1 9 2 2 14 1 2 14 11 8 6 -1 2 -3 6 0 7 -1 4 3 4 3 5 2 5 7 2 4 -1 9 1 10 5 4 2 2 2 3 0 -2 1</t>
+  </si>
+  <si>
+    <t>10 2 16 5 9 16 4 11 7 5 11 11 11 0 5 18 6 1 11 16 75 19 18 7 29 16 10 25 17 6 8 20 16 4 15 9 8 5 9 3 6 9 17 12 18 8 7 15 3 3 14 15 0 9 23 5 7 11 6 15 6 8 -1 27 11 2 21 15 6 26 7 10 18 6 11 7 9 1 5 8 12 5 7 12 14 14 49 9 14 9 12 26 32 4 13 5 16 37 8 4 23 15 23 6 16 2 42 4 3 -1 15 7 3 6 22 12 8 8 6 11 16 26 5 5 2 16 11 7 33 6 35 3 8 10 2 4 13 15 6 12 4 23 22 1 6 5 19 5 3 6 9 19 1 14 10 25 16 3 11 17 13 4 9 10 21 16 27 5 5 50 10 7 23 12 4 5 4 8 5 11 5 5 4 16 1 9 14 17 0 11 26 27 1 9 27 14 6 6 7 11 13 8 4 9 14 16 8 10 14 6 8 4 3 17 21 11 8 3 19 11 6 3 9 8 11 12 13 3 5 15 6 19 9 10 9 16 15 3 22 11 16 0 11 12 6 17 12 14 2 8 8 10 14 6 12 11 3 7 4 -3 22 11 17 3 16 13 6 23 25 8 3 10 11 18 20 3 4 4 19 17 7 28 23 41 -5 9 7 27 6 9 14 4 7 8 14 18 8 17 10 5 17 3 12 15 7 11 -2 25 26 9 15 14 10 19 53 1 1 13 5 5 6 2 3 5 4 5 6 14 5 8 10 1 4 13 8 17 31 7 9 59 34 7 17 14 17 29 1 16 8 4 1 9 9 9 1 2 11 12 4 20 7 13 10 1 92 25 2 8 0 21 6 6 29 29 10 13 4 10 6 4 13 6 49 9 10 6 5 2 2 9 7 9 17 6 13 5 41 5 14 3 8 16 52 25 4 5 9 5 4 12 0 11 8 5 -1 12 8 4 10 9 7 4 13 4 4 2 7 8 9 2 2 3 5 9 6 7 4 10 3 7 1 5 4 22 7 7 4 3 5 5 11 34 0 10 2 9 4 7 13 9 14 9 15 4 4 18 7 2 2 15 8 12 8 9 7 13 14 7 14 23 5 1 3 6 11 7 5 7 10 14 3 14 11 6 10 5 7 26 13 12 12 12 26 6 18 16 6 4 4 1 6 24 13 8 -3 20 27 25 15 20 7 5 6 17 10 8 7 6 9 5 30 6 12 7 -7 14 3 14 2 9 1 -1 6 6 7 5 11 22 19 8 8 7 13 12 -1 16 27 3 1 0 9 7 11 7 13 17 2 10 16 32 3 7 3 38 8 30 22 3 6 3 2 7 14 9 14 3 7 6 4 17 7 3 7 9 9 12 6 1 6 15 17 10 10 9 4 51 5 13 5 7 7 15 7 41 12 7 6 5 4 32 32 11 5 3 17 10 2 2 4 23 -1 13 6 7 4 7 6 5 6 5 6 0 10 35 10 3 4 10 9 10 12 6 6 44 23 10 19 19 28 7 9 3 1 7 38 15 5 -3 2 8 16 1 5 10 6 6 2 4 3 4 4 9 13 6 6 13 5 25 11 3 6 5 2 7 1 40 4 14 6 8 20 5 13 4 8 8 5 17 7 6 8 4 12 7 45 5 3 12 6 0 3 3 5 5 14 19 6 10 6 6 13 14 7 42 2 3 6 5 9 18 1 6 14 4 14 10 17 12 6 11 17 9 21 7 -1 28 5 5 29 5 10 5 9 7 9 5 7 3 19 11 10 6 7</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>66 63 65 62 70 67 68 65 60 62 57 74 66 58 66 41 66 63 65 67 61 67 68 57 64 67 15 66 64 60 58 65 61 61 69 66 56 62 61 61 69 63 62 65 60 66 58 65 58 65 63 61 62 59 67 65 63 66 62 58 58 57</t>
-  </si>
-  <si>
-    <t>38 21 24 27 29 35 17 22 23 21 15 28 34 33 32 10 28 3 26 28 21 29 27 22 25 33 0 28 31 21 18 16 28 18 28 18 15 24 11 24 32 13 13 18 12 23 26 23 18 18 20 14 25 32 18 0 11 24 24 18 20 0</t>
-  </si>
-  <si>
-    <t>30 16 22 12 12 35 19 19 18 9 11 22 32 44 14 21 0 21 33 32 24 13 20 22 15 25 15 31 22 15 15 20 14 26 32 22 20 23 19 18 19 12 25 15 19 24 28 16 29 14 23 23 34 9</t>
-  </si>
-  <si>
-    <t>52 51 24 42 36 46 44 46 57 47 59 48 43 30 56 45 39 24 61 38 39 36 31 42 46 47 63 45 42 31 47 51 47 56 19 58 27 48 35 56 38 46 35 63 67 64 37 55 40 50 45 55 49 45 67 54 45 49 56 52 68 39 70 47 66 71 54 37 59 35 42 58 40 61 42 44 63 37 47 54 48 68 32 53 36 54 42 67 38 55 44 60 46 42 49 41 45 38 47 44 60</t>
-  </si>
-  <si>
-    <t>19 10 0 0 0 11 0 0 38 11 0 0 0 0 0 0 0 0 0 0 0 0 0 -2 0 0 0 0 4 0 0 0 2 10 0 7 0 0 0 13 0 0 0 22 15 30 0 15 0 0 15 8 0 7 12 11 0 0 9 0 17 0 21 0 0 0 0 0 6 0 12 14 0 37 0 9 0 0 0 0 15 2 0 0 0 14 0 16 0 13 0 0 11 20 0 0 0 0 0 0 0</t>
-  </si>
-  <si>
-    <t>27 10 5 0 0 0 0 0 0 24 0 0 0 0 0 0 0 0 0 13 0 0 13 12 29 0 16 8 3 6 0 0 12 0 11 0 11 0 16 32 -3 13 9 19 21 0 0 0 3 0 0 7 0 10 0 16 7 0 2 0 0 17 0 5 6 0 0 0 0 9 0 5 0 0 0 0 15 0 0 5 0 12 11 21 0 0 0 0 9 7 6 0 0 0 6 29 0 0 0 2 0 0 6 0 0 7 41 0 0 16</t>
+    <t>66 63 65 62 70 67 68 65 60 62 57 74 66 58 66 41 66 63 65 67 61 67 68 57 64 67 15 66 64 60 58 65 61 61 69 66 56 62 61 61 69 63 62 65 60 66 58 65 58 65 63 61 62 59 67 65 63 66 62 58 58 57 66 59 54 57 63 64</t>
+  </si>
+  <si>
+    <t>38 21 24 27 29 35 17 22 23 21 15 28 34 33 32 10 28 3 26 28 21 29 27 22 25 33 0 28 31 21 18 16 28 18 28 18 15 24 11 24 32 13 13 18 12 23 26 23 18 18 20 14 25 32 18 0 11 24 24 18 20 0 24 23 14 27 23 25</t>
+  </si>
+  <si>
+    <t>30 16 22 12 12 35 19 19 18 9 11 22 32 44 14 21 0 21 33 32 24 13 20 22 15 25 15 31 22 15 15 20 14 26 32 22 20 23 19 18 19 12 25 15 19 24 28 16 29 14 23 23 34 9 18 22 0 35 16 22</t>
+  </si>
+  <si>
+    <t>52 51 24 42 36 46 44 46 57 47 59 48 43 30 56 45 39 24 61 38 39 36 31 42 46 47 63 45 42 31 47 51 47 56 19 58 27 48 35 56 38 46 35 63 67 64 37 55 40 50 45 55 49 45 67 54 45 49 56 52 68 39 70 47 66 71 54 37 59 35 42 58 40 61 42 44 63 37 47 54 48 68 32 53 36 54 42 67 38 55 44 60 46 42 49 41 45 38 47 44 60 46 33 48 54 58 41</t>
+  </si>
+  <si>
+    <t>19 10 0 0 0 11 0 0 38 11 0 0 0 0 0 0 0 0 0 0 0 0 0 -2 0 0 0 0 4 0 0 0 2 10 0 7 0 0 0 13 0 0 0 22 15 30 0 15 0 0 15 8 0 7 12 11 0 0 9 0 17 0 21 0 0 0 0 0 6 0 12 14 0 37 0 9 0 0 0 0 15 2 0 0 0 14 0 16 0 13 0 0 11 20 0 0 0 0 0 0 0 4 0 0 11 14 12</t>
+  </si>
+  <si>
+    <t>27 10 5 0 0 0 0 0 0 24 0 0 0 0 0 0 0 0 0 13 0 0 13 12 29 0 16 8 3 6 0 0 12 0 11 0 11 0 16 32 -3 13 9 19 21 0 0 0 3 0 0 7 0 10 0 16 7 0 2 0 0 17 0 5 6 0 0 0 0 9 0 5 0 0 0 0 15 0 0 5 0 12 11 21 0 0 0 0 9 7 6 0 0 0 6 29 0 0 0 2 0 0 6 0 0 7 41 0 0 16 10 9 13 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,49 +668,49 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G2">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="H2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>577</v>
+        <v>613</v>
       </c>
       <c r="M2">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="N2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q2">
-        <v>1027</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -718,43 +718,43 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3">
-        <v>364</v>
+        <v>392</v>
       </c>
       <c r="D3">
         <v>6</v>
       </c>
       <c r="E3">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F3">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="G3">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H3">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I3">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="J3">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>537</v>
+        <v>590</v>
       </c>
       <c r="M3">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="N3">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>972</v>
+        <v>1051</v>
       </c>
     </row>
   </sheetData>
@@ -943,19 +943,19 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="D2">
         <v>27</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G2">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="H2">
         <v>8</v>
@@ -964,28 +964,28 @@
         <v>11</v>
       </c>
       <c r="J2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>567</v>
+        <v>631</v>
       </c>
       <c r="M2">
-        <v>383</v>
+        <v>417</v>
       </c>
       <c r="N2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="P2">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="Q2">
-        <v>1020</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -993,43 +993,43 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3">
-        <v>327</v>
+        <v>359</v>
       </c>
       <c r="D3">
         <v>9</v>
       </c>
       <c r="E3">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F3">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="G3">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H3">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I3">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="J3">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>556</v>
+        <v>590</v>
       </c>
       <c r="M3">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="N3">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>1032</v>
+        <v>1092</v>
       </c>
     </row>
   </sheetData>
@@ -1215,46 +1215,46 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K2">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="L2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1348,10 +1348,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>13</v>
@@ -1362,16 +1362,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>9</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1417,13 +1417,13 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1445,7 +1445,7 @@
         <v>59</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
